--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B98187-AB37-4EF1-A263-F54327C0B81E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E0C7F-89E0-43BC-9A65-D6043A1F2320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8260" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
-    <sheet name="YomulAbil" sheetId="1" r:id="rId1"/>
+    <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
@@ -34,21 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlockPrice</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>unlockType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -56,15 +44,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abilAddValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>maxLevel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방어도 초과</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -76,46 +56,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yomul0</t>
+    <t>relic0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yomul1</t>
+    <t>relic1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yomul2</t>
+    <t>relic2</t>
+  </si>
+  <si>
+    <t>relic3</t>
+  </si>
+  <si>
+    <t>upgradePrice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>테스트용</t>
+    <t>requireRelic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>yomul3</t>
-  </si>
-  <si>
-    <t>방어도무시</t>
+    <t>requireLevel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abilName</t>
+    <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>영혼 베기</t>
+    <t>유물0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제물</t>
+    <t>유물1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>한계 돌파</t>
+    <t>유물2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>심장 베기</t>
+    <t>유물3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -480,178 +463,162 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="13.625" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.125" customWidth="1"/>
-    <col min="7" max="7" width="26.625" customWidth="1"/>
-    <col min="8" max="8" width="26.125" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
+    <col min="2" max="2" width="11.58203125" customWidth="1"/>
+    <col min="3" max="3" width="12.08203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2">
-        <v>50000000</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>100</v>
       </c>
       <c r="F2">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="G2">
-        <v>1E-3</v>
+        <v>-1</v>
       </c>
       <c r="H2">
-        <v>3.0000000000000001E-5</v>
-      </c>
-      <c r="I2">
         <v>100</v>
       </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>100</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1000000000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>100</v>
       </c>
       <c r="F4">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>350</v>
-      </c>
-      <c r="I4">
-        <v>2000</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="F5">
+        <v>100</v>
+      </c>
+      <c r="G5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
       <c r="H5">
-        <v>0.5</v>
-      </c>
-      <c r="I5">
-        <v>1000</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
+        <v>100</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -669,12 +636,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="3" max="3" width="97.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1">
         <v>1</v>
       </c>
@@ -687,7 +654,7 @@
         <v>25025000000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>2</v>
       </c>
@@ -696,7 +663,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3">
         <v>3</v>
       </c>
@@ -705,7 +672,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>4</v>
       </c>
@@ -714,7 +681,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>5</v>
       </c>
@@ -723,7 +690,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>6</v>
       </c>
@@ -732,7 +699,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>7</v>
       </c>
@@ -741,7 +708,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>8</v>
       </c>
@@ -750,7 +717,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>9</v>
       </c>
@@ -759,7 +726,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>10</v>
       </c>
@@ -768,7 +735,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>11</v>
       </c>
@@ -777,7 +744,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>12</v>
       </c>
@@ -786,7 +753,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>13</v>
       </c>
@@ -795,7 +762,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>14</v>
       </c>
@@ -804,7 +771,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>15</v>
       </c>
@@ -813,7 +780,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>16</v>
       </c>
@@ -822,7 +789,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>17</v>
       </c>
@@ -831,7 +798,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>18</v>
       </c>
@@ -840,7 +807,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>19</v>
       </c>
@@ -849,7 +816,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>20</v>
       </c>
@@ -858,7 +825,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>21</v>
       </c>
@@ -867,7 +834,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>22</v>
       </c>
@@ -876,7 +843,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>23</v>
       </c>
@@ -885,7 +852,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>24</v>
       </c>
@@ -894,7 +861,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>25</v>
       </c>
@@ -903,7 +870,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>26</v>
       </c>
@@ -912,7 +879,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>27</v>
       </c>
@@ -921,7 +888,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>28</v>
       </c>
@@ -930,7 +897,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>29</v>
       </c>
@@ -939,7 +906,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>30</v>
       </c>
@@ -948,7 +915,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>31</v>
       </c>
@@ -957,7 +924,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>32</v>
       </c>
@@ -966,7 +933,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>33</v>
       </c>
@@ -975,7 +942,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>34</v>
       </c>
@@ -984,7 +951,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>35</v>
       </c>
@@ -993,7 +960,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1002,7 +969,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1011,7 +978,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1020,7 +987,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1029,7 +996,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1038,7 +1005,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1047,7 +1014,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1056,7 +1023,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1065,7 +1032,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1074,7 +1041,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1083,7 +1050,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1092,7 +1059,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1101,7 +1068,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1110,7 +1077,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1119,7 +1086,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1128,7 +1095,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1137,7 +1104,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1146,7 +1113,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1155,7 +1122,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1164,7 +1131,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1173,7 +1140,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1182,7 +1149,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1191,7 +1158,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1200,7 +1167,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1209,7 +1176,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1218,7 +1185,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1227,7 +1194,7 @@
         <v>3050000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1236,7 +1203,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1245,7 +1212,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1254,7 +1221,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1263,7 +1230,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1272,7 +1239,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1281,7 +1248,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1290,7 +1257,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1299,7 +1266,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1308,7 +1275,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1317,7 +1284,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1326,7 +1293,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>73</v>
       </c>
@@ -1335,7 +1302,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1344,7 +1311,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1353,7 +1320,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1362,7 +1329,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1371,7 +1338,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1380,7 +1347,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1389,7 +1356,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1398,7 +1365,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1407,7 +1374,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1416,7 +1383,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1425,7 +1392,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1434,7 +1401,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1443,7 +1410,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1452,7 +1419,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1461,7 +1428,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1470,7 +1437,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1479,7 +1446,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1488,7 +1455,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>91</v>
       </c>
@@ -1497,7 +1464,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>92</v>
       </c>
@@ -1506,7 +1473,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>93</v>
       </c>
@@ -1515,7 +1482,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>94</v>
       </c>
@@ -1524,7 +1491,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>95</v>
       </c>
@@ -1533,7 +1500,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>96</v>
       </c>
@@ -1542,7 +1509,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>97</v>
       </c>
@@ -1551,7 +1518,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>98</v>
       </c>
@@ -1560,7 +1527,7 @@
         <v>4900000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>99</v>
       </c>
@@ -1569,7 +1536,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>100</v>
       </c>
@@ -1578,7 +1545,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>101</v>
       </c>
@@ -1587,7 +1554,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>102</v>
       </c>
@@ -1596,7 +1563,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>103</v>
       </c>
@@ -1605,7 +1572,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>104</v>
       </c>
@@ -1614,7 +1581,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>105</v>
       </c>
@@ -1623,7 +1590,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>106</v>
       </c>
@@ -1632,7 +1599,7 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>107</v>
       </c>
@@ -1641,7 +1608,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>108</v>
       </c>
@@ -1650,7 +1617,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>109</v>
       </c>
@@ -1659,7 +1626,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>110</v>
       </c>
@@ -1668,7 +1635,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>111</v>
       </c>
@@ -1677,7 +1644,7 @@
         <v>5550000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>112</v>
       </c>
@@ -1686,7 +1653,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>113</v>
       </c>
@@ -1695,7 +1662,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>114</v>
       </c>
@@ -1704,7 +1671,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>115</v>
       </c>
@@ -1713,7 +1680,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>116</v>
       </c>
@@ -1722,7 +1689,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>117</v>
       </c>
@@ -1731,7 +1698,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>118</v>
       </c>
@@ -1740,7 +1707,7 @@
         <v>5900000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>119</v>
       </c>
@@ -1749,7 +1716,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>120</v>
       </c>
@@ -1758,7 +1725,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>121</v>
       </c>
@@ -1767,7 +1734,7 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>122</v>
       </c>
@@ -1776,7 +1743,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>123</v>
       </c>
@@ -1785,7 +1752,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>124</v>
       </c>
@@ -1794,7 +1761,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>125</v>
       </c>
@@ -1803,7 +1770,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>126</v>
       </c>
@@ -1812,7 +1779,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>127</v>
       </c>
@@ -1821,7 +1788,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>128</v>
       </c>
@@ -1830,7 +1797,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>129</v>
       </c>
@@ -1839,7 +1806,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>130</v>
       </c>
@@ -1848,7 +1815,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>131</v>
       </c>
@@ -1857,7 +1824,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>132</v>
       </c>
@@ -1866,7 +1833,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>133</v>
       </c>
@@ -1875,7 +1842,7 @@
         <v>6650000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>134</v>
       </c>
@@ -1884,7 +1851,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>135</v>
       </c>
@@ -1893,7 +1860,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>136</v>
       </c>
@@ -1902,7 +1869,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>137</v>
       </c>
@@ -1911,7 +1878,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>138</v>
       </c>
@@ -1920,7 +1887,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>139</v>
       </c>
@@ -1929,7 +1896,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>140</v>
       </c>
@@ -1938,7 +1905,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>141</v>
       </c>
@@ -1947,7 +1914,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>142</v>
       </c>
@@ -1956,7 +1923,7 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>143</v>
       </c>
@@ -1965,7 +1932,7 @@
         <v>7150000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>144</v>
       </c>
@@ -1974,7 +1941,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>145</v>
       </c>
@@ -1983,7 +1950,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>146</v>
       </c>
@@ -1992,7 +1959,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>147</v>
       </c>
@@ -2001,7 +1968,7 @@
         <v>7350000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>148</v>
       </c>
@@ -2010,7 +1977,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>149</v>
       </c>
@@ -2019,7 +1986,7 @@
         <v>7450000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>150</v>
       </c>
@@ -2028,7 +1995,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>151</v>
       </c>
@@ -2037,7 +2004,7 @@
         <v>7550000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>152</v>
       </c>
@@ -2046,7 +2013,7 @@
         <v>7600000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>153</v>
       </c>
@@ -2055,7 +2022,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>154</v>
       </c>
@@ -2064,7 +2031,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>155</v>
       </c>
@@ -2073,7 +2040,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>156</v>
       </c>
@@ -2082,7 +2049,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>157</v>
       </c>
@@ -2091,7 +2058,7 @@
         <v>7850000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>158</v>
       </c>
@@ -2100,7 +2067,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>159</v>
       </c>
@@ -2109,7 +2076,7 @@
         <v>7950000</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>160</v>
       </c>
@@ -2118,7 +2085,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>161</v>
       </c>
@@ -2127,7 +2094,7 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>162</v>
       </c>
@@ -2136,7 +2103,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>163</v>
       </c>
@@ -2145,7 +2112,7 @@
         <v>8150000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>164</v>
       </c>
@@ -2154,7 +2121,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>165</v>
       </c>
@@ -2163,7 +2130,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>166</v>
       </c>
@@ -2172,7 +2139,7 @@
         <v>8300000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>167</v>
       </c>
@@ -2181,7 +2148,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>168</v>
       </c>
@@ -2190,7 +2157,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>169</v>
       </c>
@@ -2199,7 +2166,7 @@
         <v>8450000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>170</v>
       </c>
@@ -2208,7 +2175,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>171</v>
       </c>
@@ -2217,7 +2184,7 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>172</v>
       </c>
@@ -2226,7 +2193,7 @@
         <v>8600000</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>173</v>
       </c>
@@ -2235,7 +2202,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>174</v>
       </c>
@@ -2244,7 +2211,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>175</v>
       </c>
@@ -2253,7 +2220,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>176</v>
       </c>
@@ -2262,7 +2229,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>177</v>
       </c>
@@ -2271,7 +2238,7 @@
         <v>8850000</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>178</v>
       </c>
@@ -2280,7 +2247,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>179</v>
       </c>
@@ -2289,7 +2256,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>180</v>
       </c>
@@ -2298,7 +2265,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>181</v>
       </c>
@@ -2307,7 +2274,7 @@
         <v>9050000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>182</v>
       </c>
@@ -2316,7 +2283,7 @@
         <v>9100000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>183</v>
       </c>
@@ -2325,7 +2292,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>184</v>
       </c>
@@ -2334,7 +2301,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>185</v>
       </c>
@@ -2343,7 +2310,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>186</v>
       </c>
@@ -2352,7 +2319,7 @@
         <v>9300000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>187</v>
       </c>
@@ -2361,7 +2328,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>188</v>
       </c>
@@ -2370,7 +2337,7 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>189</v>
       </c>
@@ -2379,7 +2346,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>190</v>
       </c>
@@ -2388,7 +2355,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>191</v>
       </c>
@@ -2397,7 +2364,7 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>192</v>
       </c>
@@ -2406,7 +2373,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>193</v>
       </c>
@@ -2415,7 +2382,7 @@
         <v>9650000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>194</v>
       </c>
@@ -2424,7 +2391,7 @@
         <v>9700000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>195</v>
       </c>
@@ -2433,7 +2400,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>196</v>
       </c>
@@ -2442,7 +2409,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>197</v>
       </c>
@@ -2451,7 +2418,7 @@
         <v>9850000</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>198</v>
       </c>
@@ -2460,7 +2427,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>199</v>
       </c>
@@ -2469,7 +2436,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>200</v>
       </c>
@@ -2478,7 +2445,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>201</v>
       </c>
@@ -2487,7 +2454,7 @@
         <v>10050000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>202</v>
       </c>
@@ -2496,7 +2463,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>203</v>
       </c>
@@ -2505,7 +2472,7 @@
         <v>10150000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>204</v>
       </c>
@@ -2514,7 +2481,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>205</v>
       </c>
@@ -2523,7 +2490,7 @@
         <v>10250000</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>206</v>
       </c>
@@ -2532,7 +2499,7 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>207</v>
       </c>
@@ -2541,7 +2508,7 @@
         <v>10350000</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>208</v>
       </c>
@@ -2550,7 +2517,7 @@
         <v>10400000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>209</v>
       </c>
@@ -2559,7 +2526,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>210</v>
       </c>
@@ -2568,7 +2535,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>211</v>
       </c>
@@ -2577,7 +2544,7 @@
         <v>10550000</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>212</v>
       </c>
@@ -2586,7 +2553,7 @@
         <v>10600000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>213</v>
       </c>
@@ -2595,7 +2562,7 @@
         <v>10650000</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>214</v>
       </c>
@@ -2604,7 +2571,7 @@
         <v>10700000</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>215</v>
       </c>
@@ -2613,7 +2580,7 @@
         <v>10750000</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>216</v>
       </c>
@@ -2622,7 +2589,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>217</v>
       </c>
@@ -2631,7 +2598,7 @@
         <v>10850000</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>218</v>
       </c>
@@ -2640,7 +2607,7 @@
         <v>10900000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>219</v>
       </c>
@@ -2649,7 +2616,7 @@
         <v>10950000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>220</v>
       </c>
@@ -2658,7 +2625,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>221</v>
       </c>
@@ -2667,7 +2634,7 @@
         <v>11050000</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>222</v>
       </c>
@@ -2676,7 +2643,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>223</v>
       </c>
@@ -2685,7 +2652,7 @@
         <v>11150000</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>224</v>
       </c>
@@ -2694,7 +2661,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>225</v>
       </c>
@@ -2703,7 +2670,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>226</v>
       </c>
@@ -2712,7 +2679,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>227</v>
       </c>
@@ -2721,7 +2688,7 @@
         <v>11350000</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>228</v>
       </c>
@@ -2730,7 +2697,7 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>229</v>
       </c>
@@ -2739,7 +2706,7 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>230</v>
       </c>
@@ -2748,7 +2715,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>231</v>
       </c>
@@ -2757,7 +2724,7 @@
         <v>11550000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>232</v>
       </c>
@@ -2766,7 +2733,7 @@
         <v>11600000</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>233</v>
       </c>
@@ -2775,7 +2742,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>234</v>
       </c>
@@ -2784,7 +2751,7 @@
         <v>11700000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>235</v>
       </c>
@@ -2793,7 +2760,7 @@
         <v>11750000</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>236</v>
       </c>
@@ -2802,7 +2769,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>237</v>
       </c>
@@ -2811,7 +2778,7 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>238</v>
       </c>
@@ -2820,7 +2787,7 @@
         <v>11900000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>239</v>
       </c>
@@ -2829,7 +2796,7 @@
         <v>11950000</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>240</v>
       </c>
@@ -2838,7 +2805,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>241</v>
       </c>
@@ -2847,7 +2814,7 @@
         <v>12050000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>242</v>
       </c>
@@ -2856,7 +2823,7 @@
         <v>12100000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>243</v>
       </c>
@@ -2865,7 +2832,7 @@
         <v>12150000</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>244</v>
       </c>
@@ -2874,7 +2841,7 @@
         <v>12200000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>245</v>
       </c>
@@ -2883,7 +2850,7 @@
         <v>12250000</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>246</v>
       </c>
@@ -2892,7 +2859,7 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>247</v>
       </c>
@@ -2901,7 +2868,7 @@
         <v>12350000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>248</v>
       </c>
@@ -2910,7 +2877,7 @@
         <v>12400000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>249</v>
       </c>
@@ -2919,7 +2886,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>250</v>
       </c>
@@ -2928,7 +2895,7 @@
         <v>12500000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>251</v>
       </c>
@@ -2937,7 +2904,7 @@
         <v>12550000</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>252</v>
       </c>
@@ -2946,7 +2913,7 @@
         <v>12600000</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>253</v>
       </c>
@@ -2955,7 +2922,7 @@
         <v>12650000</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>254</v>
       </c>
@@ -2964,7 +2931,7 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>255</v>
       </c>
@@ -2973,7 +2940,7 @@
         <v>12750000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>256</v>
       </c>
@@ -2982,7 +2949,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>257</v>
       </c>
@@ -2991,7 +2958,7 @@
         <v>12850000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>258</v>
       </c>
@@ -3000,7 +2967,7 @@
         <v>12900000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>259</v>
       </c>
@@ -3009,7 +2976,7 @@
         <v>12950000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>260</v>
       </c>
@@ -3018,7 +2985,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>261</v>
       </c>
@@ -3027,7 +2994,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>262</v>
       </c>
@@ -3036,7 +3003,7 @@
         <v>13100000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>263</v>
       </c>
@@ -3045,7 +3012,7 @@
         <v>13150000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>264</v>
       </c>
@@ -3054,7 +3021,7 @@
         <v>13200000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>265</v>
       </c>
@@ -3063,7 +3030,7 @@
         <v>13250000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>266</v>
       </c>
@@ -3072,7 +3039,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>267</v>
       </c>
@@ -3081,7 +3048,7 @@
         <v>13350000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>268</v>
       </c>
@@ -3090,7 +3057,7 @@
         <v>13400000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>269</v>
       </c>
@@ -3099,7 +3066,7 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>270</v>
       </c>
@@ -3108,7 +3075,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>271</v>
       </c>
@@ -3117,7 +3084,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>272</v>
       </c>
@@ -3126,7 +3093,7 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>273</v>
       </c>
@@ -3135,7 +3102,7 @@
         <v>13650000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>274</v>
       </c>
@@ -3144,7 +3111,7 @@
         <v>13700000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>275</v>
       </c>
@@ -3153,7 +3120,7 @@
         <v>13750000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>276</v>
       </c>
@@ -3162,7 +3129,7 @@
         <v>13800000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>277</v>
       </c>
@@ -3171,7 +3138,7 @@
         <v>13850000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>278</v>
       </c>
@@ -3180,7 +3147,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>279</v>
       </c>
@@ -3189,7 +3156,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>280</v>
       </c>
@@ -3198,7 +3165,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>281</v>
       </c>
@@ -3207,7 +3174,7 @@
         <v>14050000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>282</v>
       </c>
@@ -3216,7 +3183,7 @@
         <v>14100000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>283</v>
       </c>
@@ -3225,7 +3192,7 @@
         <v>14150000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>284</v>
       </c>
@@ -3234,7 +3201,7 @@
         <v>14200000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>285</v>
       </c>
@@ -3243,7 +3210,7 @@
         <v>14250000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>286</v>
       </c>
@@ -3252,7 +3219,7 @@
         <v>14300000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>287</v>
       </c>
@@ -3261,7 +3228,7 @@
         <v>14350000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>288</v>
       </c>
@@ -3270,7 +3237,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>289</v>
       </c>
@@ -3279,7 +3246,7 @@
         <v>14450000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>290</v>
       </c>
@@ -3288,7 +3255,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>291</v>
       </c>
@@ -3297,7 +3264,7 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>292</v>
       </c>
@@ -3306,7 +3273,7 @@
         <v>14600000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>293</v>
       </c>
@@ -3315,7 +3282,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>294</v>
       </c>
@@ -3324,7 +3291,7 @@
         <v>14700000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>295</v>
       </c>
@@ -3333,7 +3300,7 @@
         <v>14750000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>296</v>
       </c>
@@ -3342,7 +3309,7 @@
         <v>14800000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>297</v>
       </c>
@@ -3351,7 +3318,7 @@
         <v>14850000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>298</v>
       </c>
@@ -3360,7 +3327,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>299</v>
       </c>
@@ -3369,7 +3336,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>300</v>
       </c>
@@ -3378,7 +3345,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>301</v>
       </c>
@@ -3387,7 +3354,7 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>302</v>
       </c>
@@ -3396,7 +3363,7 @@
         <v>15100000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>303</v>
       </c>
@@ -3405,7 +3372,7 @@
         <v>15150000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>304</v>
       </c>
@@ -3414,7 +3381,7 @@
         <v>15200000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>305</v>
       </c>
@@ -3423,7 +3390,7 @@
         <v>15250000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>306</v>
       </c>
@@ -3432,7 +3399,7 @@
         <v>15300000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>307</v>
       </c>
@@ -3441,7 +3408,7 @@
         <v>15350000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>308</v>
       </c>
@@ -3450,7 +3417,7 @@
         <v>15400000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>309</v>
       </c>
@@ -3459,7 +3426,7 @@
         <v>15450000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>310</v>
       </c>
@@ -3468,7 +3435,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>311</v>
       </c>
@@ -3477,7 +3444,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>312</v>
       </c>
@@ -3486,7 +3453,7 @@
         <v>15600000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>313</v>
       </c>
@@ -3495,7 +3462,7 @@
         <v>15650000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A314">
         <v>314</v>
       </c>
@@ -3504,7 +3471,7 @@
         <v>15700000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A315">
         <v>315</v>
       </c>
@@ -3513,7 +3480,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A316">
         <v>316</v>
       </c>
@@ -3522,7 +3489,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A317">
         <v>317</v>
       </c>
@@ -3531,7 +3498,7 @@
         <v>15850000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A318">
         <v>318</v>
       </c>
@@ -3540,7 +3507,7 @@
         <v>15900000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A319">
         <v>319</v>
       </c>
@@ -3549,7 +3516,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A320">
         <v>320</v>
       </c>
@@ -3558,7 +3525,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A321">
         <v>321</v>
       </c>
@@ -3567,7 +3534,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A322">
         <v>322</v>
       </c>
@@ -3576,7 +3543,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A323">
         <v>323</v>
       </c>
@@ -3585,7 +3552,7 @@
         <v>16150000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A324">
         <v>324</v>
       </c>
@@ -3594,7 +3561,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A325">
         <v>325</v>
       </c>
@@ -3603,7 +3570,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A326">
         <v>326</v>
       </c>
@@ -3612,7 +3579,7 @@
         <v>16300000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A327">
         <v>327</v>
       </c>
@@ -3621,7 +3588,7 @@
         <v>16350000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A328">
         <v>328</v>
       </c>
@@ -3630,7 +3597,7 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A329">
         <v>329</v>
       </c>
@@ -3639,7 +3606,7 @@
         <v>16450000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A330">
         <v>330</v>
       </c>
@@ -3648,7 +3615,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A331">
         <v>331</v>
       </c>
@@ -3657,7 +3624,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A332">
         <v>332</v>
       </c>
@@ -3666,7 +3633,7 @@
         <v>16600000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A333">
         <v>333</v>
       </c>
@@ -3675,7 +3642,7 @@
         <v>16650000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A334">
         <v>334</v>
       </c>
@@ -3684,7 +3651,7 @@
         <v>16700000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A335">
         <v>335</v>
       </c>
@@ -3693,7 +3660,7 @@
         <v>16750000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A336">
         <v>336</v>
       </c>
@@ -3702,7 +3669,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A337">
         <v>337</v>
       </c>
@@ -3711,7 +3678,7 @@
         <v>16850000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A338">
         <v>338</v>
       </c>
@@ -3720,7 +3687,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A339">
         <v>339</v>
       </c>
@@ -3729,7 +3696,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A340">
         <v>340</v>
       </c>
@@ -3738,7 +3705,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A341">
         <v>341</v>
       </c>
@@ -3747,7 +3714,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A342">
         <v>342</v>
       </c>
@@ -3756,7 +3723,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A343">
         <v>343</v>
       </c>
@@ -3765,7 +3732,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A344">
         <v>344</v>
       </c>
@@ -3774,7 +3741,7 @@
         <v>17200000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A345">
         <v>345</v>
       </c>
@@ -3783,7 +3750,7 @@
         <v>17250000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A346">
         <v>346</v>
       </c>
@@ -3792,7 +3759,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A347">
         <v>347</v>
       </c>
@@ -3801,7 +3768,7 @@
         <v>17350000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A348">
         <v>348</v>
       </c>
@@ -3810,7 +3777,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A349">
         <v>349</v>
       </c>
@@ -3819,7 +3786,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A350">
         <v>350</v>
       </c>
@@ -3828,7 +3795,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A351">
         <v>351</v>
       </c>
@@ -3837,7 +3804,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A352">
         <v>352</v>
       </c>
@@ -3846,7 +3813,7 @@
         <v>17600000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A353">
         <v>353</v>
       </c>
@@ -3855,7 +3822,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A354">
         <v>354</v>
       </c>
@@ -3864,7 +3831,7 @@
         <v>17700000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A355">
         <v>355</v>
       </c>
@@ -3873,7 +3840,7 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A356">
         <v>356</v>
       </c>
@@ -3882,7 +3849,7 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A357">
         <v>357</v>
       </c>
@@ -3891,7 +3858,7 @@
         <v>17850000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A358">
         <v>358</v>
       </c>
@@ -3900,7 +3867,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A359">
         <v>359</v>
       </c>
@@ -3909,7 +3876,7 @@
         <v>17950000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A360">
         <v>360</v>
       </c>
@@ -3918,7 +3885,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A361">
         <v>361</v>
       </c>
@@ -3927,7 +3894,7 @@
         <v>18050000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A362">
         <v>362</v>
       </c>
@@ -3936,7 +3903,7 @@
         <v>18100000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A363">
         <v>363</v>
       </c>
@@ -3945,7 +3912,7 @@
         <v>18150000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A364">
         <v>364</v>
       </c>
@@ -3954,7 +3921,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A365">
         <v>365</v>
       </c>
@@ -3963,7 +3930,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A366">
         <v>366</v>
       </c>
@@ -3972,7 +3939,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A367">
         <v>367</v>
       </c>
@@ -3981,7 +3948,7 @@
         <v>18350000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A368">
         <v>368</v>
       </c>
@@ -3990,7 +3957,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A369">
         <v>369</v>
       </c>
@@ -3999,7 +3966,7 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A370">
         <v>370</v>
       </c>
@@ -4008,7 +3975,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A371">
         <v>371</v>
       </c>
@@ -4017,7 +3984,7 @@
         <v>18550000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A372">
         <v>372</v>
       </c>
@@ -4026,7 +3993,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A373">
         <v>373</v>
       </c>
@@ -4035,7 +4002,7 @@
         <v>18650000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A374">
         <v>374</v>
       </c>
@@ -4044,7 +4011,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A375">
         <v>375</v>
       </c>
@@ -4053,7 +4020,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A376">
         <v>376</v>
       </c>
@@ -4062,7 +4029,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A377">
         <v>377</v>
       </c>
@@ -4071,7 +4038,7 @@
         <v>18850000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A378">
         <v>378</v>
       </c>
@@ -4080,7 +4047,7 @@
         <v>18900000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A379">
         <v>379</v>
       </c>
@@ -4089,7 +4056,7 @@
         <v>18950000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A380">
         <v>380</v>
       </c>
@@ -4098,7 +4065,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A381">
         <v>381</v>
       </c>
@@ -4107,7 +4074,7 @@
         <v>19050000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A382">
         <v>382</v>
       </c>
@@ -4116,7 +4083,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A383">
         <v>383</v>
       </c>
@@ -4125,7 +4092,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A384">
         <v>384</v>
       </c>
@@ -4134,7 +4101,7 @@
         <v>19200000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A385">
         <v>385</v>
       </c>
@@ -4143,7 +4110,7 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A386">
         <v>386</v>
       </c>
@@ -4152,7 +4119,7 @@
         <v>19300000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A387">
         <v>387</v>
       </c>
@@ -4161,7 +4128,7 @@
         <v>19350000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A388">
         <v>388</v>
       </c>
@@ -4170,7 +4137,7 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A389">
         <v>389</v>
       </c>
@@ -4179,7 +4146,7 @@
         <v>19450000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A390">
         <v>390</v>
       </c>
@@ -4188,7 +4155,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A391">
         <v>391</v>
       </c>
@@ -4197,7 +4164,7 @@
         <v>19550000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A392">
         <v>392</v>
       </c>
@@ -4206,7 +4173,7 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A393">
         <v>393</v>
       </c>
@@ -4215,7 +4182,7 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A394">
         <v>394</v>
       </c>
@@ -4224,7 +4191,7 @@
         <v>19700000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A395">
         <v>395</v>
       </c>
@@ -4233,7 +4200,7 @@
         <v>19750000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A396">
         <v>396</v>
       </c>
@@ -4242,7 +4209,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A397">
         <v>397</v>
       </c>
@@ -4251,7 +4218,7 @@
         <v>19850000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A398">
         <v>398</v>
       </c>
@@ -4260,7 +4227,7 @@
         <v>19900000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A399">
         <v>399</v>
       </c>
@@ -4269,7 +4236,7 @@
         <v>19950000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A400">
         <v>400</v>
       </c>
@@ -4278,7 +4245,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A401">
         <v>401</v>
       </c>
@@ -4287,7 +4254,7 @@
         <v>20050000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A402">
         <v>402</v>
       </c>
@@ -4296,7 +4263,7 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A403">
         <v>403</v>
       </c>
@@ -4305,7 +4272,7 @@
         <v>20150000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A404">
         <v>404</v>
       </c>
@@ -4314,7 +4281,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A405">
         <v>405</v>
       </c>
@@ -4323,7 +4290,7 @@
         <v>20250000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A406">
         <v>406</v>
       </c>
@@ -4332,7 +4299,7 @@
         <v>20300000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A407">
         <v>407</v>
       </c>
@@ -4341,7 +4308,7 @@
         <v>20350000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A408">
         <v>408</v>
       </c>
@@ -4350,7 +4317,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A409">
         <v>409</v>
       </c>
@@ -4359,7 +4326,7 @@
         <v>20450000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A410">
         <v>410</v>
       </c>
@@ -4368,7 +4335,7 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A411">
         <v>411</v>
       </c>
@@ -4377,7 +4344,7 @@
         <v>20550000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A412">
         <v>412</v>
       </c>
@@ -4386,7 +4353,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A413">
         <v>413</v>
       </c>
@@ -4395,7 +4362,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A414">
         <v>414</v>
       </c>
@@ -4404,7 +4371,7 @@
         <v>20700000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A415">
         <v>415</v>
       </c>
@@ -4413,7 +4380,7 @@
         <v>20750000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A416">
         <v>416</v>
       </c>
@@ -4422,7 +4389,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A417">
         <v>417</v>
       </c>
@@ -4431,7 +4398,7 @@
         <v>20850000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A418">
         <v>418</v>
       </c>
@@ -4440,7 +4407,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A419">
         <v>419</v>
       </c>
@@ -4449,7 +4416,7 @@
         <v>20950000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A420">
         <v>420</v>
       </c>
@@ -4458,7 +4425,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A421">
         <v>421</v>
       </c>
@@ -4467,7 +4434,7 @@
         <v>21050000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A422">
         <v>422</v>
       </c>
@@ -4476,7 +4443,7 @@
         <v>21100000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A423">
         <v>423</v>
       </c>
@@ -4485,7 +4452,7 @@
         <v>21150000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A424">
         <v>424</v>
       </c>
@@ -4494,7 +4461,7 @@
         <v>21200000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A425">
         <v>425</v>
       </c>
@@ -4503,7 +4470,7 @@
         <v>21250000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A426">
         <v>426</v>
       </c>
@@ -4512,7 +4479,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A427">
         <v>427</v>
       </c>
@@ -4521,7 +4488,7 @@
         <v>21350000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A428">
         <v>428</v>
       </c>
@@ -4530,7 +4497,7 @@
         <v>21400000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A429">
         <v>429</v>
       </c>
@@ -4539,7 +4506,7 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A430">
         <v>430</v>
       </c>
@@ -4548,7 +4515,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A431">
         <v>431</v>
       </c>
@@ -4557,7 +4524,7 @@
         <v>21550000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A432">
         <v>432</v>
       </c>
@@ -4566,7 +4533,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A433">
         <v>433</v>
       </c>
@@ -4575,7 +4542,7 @@
         <v>21650000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A434">
         <v>434</v>
       </c>
@@ -4584,7 +4551,7 @@
         <v>21700000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A435">
         <v>435</v>
       </c>
@@ -4593,7 +4560,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A436">
         <v>436</v>
       </c>
@@ -4602,7 +4569,7 @@
         <v>21800000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A437">
         <v>437</v>
       </c>
@@ -4611,7 +4578,7 @@
         <v>21850000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A438">
         <v>438</v>
       </c>
@@ -4620,7 +4587,7 @@
         <v>21900000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A439">
         <v>439</v>
       </c>
@@ -4629,7 +4596,7 @@
         <v>21950000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A440">
         <v>440</v>
       </c>
@@ -4638,7 +4605,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A441">
         <v>441</v>
       </c>
@@ -4647,7 +4614,7 @@
         <v>22050000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A442">
         <v>442</v>
       </c>
@@ -4656,7 +4623,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A443">
         <v>443</v>
       </c>
@@ -4665,7 +4632,7 @@
         <v>22150000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A444">
         <v>444</v>
       </c>
@@ -4674,7 +4641,7 @@
         <v>22200000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A445">
         <v>445</v>
       </c>
@@ -4683,7 +4650,7 @@
         <v>22250000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A446">
         <v>446</v>
       </c>
@@ -4692,7 +4659,7 @@
         <v>22300000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A447">
         <v>447</v>
       </c>
@@ -4701,7 +4668,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A448">
         <v>448</v>
       </c>
@@ -4710,7 +4677,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A449">
         <v>449</v>
       </c>
@@ -4719,7 +4686,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A450">
         <v>450</v>
       </c>
@@ -4728,7 +4695,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A451">
         <v>451</v>
       </c>
@@ -4737,7 +4704,7 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A452">
         <v>452</v>
       </c>
@@ -4746,7 +4713,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A453">
         <v>453</v>
       </c>
@@ -4755,7 +4722,7 @@
         <v>22650000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A454">
         <v>454</v>
       </c>
@@ -4764,7 +4731,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A455">
         <v>455</v>
       </c>
@@ -4773,7 +4740,7 @@
         <v>22750000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A456">
         <v>456</v>
       </c>
@@ -4782,7 +4749,7 @@
         <v>22800000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A457">
         <v>457</v>
       </c>
@@ -4791,7 +4758,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A458">
         <v>458</v>
       </c>
@@ -4800,7 +4767,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A459">
         <v>459</v>
       </c>
@@ -4809,7 +4776,7 @@
         <v>22950000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A460">
         <v>460</v>
       </c>
@@ -4818,7 +4785,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A461">
         <v>461</v>
       </c>
@@ -4827,7 +4794,7 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A462">
         <v>462</v>
       </c>
@@ -4836,7 +4803,7 @@
         <v>23100000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A463">
         <v>463</v>
       </c>
@@ -4845,7 +4812,7 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A464">
         <v>464</v>
       </c>
@@ -4854,7 +4821,7 @@
         <v>23200000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A465">
         <v>465</v>
       </c>
@@ -4863,7 +4830,7 @@
         <v>23250000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A466">
         <v>466</v>
       </c>
@@ -4872,7 +4839,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A467">
         <v>467</v>
       </c>
@@ -4881,7 +4848,7 @@
         <v>23350000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A468">
         <v>468</v>
       </c>
@@ -4890,7 +4857,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A469">
         <v>469</v>
       </c>
@@ -4899,7 +4866,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A470">
         <v>470</v>
       </c>
@@ -4908,7 +4875,7 @@
         <v>23500000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A471">
         <v>471</v>
       </c>
@@ -4917,7 +4884,7 @@
         <v>23550000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A472">
         <v>472</v>
       </c>
@@ -4926,7 +4893,7 @@
         <v>23600000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A473">
         <v>473</v>
       </c>
@@ -4935,7 +4902,7 @@
         <v>23650000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A474">
         <v>474</v>
       </c>
@@ -4944,7 +4911,7 @@
         <v>23700000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A475">
         <v>475</v>
       </c>
@@ -4953,7 +4920,7 @@
         <v>23750000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A476">
         <v>476</v>
       </c>
@@ -4962,7 +4929,7 @@
         <v>23800000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A477">
         <v>477</v>
       </c>
@@ -4971,7 +4938,7 @@
         <v>23850000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A478">
         <v>478</v>
       </c>
@@ -4980,7 +4947,7 @@
         <v>23900000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A479">
         <v>479</v>
       </c>
@@ -4989,7 +4956,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A480">
         <v>480</v>
       </c>
@@ -4998,7 +4965,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A481">
         <v>481</v>
       </c>
@@ -5007,7 +4974,7 @@
         <v>24050000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A482">
         <v>482</v>
       </c>
@@ -5016,7 +4983,7 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A483">
         <v>483</v>
       </c>
@@ -5025,7 +4992,7 @@
         <v>24150000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A484">
         <v>484</v>
       </c>
@@ -5034,7 +5001,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A485">
         <v>485</v>
       </c>
@@ -5043,7 +5010,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A486">
         <v>486</v>
       </c>
@@ -5052,7 +5019,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A487">
         <v>487</v>
       </c>
@@ -5061,7 +5028,7 @@
         <v>24350000</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A488">
         <v>488</v>
       </c>
@@ -5070,7 +5037,7 @@
         <v>24400000</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A489">
         <v>489</v>
       </c>
@@ -5079,7 +5046,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A490">
         <v>490</v>
       </c>
@@ -5088,7 +5055,7 @@
         <v>24500000</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A491">
         <v>491</v>
       </c>
@@ -5097,7 +5064,7 @@
         <v>24550000</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A492">
         <v>492</v>
       </c>
@@ -5106,7 +5073,7 @@
         <v>24600000</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A493">
         <v>493</v>
       </c>
@@ -5115,7 +5082,7 @@
         <v>24650000</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A494">
         <v>494</v>
       </c>
@@ -5124,7 +5091,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A495">
         <v>495</v>
       </c>
@@ -5133,7 +5100,7 @@
         <v>24750000</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A496">
         <v>496</v>
       </c>
@@ -5142,7 +5109,7 @@
         <v>24800000</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A497">
         <v>497</v>
       </c>
@@ -5151,7 +5118,7 @@
         <v>24850000</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A498">
         <v>498</v>
       </c>
@@ -5160,7 +5127,7 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A499">
         <v>499</v>
       </c>
@@ -5169,7 +5136,7 @@
         <v>24950000</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A500">
         <v>500</v>
       </c>
@@ -5178,7 +5145,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A501">
         <v>501</v>
       </c>
@@ -5187,7 +5154,7 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A502">
         <v>502</v>
       </c>
@@ -5196,7 +5163,7 @@
         <v>25100000</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A503">
         <v>503</v>
       </c>
@@ -5205,7 +5172,7 @@
         <v>25150000</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A504">
         <v>504</v>
       </c>
@@ -5214,7 +5181,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A505">
         <v>505</v>
       </c>
@@ -5223,7 +5190,7 @@
         <v>25250000</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A506">
         <v>506</v>
       </c>
@@ -5232,7 +5199,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A507">
         <v>507</v>
       </c>
@@ -5241,7 +5208,7 @@
         <v>25350000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A508">
         <v>508</v>
       </c>
@@ -5250,7 +5217,7 @@
         <v>25400000</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A509">
         <v>509</v>
       </c>
@@ -5259,7 +5226,7 @@
         <v>25450000</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A510">
         <v>510</v>
       </c>
@@ -5268,7 +5235,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A511">
         <v>511</v>
       </c>
@@ -5277,7 +5244,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A512">
         <v>512</v>
       </c>
@@ -5286,7 +5253,7 @@
         <v>25600000</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A513">
         <v>513</v>
       </c>
@@ -5295,7 +5262,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A514">
         <v>514</v>
       </c>
@@ -5304,7 +5271,7 @@
         <v>25700000</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A515">
         <v>515</v>
       </c>
@@ -5313,7 +5280,7 @@
         <v>25750000</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A516">
         <v>516</v>
       </c>
@@ -5322,7 +5289,7 @@
         <v>25800000</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A517">
         <v>517</v>
       </c>
@@ -5331,7 +5298,7 @@
         <v>25850000</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A518">
         <v>518</v>
       </c>
@@ -5340,7 +5307,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A519">
         <v>519</v>
       </c>
@@ -5349,7 +5316,7 @@
         <v>25950000</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A520">
         <v>520</v>
       </c>
@@ -5358,7 +5325,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A521">
         <v>521</v>
       </c>
@@ -5367,7 +5334,7 @@
         <v>26050000</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A522">
         <v>522</v>
       </c>
@@ -5376,7 +5343,7 @@
         <v>26100000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A523">
         <v>523</v>
       </c>
@@ -5385,7 +5352,7 @@
         <v>26150000</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A524">
         <v>524</v>
       </c>
@@ -5394,7 +5361,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A525">
         <v>525</v>
       </c>
@@ -5403,7 +5370,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A526">
         <v>526</v>
       </c>
@@ -5412,7 +5379,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A527">
         <v>527</v>
       </c>
@@ -5421,7 +5388,7 @@
         <v>26350000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A528">
         <v>528</v>
       </c>
@@ -5430,7 +5397,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A529">
         <v>529</v>
       </c>
@@ -5439,7 +5406,7 @@
         <v>26450000</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A530">
         <v>530</v>
       </c>
@@ -5448,7 +5415,7 @@
         <v>26500000</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A531">
         <v>531</v>
       </c>
@@ -5457,7 +5424,7 @@
         <v>26550000</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A532">
         <v>532</v>
       </c>
@@ -5466,7 +5433,7 @@
         <v>26600000</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A533">
         <v>533</v>
       </c>
@@ -5475,7 +5442,7 @@
         <v>26650000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A534">
         <v>534</v>
       </c>
@@ -5484,7 +5451,7 @@
         <v>26700000</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A535">
         <v>535</v>
       </c>
@@ -5493,7 +5460,7 @@
         <v>26750000</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A536">
         <v>536</v>
       </c>
@@ -5502,7 +5469,7 @@
         <v>26800000</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A537">
         <v>537</v>
       </c>
@@ -5511,7 +5478,7 @@
         <v>26850000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A538">
         <v>538</v>
       </c>
@@ -5520,7 +5487,7 @@
         <v>26900000</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A539">
         <v>539</v>
       </c>
@@ -5529,7 +5496,7 @@
         <v>26950000</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A540">
         <v>540</v>
       </c>
@@ -5538,7 +5505,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A541">
         <v>541</v>
       </c>
@@ -5547,7 +5514,7 @@
         <v>27050000</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A542">
         <v>542</v>
       </c>
@@ -5556,7 +5523,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A543">
         <v>543</v>
       </c>
@@ -5565,7 +5532,7 @@
         <v>27150000</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A544">
         <v>544</v>
       </c>
@@ -5574,7 +5541,7 @@
         <v>27200000</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A545">
         <v>545</v>
       </c>
@@ -5583,7 +5550,7 @@
         <v>27250000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A546">
         <v>546</v>
       </c>
@@ -5592,7 +5559,7 @@
         <v>27300000</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A547">
         <v>547</v>
       </c>
@@ -5601,7 +5568,7 @@
         <v>27350000</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A548">
         <v>548</v>
       </c>
@@ -5610,7 +5577,7 @@
         <v>27400000</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A549">
         <v>549</v>
       </c>
@@ -5619,7 +5586,7 @@
         <v>27450000</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A550">
         <v>550</v>
       </c>
@@ -5628,7 +5595,7 @@
         <v>27500000</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A551">
         <v>551</v>
       </c>
@@ -5637,7 +5604,7 @@
         <v>27550000</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A552">
         <v>552</v>
       </c>
@@ -5646,7 +5613,7 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A553">
         <v>553</v>
       </c>
@@ -5655,7 +5622,7 @@
         <v>27650000</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A554">
         <v>554</v>
       </c>
@@ -5664,7 +5631,7 @@
         <v>27700000</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A555">
         <v>555</v>
       </c>
@@ -5673,7 +5640,7 @@
         <v>27750000</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A556">
         <v>556</v>
       </c>
@@ -5682,7 +5649,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A557">
         <v>557</v>
       </c>
@@ -5691,7 +5658,7 @@
         <v>27850000</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A558">
         <v>558</v>
       </c>
@@ -5700,7 +5667,7 @@
         <v>27900000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A559">
         <v>559</v>
       </c>
@@ -5709,7 +5676,7 @@
         <v>27950000</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A560">
         <v>560</v>
       </c>
@@ -5718,7 +5685,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A561">
         <v>561</v>
       </c>
@@ -5727,7 +5694,7 @@
         <v>28050000</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A562">
         <v>562</v>
       </c>
@@ -5736,7 +5703,7 @@
         <v>28100000</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A563">
         <v>563</v>
       </c>
@@ -5745,7 +5712,7 @@
         <v>28150000</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A564">
         <v>564</v>
       </c>
@@ -5754,7 +5721,7 @@
         <v>28200000</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A565">
         <v>565</v>
       </c>
@@ -5763,7 +5730,7 @@
         <v>28250000</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A566">
         <v>566</v>
       </c>
@@ -5772,7 +5739,7 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A567">
         <v>567</v>
       </c>
@@ -5781,7 +5748,7 @@
         <v>28350000</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A568">
         <v>568</v>
       </c>
@@ -5790,7 +5757,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A569">
         <v>569</v>
       </c>
@@ -5799,7 +5766,7 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A570">
         <v>570</v>
       </c>
@@ -5808,7 +5775,7 @@
         <v>28500000</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A571">
         <v>571</v>
       </c>
@@ -5817,7 +5784,7 @@
         <v>28550000</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A572">
         <v>572</v>
       </c>
@@ -5826,7 +5793,7 @@
         <v>28600000</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A573">
         <v>573</v>
       </c>
@@ -5835,7 +5802,7 @@
         <v>28650000</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A574">
         <v>574</v>
       </c>
@@ -5844,7 +5811,7 @@
         <v>28700000</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A575">
         <v>575</v>
       </c>
@@ -5853,7 +5820,7 @@
         <v>28750000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A576">
         <v>576</v>
       </c>
@@ -5862,7 +5829,7 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A577">
         <v>577</v>
       </c>
@@ -5871,7 +5838,7 @@
         <v>28850000</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A578">
         <v>578</v>
       </c>
@@ -5880,7 +5847,7 @@
         <v>28900000</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A579">
         <v>579</v>
       </c>
@@ -5889,7 +5856,7 @@
         <v>28950000</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A580">
         <v>580</v>
       </c>
@@ -5898,7 +5865,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A581">
         <v>581</v>
       </c>
@@ -5907,7 +5874,7 @@
         <v>29050000</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A582">
         <v>582</v>
       </c>
@@ -5916,7 +5883,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A583">
         <v>583</v>
       </c>
@@ -5925,7 +5892,7 @@
         <v>29150000</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A584">
         <v>584</v>
       </c>
@@ -5934,7 +5901,7 @@
         <v>29200000</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A585">
         <v>585</v>
       </c>
@@ -5943,7 +5910,7 @@
         <v>29250000</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A586">
         <v>586</v>
       </c>
@@ -5952,7 +5919,7 @@
         <v>29300000</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A587">
         <v>587</v>
       </c>
@@ -5961,7 +5928,7 @@
         <v>29350000</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A588">
         <v>588</v>
       </c>
@@ -5970,7 +5937,7 @@
         <v>29400000</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A589">
         <v>589</v>
       </c>
@@ -5979,7 +5946,7 @@
         <v>29450000</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A590">
         <v>590</v>
       </c>
@@ -5988,7 +5955,7 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A591">
         <v>591</v>
       </c>
@@ -5997,7 +5964,7 @@
         <v>29550000</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A592">
         <v>592</v>
       </c>
@@ -6006,7 +5973,7 @@
         <v>29600000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A593">
         <v>593</v>
       </c>
@@ -6015,7 +5982,7 @@
         <v>29650000</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A594">
         <v>594</v>
       </c>
@@ -6024,7 +5991,7 @@
         <v>29700000</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A595">
         <v>595</v>
       </c>
@@ -6033,7 +6000,7 @@
         <v>29750000</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A596">
         <v>596</v>
       </c>
@@ -6042,7 +6009,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A597">
         <v>597</v>
       </c>
@@ -6051,7 +6018,7 @@
         <v>29850000</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A598">
         <v>598</v>
       </c>
@@ -6060,7 +6027,7 @@
         <v>29900000</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A599">
         <v>599</v>
       </c>
@@ -6069,7 +6036,7 @@
         <v>29950000</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A600">
         <v>600</v>
       </c>
@@ -6078,7 +6045,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A601">
         <v>601</v>
       </c>
@@ -6087,7 +6054,7 @@
         <v>30050000</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A602">
         <v>602</v>
       </c>
@@ -6096,7 +6063,7 @@
         <v>30100000</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A603">
         <v>603</v>
       </c>
@@ -6105,7 +6072,7 @@
         <v>30150000</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A604">
         <v>604</v>
       </c>
@@ -6114,7 +6081,7 @@
         <v>30200000</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A605">
         <v>605</v>
       </c>
@@ -6123,7 +6090,7 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A606">
         <v>606</v>
       </c>
@@ -6132,7 +6099,7 @@
         <v>30300000</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A607">
         <v>607</v>
       </c>
@@ -6141,7 +6108,7 @@
         <v>30350000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A608">
         <v>608</v>
       </c>
@@ -6150,7 +6117,7 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A609">
         <v>609</v>
       </c>
@@ -6159,7 +6126,7 @@
         <v>30450000</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A610">
         <v>610</v>
       </c>
@@ -6168,7 +6135,7 @@
         <v>30500000</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A611">
         <v>611</v>
       </c>
@@ -6177,7 +6144,7 @@
         <v>30550000</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A612">
         <v>612</v>
       </c>
@@ -6186,7 +6153,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A613">
         <v>613</v>
       </c>
@@ -6195,7 +6162,7 @@
         <v>30650000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A614">
         <v>614</v>
       </c>
@@ -6204,7 +6171,7 @@
         <v>30700000</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A615">
         <v>615</v>
       </c>
@@ -6213,7 +6180,7 @@
         <v>30750000</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A616">
         <v>616</v>
       </c>
@@ -6222,7 +6189,7 @@
         <v>30800000</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A617">
         <v>617</v>
       </c>
@@ -6231,7 +6198,7 @@
         <v>30850000</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A618">
         <v>618</v>
       </c>
@@ -6240,7 +6207,7 @@
         <v>30900000</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A619">
         <v>619</v>
       </c>
@@ -6249,7 +6216,7 @@
         <v>30950000</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A620">
         <v>620</v>
       </c>
@@ -6258,7 +6225,7 @@
         <v>31000000</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A621">
         <v>621</v>
       </c>
@@ -6267,7 +6234,7 @@
         <v>31050000</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A622">
         <v>622</v>
       </c>
@@ -6276,7 +6243,7 @@
         <v>31100000</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A623">
         <v>623</v>
       </c>
@@ -6285,7 +6252,7 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A624">
         <v>624</v>
       </c>
@@ -6294,7 +6261,7 @@
         <v>31200000</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A625">
         <v>625</v>
       </c>
@@ -6303,7 +6270,7 @@
         <v>31250000</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A626">
         <v>626</v>
       </c>
@@ -6312,7 +6279,7 @@
         <v>31300000</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A627">
         <v>627</v>
       </c>
@@ -6321,7 +6288,7 @@
         <v>31350000</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A628">
         <v>628</v>
       </c>
@@ -6330,7 +6297,7 @@
         <v>31400000</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A629">
         <v>629</v>
       </c>
@@ -6339,7 +6306,7 @@
         <v>31450000</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A630">
         <v>630</v>
       </c>
@@ -6348,7 +6315,7 @@
         <v>31500000</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A631">
         <v>631</v>
       </c>
@@ -6357,7 +6324,7 @@
         <v>31550000</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A632">
         <v>632</v>
       </c>
@@ -6366,7 +6333,7 @@
         <v>31600000</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A633">
         <v>633</v>
       </c>
@@ -6375,7 +6342,7 @@
         <v>31650000</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A634">
         <v>634</v>
       </c>
@@ -6384,7 +6351,7 @@
         <v>31700000</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A635">
         <v>635</v>
       </c>
@@ -6393,7 +6360,7 @@
         <v>31750000</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A636">
         <v>636</v>
       </c>
@@ -6402,7 +6369,7 @@
         <v>31800000</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A637">
         <v>637</v>
       </c>
@@ -6411,7 +6378,7 @@
         <v>31850000</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A638">
         <v>638</v>
       </c>
@@ -6420,7 +6387,7 @@
         <v>31900000</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A639">
         <v>639</v>
       </c>
@@ -6429,7 +6396,7 @@
         <v>31950000</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A640">
         <v>640</v>
       </c>
@@ -6438,7 +6405,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A641">
         <v>641</v>
       </c>
@@ -6447,7 +6414,7 @@
         <v>32050000</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A642">
         <v>642</v>
       </c>
@@ -6456,7 +6423,7 @@
         <v>32100000</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A643">
         <v>643</v>
       </c>
@@ -6465,7 +6432,7 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A644">
         <v>644</v>
       </c>
@@ -6474,7 +6441,7 @@
         <v>32200000</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A645">
         <v>645</v>
       </c>
@@ -6483,7 +6450,7 @@
         <v>32250000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A646">
         <v>646</v>
       </c>
@@ -6492,7 +6459,7 @@
         <v>32300000</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A647">
         <v>647</v>
       </c>
@@ -6501,7 +6468,7 @@
         <v>32350000</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A648">
         <v>648</v>
       </c>
@@ -6510,7 +6477,7 @@
         <v>32400000</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A649">
         <v>649</v>
       </c>
@@ -6519,7 +6486,7 @@
         <v>32450000</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A650">
         <v>650</v>
       </c>
@@ -6528,7 +6495,7 @@
         <v>32500000</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A651">
         <v>651</v>
       </c>
@@ -6537,7 +6504,7 @@
         <v>32550000</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A652">
         <v>652</v>
       </c>
@@ -6546,7 +6513,7 @@
         <v>32600000</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A653">
         <v>653</v>
       </c>
@@ -6555,7 +6522,7 @@
         <v>32650000</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A654">
         <v>654</v>
       </c>
@@ -6564,7 +6531,7 @@
         <v>32700000</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A655">
         <v>655</v>
       </c>
@@ -6573,7 +6540,7 @@
         <v>32750000</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A656">
         <v>656</v>
       </c>
@@ -6582,7 +6549,7 @@
         <v>32800000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A657">
         <v>657</v>
       </c>
@@ -6591,7 +6558,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A658">
         <v>658</v>
       </c>
@@ -6600,7 +6567,7 @@
         <v>32900000</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A659">
         <v>659</v>
       </c>
@@ -6609,7 +6576,7 @@
         <v>32950000</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A660">
         <v>660</v>
       </c>
@@ -6618,7 +6585,7 @@
         <v>33000000</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A661">
         <v>661</v>
       </c>
@@ -6627,7 +6594,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A662">
         <v>662</v>
       </c>
@@ -6636,7 +6603,7 @@
         <v>33100000</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A663">
         <v>663</v>
       </c>
@@ -6645,7 +6612,7 @@
         <v>33150000</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A664">
         <v>664</v>
       </c>
@@ -6654,7 +6621,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A665">
         <v>665</v>
       </c>
@@ -6663,7 +6630,7 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A666">
         <v>666</v>
       </c>
@@ -6672,7 +6639,7 @@
         <v>33300000</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A667">
         <v>667</v>
       </c>
@@ -6681,7 +6648,7 @@
         <v>33350000</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A668">
         <v>668</v>
       </c>
@@ -6690,7 +6657,7 @@
         <v>33400000</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A669">
         <v>669</v>
       </c>
@@ -6699,7 +6666,7 @@
         <v>33450000</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A670">
         <v>670</v>
       </c>
@@ -6708,7 +6675,7 @@
         <v>33500000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A671">
         <v>671</v>
       </c>
@@ -6717,7 +6684,7 @@
         <v>33550000</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A672">
         <v>672</v>
       </c>
@@ -6726,7 +6693,7 @@
         <v>33600000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A673">
         <v>673</v>
       </c>
@@ -6735,7 +6702,7 @@
         <v>33650000</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A674">
         <v>674</v>
       </c>
@@ -6744,7 +6711,7 @@
         <v>33700000</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A675">
         <v>675</v>
       </c>
@@ -6753,7 +6720,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A676">
         <v>676</v>
       </c>
@@ -6762,7 +6729,7 @@
         <v>33800000</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A677">
         <v>677</v>
       </c>
@@ -6771,7 +6738,7 @@
         <v>33850000</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A678">
         <v>678</v>
       </c>
@@ -6780,7 +6747,7 @@
         <v>33900000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A679">
         <v>679</v>
       </c>
@@ -6789,7 +6756,7 @@
         <v>33950000</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A680">
         <v>680</v>
       </c>
@@ -6798,7 +6765,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A681">
         <v>681</v>
       </c>
@@ -6807,7 +6774,7 @@
         <v>34050000</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A682">
         <v>682</v>
       </c>
@@ -6816,7 +6783,7 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A683">
         <v>683</v>
       </c>
@@ -6825,7 +6792,7 @@
         <v>34150000</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A684">
         <v>684</v>
       </c>
@@ -6834,7 +6801,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A685">
         <v>685</v>
       </c>
@@ -6843,7 +6810,7 @@
         <v>34250000</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A686">
         <v>686</v>
       </c>
@@ -6852,7 +6819,7 @@
         <v>34300000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A687">
         <v>687</v>
       </c>
@@ -6861,7 +6828,7 @@
         <v>34350000</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A688">
         <v>688</v>
       </c>
@@ -6870,7 +6837,7 @@
         <v>34400000</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A689">
         <v>689</v>
       </c>
@@ -6879,7 +6846,7 @@
         <v>34450000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A690">
         <v>690</v>
       </c>
@@ -6888,7 +6855,7 @@
         <v>34500000</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A691">
         <v>691</v>
       </c>
@@ -6897,7 +6864,7 @@
         <v>34550000</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A692">
         <v>692</v>
       </c>
@@ -6906,7 +6873,7 @@
         <v>34600000</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A693">
         <v>693</v>
       </c>
@@ -6915,7 +6882,7 @@
         <v>34650000</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A694">
         <v>694</v>
       </c>
@@ -6924,7 +6891,7 @@
         <v>34700000</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A695">
         <v>695</v>
       </c>
@@ -6933,7 +6900,7 @@
         <v>34750000</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A696">
         <v>696</v>
       </c>
@@ -6942,7 +6909,7 @@
         <v>34800000</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A697">
         <v>697</v>
       </c>
@@ -6951,7 +6918,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A698">
         <v>698</v>
       </c>
@@ -6960,7 +6927,7 @@
         <v>34900000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A699">
         <v>699</v>
       </c>
@@ -6969,7 +6936,7 @@
         <v>34950000</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A700">
         <v>700</v>
       </c>
@@ -6978,7 +6945,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A701">
         <v>701</v>
       </c>
@@ -6987,7 +6954,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A702">
         <v>702</v>
       </c>
@@ -6996,7 +6963,7 @@
         <v>35100000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A703">
         <v>703</v>
       </c>
@@ -7005,7 +6972,7 @@
         <v>35150000</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A704">
         <v>704</v>
       </c>
@@ -7014,7 +6981,7 @@
         <v>35200000</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A705">
         <v>705</v>
       </c>
@@ -7023,7 +6990,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A706">
         <v>706</v>
       </c>
@@ -7032,7 +6999,7 @@
         <v>35300000</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A707">
         <v>707</v>
       </c>
@@ -7041,7 +7008,7 @@
         <v>35350000</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A708">
         <v>708</v>
       </c>
@@ -7050,7 +7017,7 @@
         <v>35400000</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A709">
         <v>709</v>
       </c>
@@ -7059,7 +7026,7 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A710">
         <v>710</v>
       </c>
@@ -7068,7 +7035,7 @@
         <v>35500000</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A711">
         <v>711</v>
       </c>
@@ -7077,7 +7044,7 @@
         <v>35550000</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A712">
         <v>712</v>
       </c>
@@ -7086,7 +7053,7 @@
         <v>35600000</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A713">
         <v>713</v>
       </c>
@@ -7095,7 +7062,7 @@
         <v>35650000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A714">
         <v>714</v>
       </c>
@@ -7104,7 +7071,7 @@
         <v>35700000</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A715">
         <v>715</v>
       </c>
@@ -7113,7 +7080,7 @@
         <v>35750000</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A716">
         <v>716</v>
       </c>
@@ -7122,7 +7089,7 @@
         <v>35800000</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A717">
         <v>717</v>
       </c>
@@ -7131,7 +7098,7 @@
         <v>35850000</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A718">
         <v>718</v>
       </c>
@@ -7140,7 +7107,7 @@
         <v>35900000</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A719">
         <v>719</v>
       </c>
@@ -7149,7 +7116,7 @@
         <v>35950000</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A720">
         <v>720</v>
       </c>
@@ -7158,7 +7125,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A721">
         <v>721</v>
       </c>
@@ -7167,7 +7134,7 @@
         <v>36050000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A722">
         <v>722</v>
       </c>
@@ -7176,7 +7143,7 @@
         <v>36100000</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A723">
         <v>723</v>
       </c>
@@ -7185,7 +7152,7 @@
         <v>36150000</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A724">
         <v>724</v>
       </c>
@@ -7194,7 +7161,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A725">
         <v>725</v>
       </c>
@@ -7203,7 +7170,7 @@
         <v>36250000</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A726">
         <v>726</v>
       </c>
@@ -7212,7 +7179,7 @@
         <v>36300000</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A727">
         <v>727</v>
       </c>
@@ -7221,7 +7188,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A728">
         <v>728</v>
       </c>
@@ -7230,7 +7197,7 @@
         <v>36400000</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A729">
         <v>729</v>
       </c>
@@ -7239,7 +7206,7 @@
         <v>36450000</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A730">
         <v>730</v>
       </c>
@@ -7248,7 +7215,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A731">
         <v>731</v>
       </c>
@@ -7257,7 +7224,7 @@
         <v>36550000</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A732">
         <v>732</v>
       </c>
@@ -7266,7 +7233,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A733">
         <v>733</v>
       </c>
@@ -7275,7 +7242,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A734">
         <v>734</v>
       </c>
@@ -7284,7 +7251,7 @@
         <v>36700000</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A735">
         <v>735</v>
       </c>
@@ -7293,7 +7260,7 @@
         <v>36750000</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A736">
         <v>736</v>
       </c>
@@ -7302,7 +7269,7 @@
         <v>36800000</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A737">
         <v>737</v>
       </c>
@@ -7311,7 +7278,7 @@
         <v>36850000</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A738">
         <v>738</v>
       </c>
@@ -7320,7 +7287,7 @@
         <v>36900000</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A739">
         <v>739</v>
       </c>
@@ -7329,7 +7296,7 @@
         <v>36950000</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A740">
         <v>740</v>
       </c>
@@ -7338,7 +7305,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A741">
         <v>741</v>
       </c>
@@ -7347,7 +7314,7 @@
         <v>37050000</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A742">
         <v>742</v>
       </c>
@@ -7356,7 +7323,7 @@
         <v>37100000</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A743">
         <v>743</v>
       </c>
@@ -7365,7 +7332,7 @@
         <v>37150000</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A744">
         <v>744</v>
       </c>
@@ -7374,7 +7341,7 @@
         <v>37200000</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A745">
         <v>745</v>
       </c>
@@ -7383,7 +7350,7 @@
         <v>37250000</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A746">
         <v>746</v>
       </c>
@@ -7392,7 +7359,7 @@
         <v>37300000</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A747">
         <v>747</v>
       </c>
@@ -7401,7 +7368,7 @@
         <v>37350000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A748">
         <v>748</v>
       </c>
@@ -7410,7 +7377,7 @@
         <v>37400000</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A749">
         <v>749</v>
       </c>
@@ -7419,7 +7386,7 @@
         <v>37450000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A750">
         <v>750</v>
       </c>
@@ -7428,7 +7395,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A751">
         <v>751</v>
       </c>
@@ -7437,7 +7404,7 @@
         <v>37550000</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A752">
         <v>752</v>
       </c>
@@ -7446,7 +7413,7 @@
         <v>37600000</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A753">
         <v>753</v>
       </c>
@@ -7455,7 +7422,7 @@
         <v>37650000</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A754">
         <v>754</v>
       </c>
@@ -7464,7 +7431,7 @@
         <v>37700000</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A755">
         <v>755</v>
       </c>
@@ -7473,7 +7440,7 @@
         <v>37750000</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A756">
         <v>756</v>
       </c>
@@ -7482,7 +7449,7 @@
         <v>37800000</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A757">
         <v>757</v>
       </c>
@@ -7491,7 +7458,7 @@
         <v>37850000</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A758">
         <v>758</v>
       </c>
@@ -7500,7 +7467,7 @@
         <v>37900000</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A759">
         <v>759</v>
       </c>
@@ -7509,7 +7476,7 @@
         <v>37950000</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A760">
         <v>760</v>
       </c>
@@ -7518,7 +7485,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A761">
         <v>761</v>
       </c>
@@ -7527,7 +7494,7 @@
         <v>38050000</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A762">
         <v>762</v>
       </c>
@@ -7536,7 +7503,7 @@
         <v>38100000</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A763">
         <v>763</v>
       </c>
@@ -7545,7 +7512,7 @@
         <v>38150000</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A764">
         <v>764</v>
       </c>
@@ -7554,7 +7521,7 @@
         <v>38200000</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A765">
         <v>765</v>
       </c>
@@ -7563,7 +7530,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A766">
         <v>766</v>
       </c>
@@ -7572,7 +7539,7 @@
         <v>38300000</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A767">
         <v>767</v>
       </c>
@@ -7581,7 +7548,7 @@
         <v>38350000</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A768">
         <v>768</v>
       </c>
@@ -7590,7 +7557,7 @@
         <v>38400000</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A769">
         <v>769</v>
       </c>
@@ -7599,7 +7566,7 @@
         <v>38450000</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A770">
         <v>770</v>
       </c>
@@ -7608,7 +7575,7 @@
         <v>38500000</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A771">
         <v>771</v>
       </c>
@@ -7617,7 +7584,7 @@
         <v>38550000</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A772">
         <v>772</v>
       </c>
@@ -7626,7 +7593,7 @@
         <v>38600000</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A773">
         <v>773</v>
       </c>
@@ -7635,7 +7602,7 @@
         <v>38650000</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A774">
         <v>774</v>
       </c>
@@ -7644,7 +7611,7 @@
         <v>38700000</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A775">
         <v>775</v>
       </c>
@@ -7653,7 +7620,7 @@
         <v>38750000</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A776">
         <v>776</v>
       </c>
@@ -7662,7 +7629,7 @@
         <v>38800000</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A777">
         <v>777</v>
       </c>
@@ -7671,7 +7638,7 @@
         <v>38850000</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A778">
         <v>778</v>
       </c>
@@ -7680,7 +7647,7 @@
         <v>38900000</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A779">
         <v>779</v>
       </c>
@@ -7689,7 +7656,7 @@
         <v>38950000</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A780">
         <v>780</v>
       </c>
@@ -7698,7 +7665,7 @@
         <v>39000000</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A781">
         <v>781</v>
       </c>
@@ -7707,7 +7674,7 @@
         <v>39050000</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A782">
         <v>782</v>
       </c>
@@ -7716,7 +7683,7 @@
         <v>39100000</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A783">
         <v>783</v>
       </c>
@@ -7725,7 +7692,7 @@
         <v>39150000</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A784">
         <v>784</v>
       </c>
@@ -7734,7 +7701,7 @@
         <v>39200000</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A785">
         <v>785</v>
       </c>
@@ -7743,7 +7710,7 @@
         <v>39250000</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A786">
         <v>786</v>
       </c>
@@ -7752,7 +7719,7 @@
         <v>39300000</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A787">
         <v>787</v>
       </c>
@@ -7761,7 +7728,7 @@
         <v>39350000</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A788">
         <v>788</v>
       </c>
@@ -7770,7 +7737,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A789">
         <v>789</v>
       </c>
@@ -7779,7 +7746,7 @@
         <v>39450000</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A790">
         <v>790</v>
       </c>
@@ -7788,7 +7755,7 @@
         <v>39500000</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A791">
         <v>791</v>
       </c>
@@ -7797,7 +7764,7 @@
         <v>39550000</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A792">
         <v>792</v>
       </c>
@@ -7806,7 +7773,7 @@
         <v>39600000</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A793">
         <v>793</v>
       </c>
@@ -7815,7 +7782,7 @@
         <v>39650000</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A794">
         <v>794</v>
       </c>
@@ -7824,7 +7791,7 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A795">
         <v>795</v>
       </c>
@@ -7833,7 +7800,7 @@
         <v>39750000</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A796">
         <v>796</v>
       </c>
@@ -7842,7 +7809,7 @@
         <v>39800000</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A797">
         <v>797</v>
       </c>
@@ -7851,7 +7818,7 @@
         <v>39850000</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A798">
         <v>798</v>
       </c>
@@ -7860,7 +7827,7 @@
         <v>39900000</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A799">
         <v>799</v>
       </c>
@@ -7869,7 +7836,7 @@
         <v>39950000</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A800">
         <v>800</v>
       </c>
@@ -7878,7 +7845,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A801">
         <v>801</v>
       </c>
@@ -7887,7 +7854,7 @@
         <v>40050000</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A802">
         <v>802</v>
       </c>
@@ -7896,7 +7863,7 @@
         <v>40100000</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A803">
         <v>803</v>
       </c>
@@ -7905,7 +7872,7 @@
         <v>40150000</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A804">
         <v>804</v>
       </c>
@@ -7914,7 +7881,7 @@
         <v>40200000</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A805">
         <v>805</v>
       </c>
@@ -7923,7 +7890,7 @@
         <v>40250000</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A806">
         <v>806</v>
       </c>
@@ -7932,7 +7899,7 @@
         <v>40300000</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A807">
         <v>807</v>
       </c>
@@ -7941,7 +7908,7 @@
         <v>40350000</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A808">
         <v>808</v>
       </c>
@@ -7950,7 +7917,7 @@
         <v>40400000</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A809">
         <v>809</v>
       </c>
@@ -7959,7 +7926,7 @@
         <v>40450000</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A810">
         <v>810</v>
       </c>
@@ -7968,7 +7935,7 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A811">
         <v>811</v>
       </c>
@@ -7977,7 +7944,7 @@
         <v>40550000</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A812">
         <v>812</v>
       </c>
@@ -7986,7 +7953,7 @@
         <v>40600000</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A813">
         <v>813</v>
       </c>
@@ -7995,7 +7962,7 @@
         <v>40650000</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A814">
         <v>814</v>
       </c>
@@ -8004,7 +7971,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A815">
         <v>815</v>
       </c>
@@ -8013,7 +7980,7 @@
         <v>40750000</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A816">
         <v>816</v>
       </c>
@@ -8022,7 +7989,7 @@
         <v>40800000</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A817">
         <v>817</v>
       </c>
@@ -8031,7 +7998,7 @@
         <v>40850000</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A818">
         <v>818</v>
       </c>
@@ -8040,7 +8007,7 @@
         <v>40900000</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A819">
         <v>819</v>
       </c>
@@ -8049,7 +8016,7 @@
         <v>40950000</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A820">
         <v>820</v>
       </c>
@@ -8058,7 +8025,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A821">
         <v>821</v>
       </c>
@@ -8067,7 +8034,7 @@
         <v>41050000</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A822">
         <v>822</v>
       </c>
@@ -8076,7 +8043,7 @@
         <v>41100000</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A823">
         <v>823</v>
       </c>
@@ -8085,7 +8052,7 @@
         <v>41150000</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A824">
         <v>824</v>
       </c>
@@ -8094,7 +8061,7 @@
         <v>41200000</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A825">
         <v>825</v>
       </c>
@@ -8103,7 +8070,7 @@
         <v>41250000</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A826">
         <v>826</v>
       </c>
@@ -8112,7 +8079,7 @@
         <v>41300000</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A827">
         <v>827</v>
       </c>
@@ -8121,7 +8088,7 @@
         <v>41350000</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A828">
         <v>828</v>
       </c>
@@ -8130,7 +8097,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A829">
         <v>829</v>
       </c>
@@ -8139,7 +8106,7 @@
         <v>41450000</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A830">
         <v>830</v>
       </c>
@@ -8148,7 +8115,7 @@
         <v>41500000</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A831">
         <v>831</v>
       </c>
@@ -8157,7 +8124,7 @@
         <v>41550000</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A832">
         <v>832</v>
       </c>
@@ -8166,7 +8133,7 @@
         <v>41600000</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A833">
         <v>833</v>
       </c>
@@ -8175,7 +8142,7 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A834">
         <v>834</v>
       </c>
@@ -8184,7 +8151,7 @@
         <v>41700000</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A835">
         <v>835</v>
       </c>
@@ -8193,7 +8160,7 @@
         <v>41750000</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A836">
         <v>836</v>
       </c>
@@ -8202,7 +8169,7 @@
         <v>41800000</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A837">
         <v>837</v>
       </c>
@@ -8211,7 +8178,7 @@
         <v>41850000</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A838">
         <v>838</v>
       </c>
@@ -8220,7 +8187,7 @@
         <v>41900000</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A839">
         <v>839</v>
       </c>
@@ -8229,7 +8196,7 @@
         <v>41950000</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A840">
         <v>840</v>
       </c>
@@ -8238,7 +8205,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A841">
         <v>841</v>
       </c>
@@ -8247,7 +8214,7 @@
         <v>42050000</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A842">
         <v>842</v>
       </c>
@@ -8256,7 +8223,7 @@
         <v>42100000</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A843">
         <v>843</v>
       </c>
@@ -8265,7 +8232,7 @@
         <v>42150000</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A844">
         <v>844</v>
       </c>
@@ -8274,7 +8241,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A845">
         <v>845</v>
       </c>
@@ -8283,7 +8250,7 @@
         <v>42250000</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A846">
         <v>846</v>
       </c>
@@ -8292,7 +8259,7 @@
         <v>42300000</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A847">
         <v>847</v>
       </c>
@@ -8301,7 +8268,7 @@
         <v>42350000</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A848">
         <v>848</v>
       </c>
@@ -8310,7 +8277,7 @@
         <v>42400000</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A849">
         <v>849</v>
       </c>
@@ -8319,7 +8286,7 @@
         <v>42450000</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A850">
         <v>850</v>
       </c>
@@ -8328,7 +8295,7 @@
         <v>42500000</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A851">
         <v>851</v>
       </c>
@@ -8337,7 +8304,7 @@
         <v>42550000</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A852">
         <v>852</v>
       </c>
@@ -8346,7 +8313,7 @@
         <v>42600000</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A853">
         <v>853</v>
       </c>
@@ -8355,7 +8322,7 @@
         <v>42650000</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A854">
         <v>854</v>
       </c>
@@ -8364,7 +8331,7 @@
         <v>42700000</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A855">
         <v>855</v>
       </c>
@@ -8373,7 +8340,7 @@
         <v>42750000</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A856">
         <v>856</v>
       </c>
@@ -8382,7 +8349,7 @@
         <v>42800000</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A857">
         <v>857</v>
       </c>
@@ -8391,7 +8358,7 @@
         <v>42850000</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A858">
         <v>858</v>
       </c>
@@ -8400,7 +8367,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A859">
         <v>859</v>
       </c>
@@ -8409,7 +8376,7 @@
         <v>42950000</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A860">
         <v>860</v>
       </c>
@@ -8418,7 +8385,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A861">
         <v>861</v>
       </c>
@@ -8427,7 +8394,7 @@
         <v>43050000</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A862">
         <v>862</v>
       </c>
@@ -8436,7 +8403,7 @@
         <v>43100000</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A863">
         <v>863</v>
       </c>
@@ -8445,7 +8412,7 @@
         <v>43150000</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A864">
         <v>864</v>
       </c>
@@ -8454,7 +8421,7 @@
         <v>43200000</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A865">
         <v>865</v>
       </c>
@@ -8463,7 +8430,7 @@
         <v>43250000</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A866">
         <v>866</v>
       </c>
@@ -8472,7 +8439,7 @@
         <v>43300000</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A867">
         <v>867</v>
       </c>
@@ -8481,7 +8448,7 @@
         <v>43350000</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A868">
         <v>868</v>
       </c>
@@ -8490,7 +8457,7 @@
         <v>43400000</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A869">
         <v>869</v>
       </c>
@@ -8499,7 +8466,7 @@
         <v>43450000</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A870">
         <v>870</v>
       </c>
@@ -8508,7 +8475,7 @@
         <v>43500000</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A871">
         <v>871</v>
       </c>
@@ -8517,7 +8484,7 @@
         <v>43550000</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A872">
         <v>872</v>
       </c>
@@ -8526,7 +8493,7 @@
         <v>43600000</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A873">
         <v>873</v>
       </c>
@@ -8535,7 +8502,7 @@
         <v>43650000</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A874">
         <v>874</v>
       </c>
@@ -8544,7 +8511,7 @@
         <v>43700000</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A875">
         <v>875</v>
       </c>
@@ -8553,7 +8520,7 @@
         <v>43750000</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A876">
         <v>876</v>
       </c>
@@ -8562,7 +8529,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A877">
         <v>877</v>
       </c>
@@ -8571,7 +8538,7 @@
         <v>43850000</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A878">
         <v>878</v>
       </c>
@@ -8580,7 +8547,7 @@
         <v>43900000</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A879">
         <v>879</v>
       </c>
@@ -8589,7 +8556,7 @@
         <v>43950000</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A880">
         <v>880</v>
       </c>
@@ -8598,7 +8565,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A881">
         <v>881</v>
       </c>
@@ -8607,7 +8574,7 @@
         <v>44050000</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A882">
         <v>882</v>
       </c>
@@ -8616,7 +8583,7 @@
         <v>44100000</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A883">
         <v>883</v>
       </c>
@@ -8625,7 +8592,7 @@
         <v>44150000</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A884">
         <v>884</v>
       </c>
@@ -8634,7 +8601,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A885">
         <v>885</v>
       </c>
@@ -8643,7 +8610,7 @@
         <v>44250000</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A886">
         <v>886</v>
       </c>
@@ -8652,7 +8619,7 @@
         <v>44300000</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A887">
         <v>887</v>
       </c>
@@ -8661,7 +8628,7 @@
         <v>44350000</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A888">
         <v>888</v>
       </c>
@@ -8670,7 +8637,7 @@
         <v>44400000</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A889">
         <v>889</v>
       </c>
@@ -8679,7 +8646,7 @@
         <v>44450000</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A890">
         <v>890</v>
       </c>
@@ -8688,7 +8655,7 @@
         <v>44500000</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A891">
         <v>891</v>
       </c>
@@ -8697,7 +8664,7 @@
         <v>44550000</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A892">
         <v>892</v>
       </c>
@@ -8706,7 +8673,7 @@
         <v>44600000</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A893">
         <v>893</v>
       </c>
@@ -8715,7 +8682,7 @@
         <v>44650000</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A894">
         <v>894</v>
       </c>
@@ -8724,7 +8691,7 @@
         <v>44700000</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A895">
         <v>895</v>
       </c>
@@ -8733,7 +8700,7 @@
         <v>44750000</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A896">
         <v>896</v>
       </c>
@@ -8742,7 +8709,7 @@
         <v>44800000</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A897">
         <v>897</v>
       </c>
@@ -8751,7 +8718,7 @@
         <v>44850000</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A898">
         <v>898</v>
       </c>
@@ -8760,7 +8727,7 @@
         <v>44900000</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A899">
         <v>899</v>
       </c>
@@ -8769,7 +8736,7 @@
         <v>44950000</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A900">
         <v>900</v>
       </c>
@@ -8778,7 +8745,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A901">
         <v>901</v>
       </c>
@@ -8787,7 +8754,7 @@
         <v>45050000</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A902">
         <v>902</v>
       </c>
@@ -8796,7 +8763,7 @@
         <v>45100000</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A903">
         <v>903</v>
       </c>
@@ -8805,7 +8772,7 @@
         <v>45150000</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A904">
         <v>904</v>
       </c>
@@ -8814,7 +8781,7 @@
         <v>45200000</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A905">
         <v>905</v>
       </c>
@@ -8823,7 +8790,7 @@
         <v>45250000</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A906">
         <v>906</v>
       </c>
@@ -8832,7 +8799,7 @@
         <v>45300000</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A907">
         <v>907</v>
       </c>
@@ -8841,7 +8808,7 @@
         <v>45350000</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A908">
         <v>908</v>
       </c>
@@ -8850,7 +8817,7 @@
         <v>45400000</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A909">
         <v>909</v>
       </c>
@@ -8859,7 +8826,7 @@
         <v>45450000</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A910">
         <v>910</v>
       </c>
@@ -8868,7 +8835,7 @@
         <v>45500000</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A911">
         <v>911</v>
       </c>
@@ -8877,7 +8844,7 @@
         <v>45550000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A912">
         <v>912</v>
       </c>
@@ -8886,7 +8853,7 @@
         <v>45600000</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A913">
         <v>913</v>
       </c>
@@ -8895,7 +8862,7 @@
         <v>45650000</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A914">
         <v>914</v>
       </c>
@@ -8904,7 +8871,7 @@
         <v>45700000</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A915">
         <v>915</v>
       </c>
@@ -8913,7 +8880,7 @@
         <v>45750000</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A916">
         <v>916</v>
       </c>
@@ -8922,7 +8889,7 @@
         <v>45800000</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A917">
         <v>917</v>
       </c>
@@ -8931,7 +8898,7 @@
         <v>45850000</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A918">
         <v>918</v>
       </c>
@@ -8940,7 +8907,7 @@
         <v>45900000</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A919">
         <v>919</v>
       </c>
@@ -8949,7 +8916,7 @@
         <v>45950000</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A920">
         <v>920</v>
       </c>
@@ -8958,7 +8925,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A921">
         <v>921</v>
       </c>
@@ -8967,7 +8934,7 @@
         <v>46050000</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A922">
         <v>922</v>
       </c>
@@ -8976,7 +8943,7 @@
         <v>46100000</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A923">
         <v>923</v>
       </c>
@@ -8985,7 +8952,7 @@
         <v>46150000</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A924">
         <v>924</v>
       </c>
@@ -8994,7 +8961,7 @@
         <v>46200000</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A925">
         <v>925</v>
       </c>
@@ -9003,7 +8970,7 @@
         <v>46250000</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A926">
         <v>926</v>
       </c>
@@ -9012,7 +8979,7 @@
         <v>46300000</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A927">
         <v>927</v>
       </c>
@@ -9021,7 +8988,7 @@
         <v>46350000</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A928">
         <v>928</v>
       </c>
@@ -9030,7 +8997,7 @@
         <v>46400000</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A929">
         <v>929</v>
       </c>
@@ -9039,7 +9006,7 @@
         <v>46450000</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A930">
         <v>930</v>
       </c>
@@ -9048,7 +9015,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A931">
         <v>931</v>
       </c>
@@ -9057,7 +9024,7 @@
         <v>46550000</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A932">
         <v>932</v>
       </c>
@@ -9066,7 +9033,7 @@
         <v>46600000</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A933">
         <v>933</v>
       </c>
@@ -9075,7 +9042,7 @@
         <v>46650000</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A934">
         <v>934</v>
       </c>
@@ -9084,7 +9051,7 @@
         <v>46700000</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A935">
         <v>935</v>
       </c>
@@ -9093,7 +9060,7 @@
         <v>46750000</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A936">
         <v>936</v>
       </c>
@@ -9102,7 +9069,7 @@
         <v>46800000</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A937">
         <v>937</v>
       </c>
@@ -9111,7 +9078,7 @@
         <v>46850000</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A938">
         <v>938</v>
       </c>
@@ -9120,7 +9087,7 @@
         <v>46900000</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A939">
         <v>939</v>
       </c>
@@ -9129,7 +9096,7 @@
         <v>46950000</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A940">
         <v>940</v>
       </c>
@@ -9138,7 +9105,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A941">
         <v>941</v>
       </c>
@@ -9147,7 +9114,7 @@
         <v>47050000</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A942">
         <v>942</v>
       </c>
@@ -9156,7 +9123,7 @@
         <v>47100000</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A943">
         <v>943</v>
       </c>
@@ -9165,7 +9132,7 @@
         <v>47150000</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A944">
         <v>944</v>
       </c>
@@ -9174,7 +9141,7 @@
         <v>47200000</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A945">
         <v>945</v>
       </c>
@@ -9183,7 +9150,7 @@
         <v>47250000</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A946">
         <v>946</v>
       </c>
@@ -9192,7 +9159,7 @@
         <v>47300000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A947">
         <v>947</v>
       </c>
@@ -9201,7 +9168,7 @@
         <v>47350000</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A948">
         <v>948</v>
       </c>
@@ -9210,7 +9177,7 @@
         <v>47400000</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A949">
         <v>949</v>
       </c>
@@ -9219,7 +9186,7 @@
         <v>47450000</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A950">
         <v>950</v>
       </c>
@@ -9228,7 +9195,7 @@
         <v>47500000</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A951">
         <v>951</v>
       </c>
@@ -9237,7 +9204,7 @@
         <v>47550000</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A952">
         <v>952</v>
       </c>
@@ -9246,7 +9213,7 @@
         <v>47600000</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A953">
         <v>953</v>
       </c>
@@ -9255,7 +9222,7 @@
         <v>47650000</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A954">
         <v>954</v>
       </c>
@@ -9264,7 +9231,7 @@
         <v>47700000</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A955">
         <v>955</v>
       </c>
@@ -9273,7 +9240,7 @@
         <v>47750000</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A956">
         <v>956</v>
       </c>
@@ -9282,7 +9249,7 @@
         <v>47800000</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A957">
         <v>957</v>
       </c>
@@ -9291,7 +9258,7 @@
         <v>47850000</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A958">
         <v>958</v>
       </c>
@@ -9300,7 +9267,7 @@
         <v>47900000</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A959">
         <v>959</v>
       </c>
@@ -9309,7 +9276,7 @@
         <v>47950000</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A960">
         <v>960</v>
       </c>
@@ -9318,7 +9285,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A961">
         <v>961</v>
       </c>
@@ -9327,7 +9294,7 @@
         <v>48050000</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A962">
         <v>962</v>
       </c>
@@ -9336,7 +9303,7 @@
         <v>48100000</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A963">
         <v>963</v>
       </c>
@@ -9345,7 +9312,7 @@
         <v>48150000</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A964">
         <v>964</v>
       </c>
@@ -9354,7 +9321,7 @@
         <v>48200000</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A965">
         <v>965</v>
       </c>
@@ -9363,7 +9330,7 @@
         <v>48250000</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A966">
         <v>966</v>
       </c>
@@ -9372,7 +9339,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A967">
         <v>967</v>
       </c>
@@ -9381,7 +9348,7 @@
         <v>48350000</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A968">
         <v>968</v>
       </c>
@@ -9390,7 +9357,7 @@
         <v>48400000</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A969">
         <v>969</v>
       </c>
@@ -9399,7 +9366,7 @@
         <v>48450000</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A970">
         <v>970</v>
       </c>
@@ -9408,7 +9375,7 @@
         <v>48500000</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A971">
         <v>971</v>
       </c>
@@ -9417,7 +9384,7 @@
         <v>48550000</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A972">
         <v>972</v>
       </c>
@@ -9426,7 +9393,7 @@
         <v>48600000</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A973">
         <v>973</v>
       </c>
@@ -9435,7 +9402,7 @@
         <v>48650000</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A974">
         <v>974</v>
       </c>
@@ -9444,7 +9411,7 @@
         <v>48700000</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A975">
         <v>975</v>
       </c>
@@ -9453,7 +9420,7 @@
         <v>48750000</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A976">
         <v>976</v>
       </c>
@@ -9462,7 +9429,7 @@
         <v>48800000</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A977">
         <v>977</v>
       </c>
@@ -9471,7 +9438,7 @@
         <v>48850000</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A978">
         <v>978</v>
       </c>
@@ -9480,7 +9447,7 @@
         <v>48900000</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A979">
         <v>979</v>
       </c>
@@ -9489,7 +9456,7 @@
         <v>48950000</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A980">
         <v>980</v>
       </c>
@@ -9498,7 +9465,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A981">
         <v>981</v>
       </c>
@@ -9507,7 +9474,7 @@
         <v>49050000</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A982">
         <v>982</v>
       </c>
@@ -9516,7 +9483,7 @@
         <v>49100000</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A983">
         <v>983</v>
       </c>
@@ -9525,7 +9492,7 @@
         <v>49150000</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A984">
         <v>984</v>
       </c>
@@ -9534,7 +9501,7 @@
         <v>49200000</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A985">
         <v>985</v>
       </c>
@@ -9543,7 +9510,7 @@
         <v>49250000</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A986">
         <v>986</v>
       </c>
@@ -9552,7 +9519,7 @@
         <v>49300000</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A987">
         <v>987</v>
       </c>
@@ -9561,7 +9528,7 @@
         <v>49350000</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A988">
         <v>988</v>
       </c>
@@ -9570,7 +9537,7 @@
         <v>49400000</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A989">
         <v>989</v>
       </c>
@@ -9579,7 +9546,7 @@
         <v>49450000</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A990">
         <v>990</v>
       </c>
@@ -9588,7 +9555,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A991">
         <v>991</v>
       </c>
@@ -9597,7 +9564,7 @@
         <v>49550000</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A992">
         <v>992</v>
       </c>
@@ -9606,7 +9573,7 @@
         <v>49600000</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A993">
         <v>993</v>
       </c>
@@ -9615,7 +9582,7 @@
         <v>49650000</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A994">
         <v>994</v>
       </c>
@@ -9624,7 +9591,7 @@
         <v>49700000</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A995">
         <v>995</v>
       </c>
@@ -9633,7 +9600,7 @@
         <v>49750000</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A996">
         <v>996</v>
       </c>
@@ -9642,7 +9609,7 @@
         <v>49800000</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A997">
         <v>997</v>
       </c>
@@ -9651,7 +9618,7 @@
         <v>49850000</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A998">
         <v>998</v>
       </c>
@@ -9660,7 +9627,7 @@
         <v>49900000</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A999">
         <v>999</v>
       </c>
@@ -9669,7 +9636,7 @@
         <v>49950000</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1000">
         <v>1000</v>
       </c>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641E0C7F-89E0-43BC-9A65-D6043A1F2320}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96DCA53-1749-4C18-9C35-E67C8AA6F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="8260" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4125" yWindow="3795" windowWidth="31020" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,19 +86,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유물0</t>
+    <t>relic4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유물1</t>
+    <t>relic5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유물2</t>
+    <t>약한 힘의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>유물3</t>
+    <t>약한 생명의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 힘의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강한 생명의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월한 힘의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초월한 생명의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grade</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -106,7 +126,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,13 +142,39 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -140,17 +186,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="보통" xfId="2" builtinId="28"/>
+    <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -463,20 +523,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="11.58203125" customWidth="1"/>
-    <col min="3" max="3" width="12.08203125" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -504,121 +568,200 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A2">
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>100</v>
-      </c>
-      <c r="G2">
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G2" s="1">
         <v>-1</v>
       </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="2">
+        <v>-1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>30000</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="F5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G5" s="2">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+      <c r="D6" s="1">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>20000</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>30000</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="2">
         <v>1</v>
       </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>100</v>
-      </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4">
+      <c r="D7" s="2">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3</v>
+      </c>
+      <c r="H7" s="2">
+        <v>20000</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="2">
         <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>11</v>
-      </c>
-      <c r="E4">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>100</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-      <c r="I4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>11</v>
-      </c>
-      <c r="E5">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>100</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -636,12 +779,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="97.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -654,7 +797,7 @@
         <v>25025000000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -663,7 +806,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -672,7 +815,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -681,7 +824,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -690,7 +833,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -699,7 +842,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -708,7 +851,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -717,7 +860,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -726,7 +869,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -735,7 +878,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -744,7 +887,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -753,7 +896,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -762,7 +905,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -771,7 +914,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -780,7 +923,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -789,7 +932,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -798,7 +941,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -807,7 +950,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -816,7 +959,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -825,7 +968,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -834,7 +977,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -843,7 +986,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -852,7 +995,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -861,7 +1004,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -870,7 +1013,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -879,7 +1022,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -888,7 +1031,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -897,7 +1040,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -906,7 +1049,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -915,7 +1058,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -924,7 +1067,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -933,7 +1076,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -942,7 +1085,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -951,7 +1094,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -960,7 +1103,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -969,7 +1112,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -978,7 +1121,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -987,7 +1130,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -996,7 +1139,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1005,7 +1148,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1014,7 +1157,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1023,7 +1166,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1032,7 +1175,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1041,7 +1184,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1050,7 +1193,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1059,7 +1202,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1068,7 +1211,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1077,7 +1220,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1086,7 +1229,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1095,7 +1238,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1104,7 +1247,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1113,7 +1256,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1122,7 +1265,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1131,7 +1274,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1140,7 +1283,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1149,7 +1292,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1158,7 +1301,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1167,7 +1310,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1176,7 +1319,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1185,7 +1328,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1194,7 +1337,7 @@
         <v>3050000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1203,7 +1346,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1212,7 +1355,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1221,7 +1364,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1230,7 +1373,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1239,7 +1382,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1248,7 +1391,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1257,7 +1400,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1266,7 +1409,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1275,7 +1418,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1284,7 +1427,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1293,7 +1436,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -1302,7 +1445,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1311,7 +1454,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1320,7 +1463,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1329,7 +1472,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1338,7 +1481,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1347,7 +1490,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1356,7 +1499,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1365,7 +1508,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1374,7 +1517,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1383,7 +1526,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1392,7 +1535,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1401,7 +1544,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1410,7 +1553,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1419,7 +1562,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1428,7 +1571,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1437,7 +1580,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1446,7 +1589,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1455,7 +1598,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -1464,7 +1607,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -1473,7 +1616,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -1482,7 +1625,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -1491,7 +1634,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -1500,7 +1643,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -1509,7 +1652,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -1518,7 +1661,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -1527,7 +1670,7 @@
         <v>4900000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -1536,7 +1679,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -1545,7 +1688,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -1554,7 +1697,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -1563,7 +1706,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -1572,7 +1715,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -1581,7 +1724,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -1590,7 +1733,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -1599,7 +1742,7 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -1608,7 +1751,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -1617,7 +1760,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -1626,7 +1769,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -1635,7 +1778,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -1644,7 +1787,7 @@
         <v>5550000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -1653,7 +1796,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -1662,7 +1805,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -1671,7 +1814,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -1680,7 +1823,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -1689,7 +1832,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -1698,7 +1841,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -1707,7 +1850,7 @@
         <v>5900000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -1716,7 +1859,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -1725,7 +1868,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -1734,7 +1877,7 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -1743,7 +1886,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -1752,7 +1895,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -1761,7 +1904,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -1770,7 +1913,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -1779,7 +1922,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -1788,7 +1931,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -1797,7 +1940,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -1806,7 +1949,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -1815,7 +1958,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -1824,7 +1967,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -1833,7 +1976,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -1842,7 +1985,7 @@
         <v>6650000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -1851,7 +1994,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -1860,7 +2003,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -1869,7 +2012,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -1878,7 +2021,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -1887,7 +2030,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -1896,7 +2039,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -1905,7 +2048,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -1914,7 +2057,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -1923,7 +2066,7 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -1932,7 +2075,7 @@
         <v>7150000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -1941,7 +2084,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -1950,7 +2093,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -1959,7 +2102,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -1968,7 +2111,7 @@
         <v>7350000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -1977,7 +2120,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -1986,7 +2129,7 @@
         <v>7450000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -1995,7 +2138,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -2004,7 +2147,7 @@
         <v>7550000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -2013,7 +2156,7 @@
         <v>7600000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -2022,7 +2165,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -2031,7 +2174,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -2040,7 +2183,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -2049,7 +2192,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -2058,7 +2201,7 @@
         <v>7850000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -2067,7 +2210,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -2076,7 +2219,7 @@
         <v>7950000</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -2085,7 +2228,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -2094,7 +2237,7 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -2103,7 +2246,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -2112,7 +2255,7 @@
         <v>8150000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -2121,7 +2264,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -2130,7 +2273,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -2139,7 +2282,7 @@
         <v>8300000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -2148,7 +2291,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -2157,7 +2300,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -2166,7 +2309,7 @@
         <v>8450000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -2175,7 +2318,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -2184,7 +2327,7 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -2193,7 +2336,7 @@
         <v>8600000</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -2202,7 +2345,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -2211,7 +2354,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -2220,7 +2363,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -2229,7 +2372,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -2238,7 +2381,7 @@
         <v>8850000</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -2247,7 +2390,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -2256,7 +2399,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -2265,7 +2408,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -2274,7 +2417,7 @@
         <v>9050000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -2283,7 +2426,7 @@
         <v>9100000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -2292,7 +2435,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -2301,7 +2444,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -2310,7 +2453,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -2319,7 +2462,7 @@
         <v>9300000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -2328,7 +2471,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -2337,7 +2480,7 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -2346,7 +2489,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -2355,7 +2498,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -2364,7 +2507,7 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -2373,7 +2516,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -2382,7 +2525,7 @@
         <v>9650000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -2391,7 +2534,7 @@
         <v>9700000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -2400,7 +2543,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -2409,7 +2552,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -2418,7 +2561,7 @@
         <v>9850000</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -2427,7 +2570,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -2436,7 +2579,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -2445,7 +2588,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -2454,7 +2597,7 @@
         <v>10050000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>202</v>
       </c>
@@ -2463,7 +2606,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>203</v>
       </c>
@@ -2472,7 +2615,7 @@
         <v>10150000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>204</v>
       </c>
@@ -2481,7 +2624,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>205</v>
       </c>
@@ -2490,7 +2633,7 @@
         <v>10250000</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>206</v>
       </c>
@@ -2499,7 +2642,7 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>207</v>
       </c>
@@ -2508,7 +2651,7 @@
         <v>10350000</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>208</v>
       </c>
@@ -2517,7 +2660,7 @@
         <v>10400000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>209</v>
       </c>
@@ -2526,7 +2669,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>210</v>
       </c>
@@ -2535,7 +2678,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>211</v>
       </c>
@@ -2544,7 +2687,7 @@
         <v>10550000</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>212</v>
       </c>
@@ -2553,7 +2696,7 @@
         <v>10600000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>213</v>
       </c>
@@ -2562,7 +2705,7 @@
         <v>10650000</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>214</v>
       </c>
@@ -2571,7 +2714,7 @@
         <v>10700000</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>215</v>
       </c>
@@ -2580,7 +2723,7 @@
         <v>10750000</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>216</v>
       </c>
@@ -2589,7 +2732,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>217</v>
       </c>
@@ -2598,7 +2741,7 @@
         <v>10850000</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>218</v>
       </c>
@@ -2607,7 +2750,7 @@
         <v>10900000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>219</v>
       </c>
@@ -2616,7 +2759,7 @@
         <v>10950000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>220</v>
       </c>
@@ -2625,7 +2768,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>221</v>
       </c>
@@ -2634,7 +2777,7 @@
         <v>11050000</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>222</v>
       </c>
@@ -2643,7 +2786,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>223</v>
       </c>
@@ -2652,7 +2795,7 @@
         <v>11150000</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>224</v>
       </c>
@@ -2661,7 +2804,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>225</v>
       </c>
@@ -2670,7 +2813,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>226</v>
       </c>
@@ -2679,7 +2822,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>227</v>
       </c>
@@ -2688,7 +2831,7 @@
         <v>11350000</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>228</v>
       </c>
@@ -2697,7 +2840,7 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>229</v>
       </c>
@@ -2706,7 +2849,7 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>230</v>
       </c>
@@ -2715,7 +2858,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>231</v>
       </c>
@@ -2724,7 +2867,7 @@
         <v>11550000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>232</v>
       </c>
@@ -2733,7 +2876,7 @@
         <v>11600000</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>233</v>
       </c>
@@ -2742,7 +2885,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>234</v>
       </c>
@@ -2751,7 +2894,7 @@
         <v>11700000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>235</v>
       </c>
@@ -2760,7 +2903,7 @@
         <v>11750000</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>236</v>
       </c>
@@ -2769,7 +2912,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>237</v>
       </c>
@@ -2778,7 +2921,7 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>238</v>
       </c>
@@ -2787,7 +2930,7 @@
         <v>11900000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>239</v>
       </c>
@@ -2796,7 +2939,7 @@
         <v>11950000</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>240</v>
       </c>
@@ -2805,7 +2948,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>241</v>
       </c>
@@ -2814,7 +2957,7 @@
         <v>12050000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>242</v>
       </c>
@@ -2823,7 +2966,7 @@
         <v>12100000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>243</v>
       </c>
@@ -2832,7 +2975,7 @@
         <v>12150000</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>244</v>
       </c>
@@ -2841,7 +2984,7 @@
         <v>12200000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>245</v>
       </c>
@@ -2850,7 +2993,7 @@
         <v>12250000</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>246</v>
       </c>
@@ -2859,7 +3002,7 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>247</v>
       </c>
@@ -2868,7 +3011,7 @@
         <v>12350000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>248</v>
       </c>
@@ -2877,7 +3020,7 @@
         <v>12400000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>249</v>
       </c>
@@ -2886,7 +3029,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>250</v>
       </c>
@@ -2895,7 +3038,7 @@
         <v>12500000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>251</v>
       </c>
@@ -2904,7 +3047,7 @@
         <v>12550000</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>252</v>
       </c>
@@ -2913,7 +3056,7 @@
         <v>12600000</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>253</v>
       </c>
@@ -2922,7 +3065,7 @@
         <v>12650000</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>254</v>
       </c>
@@ -2931,7 +3074,7 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>255</v>
       </c>
@@ -2940,7 +3083,7 @@
         <v>12750000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>256</v>
       </c>
@@ -2949,7 +3092,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>257</v>
       </c>
@@ -2958,7 +3101,7 @@
         <v>12850000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>258</v>
       </c>
@@ -2967,7 +3110,7 @@
         <v>12900000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>259</v>
       </c>
@@ -2976,7 +3119,7 @@
         <v>12950000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>260</v>
       </c>
@@ -2985,7 +3128,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>261</v>
       </c>
@@ -2994,7 +3137,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>262</v>
       </c>
@@ -3003,7 +3146,7 @@
         <v>13100000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>263</v>
       </c>
@@ -3012,7 +3155,7 @@
         <v>13150000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>264</v>
       </c>
@@ -3021,7 +3164,7 @@
         <v>13200000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>265</v>
       </c>
@@ -3030,7 +3173,7 @@
         <v>13250000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>266</v>
       </c>
@@ -3039,7 +3182,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>267</v>
       </c>
@@ -3048,7 +3191,7 @@
         <v>13350000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>268</v>
       </c>
@@ -3057,7 +3200,7 @@
         <v>13400000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>269</v>
       </c>
@@ -3066,7 +3209,7 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>270</v>
       </c>
@@ -3075,7 +3218,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>271</v>
       </c>
@@ -3084,7 +3227,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>272</v>
       </c>
@@ -3093,7 +3236,7 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>273</v>
       </c>
@@ -3102,7 +3245,7 @@
         <v>13650000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>274</v>
       </c>
@@ -3111,7 +3254,7 @@
         <v>13700000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>275</v>
       </c>
@@ -3120,7 +3263,7 @@
         <v>13750000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>276</v>
       </c>
@@ -3129,7 +3272,7 @@
         <v>13800000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>277</v>
       </c>
@@ -3138,7 +3281,7 @@
         <v>13850000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>278</v>
       </c>
@@ -3147,7 +3290,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>279</v>
       </c>
@@ -3156,7 +3299,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>280</v>
       </c>
@@ -3165,7 +3308,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>281</v>
       </c>
@@ -3174,7 +3317,7 @@
         <v>14050000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>282</v>
       </c>
@@ -3183,7 +3326,7 @@
         <v>14100000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>283</v>
       </c>
@@ -3192,7 +3335,7 @@
         <v>14150000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>284</v>
       </c>
@@ -3201,7 +3344,7 @@
         <v>14200000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>285</v>
       </c>
@@ -3210,7 +3353,7 @@
         <v>14250000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>286</v>
       </c>
@@ -3219,7 +3362,7 @@
         <v>14300000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>287</v>
       </c>
@@ -3228,7 +3371,7 @@
         <v>14350000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>288</v>
       </c>
@@ -3237,7 +3380,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>289</v>
       </c>
@@ -3246,7 +3389,7 @@
         <v>14450000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>290</v>
       </c>
@@ -3255,7 +3398,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>291</v>
       </c>
@@ -3264,7 +3407,7 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>292</v>
       </c>
@@ -3273,7 +3416,7 @@
         <v>14600000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>293</v>
       </c>
@@ -3282,7 +3425,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>294</v>
       </c>
@@ -3291,7 +3434,7 @@
         <v>14700000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>295</v>
       </c>
@@ -3300,7 +3443,7 @@
         <v>14750000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>296</v>
       </c>
@@ -3309,7 +3452,7 @@
         <v>14800000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>297</v>
       </c>
@@ -3318,7 +3461,7 @@
         <v>14850000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>298</v>
       </c>
@@ -3327,7 +3470,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>299</v>
       </c>
@@ -3336,7 +3479,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>300</v>
       </c>
@@ -3345,7 +3488,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>301</v>
       </c>
@@ -3354,7 +3497,7 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>302</v>
       </c>
@@ -3363,7 +3506,7 @@
         <v>15100000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>303</v>
       </c>
@@ -3372,7 +3515,7 @@
         <v>15150000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>304</v>
       </c>
@@ -3381,7 +3524,7 @@
         <v>15200000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>305</v>
       </c>
@@ -3390,7 +3533,7 @@
         <v>15250000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>306</v>
       </c>
@@ -3399,7 +3542,7 @@
         <v>15300000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>307</v>
       </c>
@@ -3408,7 +3551,7 @@
         <v>15350000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>308</v>
       </c>
@@ -3417,7 +3560,7 @@
         <v>15400000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>309</v>
       </c>
@@ -3426,7 +3569,7 @@
         <v>15450000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>310</v>
       </c>
@@ -3435,7 +3578,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>311</v>
       </c>
@@ -3444,7 +3587,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>312</v>
       </c>
@@ -3453,7 +3596,7 @@
         <v>15600000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>313</v>
       </c>
@@ -3462,7 +3605,7 @@
         <v>15650000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>314</v>
       </c>
@@ -3471,7 +3614,7 @@
         <v>15700000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>315</v>
       </c>
@@ -3480,7 +3623,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>316</v>
       </c>
@@ -3489,7 +3632,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>317</v>
       </c>
@@ -3498,7 +3641,7 @@
         <v>15850000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>318</v>
       </c>
@@ -3507,7 +3650,7 @@
         <v>15900000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>319</v>
       </c>
@@ -3516,7 +3659,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>320</v>
       </c>
@@ -3525,7 +3668,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>321</v>
       </c>
@@ -3534,7 +3677,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>322</v>
       </c>
@@ -3543,7 +3686,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>323</v>
       </c>
@@ -3552,7 +3695,7 @@
         <v>16150000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>324</v>
       </c>
@@ -3561,7 +3704,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>325</v>
       </c>
@@ -3570,7 +3713,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>326</v>
       </c>
@@ -3579,7 +3722,7 @@
         <v>16300000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>327</v>
       </c>
@@ -3588,7 +3731,7 @@
         <v>16350000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>328</v>
       </c>
@@ -3597,7 +3740,7 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>329</v>
       </c>
@@ -3606,7 +3749,7 @@
         <v>16450000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>330</v>
       </c>
@@ -3615,7 +3758,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>331</v>
       </c>
@@ -3624,7 +3767,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>332</v>
       </c>
@@ -3633,7 +3776,7 @@
         <v>16600000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>333</v>
       </c>
@@ -3642,7 +3785,7 @@
         <v>16650000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>334</v>
       </c>
@@ -3651,7 +3794,7 @@
         <v>16700000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>335</v>
       </c>
@@ -3660,7 +3803,7 @@
         <v>16750000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>336</v>
       </c>
@@ -3669,7 +3812,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>337</v>
       </c>
@@ -3678,7 +3821,7 @@
         <v>16850000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>338</v>
       </c>
@@ -3687,7 +3830,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>339</v>
       </c>
@@ -3696,7 +3839,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>340</v>
       </c>
@@ -3705,7 +3848,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>341</v>
       </c>
@@ -3714,7 +3857,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>342</v>
       </c>
@@ -3723,7 +3866,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>343</v>
       </c>
@@ -3732,7 +3875,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>344</v>
       </c>
@@ -3741,7 +3884,7 @@
         <v>17200000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>345</v>
       </c>
@@ -3750,7 +3893,7 @@
         <v>17250000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>346</v>
       </c>
@@ -3759,7 +3902,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>347</v>
       </c>
@@ -3768,7 +3911,7 @@
         <v>17350000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>348</v>
       </c>
@@ -3777,7 +3920,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>349</v>
       </c>
@@ -3786,7 +3929,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>350</v>
       </c>
@@ -3795,7 +3938,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>351</v>
       </c>
@@ -3804,7 +3947,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>352</v>
       </c>
@@ -3813,7 +3956,7 @@
         <v>17600000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>353</v>
       </c>
@@ -3822,7 +3965,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>354</v>
       </c>
@@ -3831,7 +3974,7 @@
         <v>17700000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>355</v>
       </c>
@@ -3840,7 +3983,7 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>356</v>
       </c>
@@ -3849,7 +3992,7 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>357</v>
       </c>
@@ -3858,7 +4001,7 @@
         <v>17850000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>358</v>
       </c>
@@ -3867,7 +4010,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>359</v>
       </c>
@@ -3876,7 +4019,7 @@
         <v>17950000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>360</v>
       </c>
@@ -3885,7 +4028,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>361</v>
       </c>
@@ -3894,7 +4037,7 @@
         <v>18050000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>362</v>
       </c>
@@ -3903,7 +4046,7 @@
         <v>18100000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>363</v>
       </c>
@@ -3912,7 +4055,7 @@
         <v>18150000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>364</v>
       </c>
@@ -3921,7 +4064,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>365</v>
       </c>
@@ -3930,7 +4073,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>366</v>
       </c>
@@ -3939,7 +4082,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>367</v>
       </c>
@@ -3948,7 +4091,7 @@
         <v>18350000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>368</v>
       </c>
@@ -3957,7 +4100,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>369</v>
       </c>
@@ -3966,7 +4109,7 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>370</v>
       </c>
@@ -3975,7 +4118,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>371</v>
       </c>
@@ -3984,7 +4127,7 @@
         <v>18550000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>372</v>
       </c>
@@ -3993,7 +4136,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>373</v>
       </c>
@@ -4002,7 +4145,7 @@
         <v>18650000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>374</v>
       </c>
@@ -4011,7 +4154,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>375</v>
       </c>
@@ -4020,7 +4163,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>376</v>
       </c>
@@ -4029,7 +4172,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>377</v>
       </c>
@@ -4038,7 +4181,7 @@
         <v>18850000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>378</v>
       </c>
@@ -4047,7 +4190,7 @@
         <v>18900000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>379</v>
       </c>
@@ -4056,7 +4199,7 @@
         <v>18950000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>380</v>
       </c>
@@ -4065,7 +4208,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>381</v>
       </c>
@@ -4074,7 +4217,7 @@
         <v>19050000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>382</v>
       </c>
@@ -4083,7 +4226,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>383</v>
       </c>
@@ -4092,7 +4235,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>384</v>
       </c>
@@ -4101,7 +4244,7 @@
         <v>19200000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>385</v>
       </c>
@@ -4110,7 +4253,7 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>386</v>
       </c>
@@ -4119,7 +4262,7 @@
         <v>19300000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>387</v>
       </c>
@@ -4128,7 +4271,7 @@
         <v>19350000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>388</v>
       </c>
@@ -4137,7 +4280,7 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>389</v>
       </c>
@@ -4146,7 +4289,7 @@
         <v>19450000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>390</v>
       </c>
@@ -4155,7 +4298,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>391</v>
       </c>
@@ -4164,7 +4307,7 @@
         <v>19550000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>392</v>
       </c>
@@ -4173,7 +4316,7 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>393</v>
       </c>
@@ -4182,7 +4325,7 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>394</v>
       </c>
@@ -4191,7 +4334,7 @@
         <v>19700000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>395</v>
       </c>
@@ -4200,7 +4343,7 @@
         <v>19750000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>396</v>
       </c>
@@ -4209,7 +4352,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>397</v>
       </c>
@@ -4218,7 +4361,7 @@
         <v>19850000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>398</v>
       </c>
@@ -4227,7 +4370,7 @@
         <v>19900000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>399</v>
       </c>
@@ -4236,7 +4379,7 @@
         <v>19950000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>400</v>
       </c>
@@ -4245,7 +4388,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>401</v>
       </c>
@@ -4254,7 +4397,7 @@
         <v>20050000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>402</v>
       </c>
@@ -4263,7 +4406,7 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>403</v>
       </c>
@@ -4272,7 +4415,7 @@
         <v>20150000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>404</v>
       </c>
@@ -4281,7 +4424,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>405</v>
       </c>
@@ -4290,7 +4433,7 @@
         <v>20250000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>406</v>
       </c>
@@ -4299,7 +4442,7 @@
         <v>20300000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>407</v>
       </c>
@@ -4308,7 +4451,7 @@
         <v>20350000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>408</v>
       </c>
@@ -4317,7 +4460,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>409</v>
       </c>
@@ -4326,7 +4469,7 @@
         <v>20450000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>410</v>
       </c>
@@ -4335,7 +4478,7 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>411</v>
       </c>
@@ -4344,7 +4487,7 @@
         <v>20550000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>412</v>
       </c>
@@ -4353,7 +4496,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>413</v>
       </c>
@@ -4362,7 +4505,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>414</v>
       </c>
@@ -4371,7 +4514,7 @@
         <v>20700000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>415</v>
       </c>
@@ -4380,7 +4523,7 @@
         <v>20750000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>416</v>
       </c>
@@ -4389,7 +4532,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>417</v>
       </c>
@@ -4398,7 +4541,7 @@
         <v>20850000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>418</v>
       </c>
@@ -4407,7 +4550,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>419</v>
       </c>
@@ -4416,7 +4559,7 @@
         <v>20950000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>420</v>
       </c>
@@ -4425,7 +4568,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>421</v>
       </c>
@@ -4434,7 +4577,7 @@
         <v>21050000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>422</v>
       </c>
@@ -4443,7 +4586,7 @@
         <v>21100000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>423</v>
       </c>
@@ -4452,7 +4595,7 @@
         <v>21150000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>424</v>
       </c>
@@ -4461,7 +4604,7 @@
         <v>21200000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>425</v>
       </c>
@@ -4470,7 +4613,7 @@
         <v>21250000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>426</v>
       </c>
@@ -4479,7 +4622,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>427</v>
       </c>
@@ -4488,7 +4631,7 @@
         <v>21350000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>428</v>
       </c>
@@ -4497,7 +4640,7 @@
         <v>21400000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>429</v>
       </c>
@@ -4506,7 +4649,7 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>430</v>
       </c>
@@ -4515,7 +4658,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>431</v>
       </c>
@@ -4524,7 +4667,7 @@
         <v>21550000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>432</v>
       </c>
@@ -4533,7 +4676,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>433</v>
       </c>
@@ -4542,7 +4685,7 @@
         <v>21650000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>434</v>
       </c>
@@ -4551,7 +4694,7 @@
         <v>21700000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>435</v>
       </c>
@@ -4560,7 +4703,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>436</v>
       </c>
@@ -4569,7 +4712,7 @@
         <v>21800000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>437</v>
       </c>
@@ -4578,7 +4721,7 @@
         <v>21850000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>438</v>
       </c>
@@ -4587,7 +4730,7 @@
         <v>21900000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>439</v>
       </c>
@@ -4596,7 +4739,7 @@
         <v>21950000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>440</v>
       </c>
@@ -4605,7 +4748,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>441</v>
       </c>
@@ -4614,7 +4757,7 @@
         <v>22050000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>442</v>
       </c>
@@ -4623,7 +4766,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>443</v>
       </c>
@@ -4632,7 +4775,7 @@
         <v>22150000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>444</v>
       </c>
@@ -4641,7 +4784,7 @@
         <v>22200000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>445</v>
       </c>
@@ -4650,7 +4793,7 @@
         <v>22250000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>446</v>
       </c>
@@ -4659,7 +4802,7 @@
         <v>22300000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>447</v>
       </c>
@@ -4668,7 +4811,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>448</v>
       </c>
@@ -4677,7 +4820,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>449</v>
       </c>
@@ -4686,7 +4829,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>450</v>
       </c>
@@ -4695,7 +4838,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>451</v>
       </c>
@@ -4704,7 +4847,7 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>452</v>
       </c>
@@ -4713,7 +4856,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>453</v>
       </c>
@@ -4722,7 +4865,7 @@
         <v>22650000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>454</v>
       </c>
@@ -4731,7 +4874,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>455</v>
       </c>
@@ -4740,7 +4883,7 @@
         <v>22750000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>456</v>
       </c>
@@ -4749,7 +4892,7 @@
         <v>22800000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>457</v>
       </c>
@@ -4758,7 +4901,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>458</v>
       </c>
@@ -4767,7 +4910,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>459</v>
       </c>
@@ -4776,7 +4919,7 @@
         <v>22950000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>460</v>
       </c>
@@ -4785,7 +4928,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>461</v>
       </c>
@@ -4794,7 +4937,7 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>462</v>
       </c>
@@ -4803,7 +4946,7 @@
         <v>23100000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>463</v>
       </c>
@@ -4812,7 +4955,7 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>464</v>
       </c>
@@ -4821,7 +4964,7 @@
         <v>23200000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>465</v>
       </c>
@@ -4830,7 +4973,7 @@
         <v>23250000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>466</v>
       </c>
@@ -4839,7 +4982,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>467</v>
       </c>
@@ -4848,7 +4991,7 @@
         <v>23350000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>468</v>
       </c>
@@ -4857,7 +5000,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>469</v>
       </c>
@@ -4866,7 +5009,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>470</v>
       </c>
@@ -4875,7 +5018,7 @@
         <v>23500000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>471</v>
       </c>
@@ -4884,7 +5027,7 @@
         <v>23550000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>472</v>
       </c>
@@ -4893,7 +5036,7 @@
         <v>23600000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>473</v>
       </c>
@@ -4902,7 +5045,7 @@
         <v>23650000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>474</v>
       </c>
@@ -4911,7 +5054,7 @@
         <v>23700000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>475</v>
       </c>
@@ -4920,7 +5063,7 @@
         <v>23750000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>476</v>
       </c>
@@ -4929,7 +5072,7 @@
         <v>23800000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>477</v>
       </c>
@@ -4938,7 +5081,7 @@
         <v>23850000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>478</v>
       </c>
@@ -4947,7 +5090,7 @@
         <v>23900000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>479</v>
       </c>
@@ -4956,7 +5099,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>480</v>
       </c>
@@ -4965,7 +5108,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>481</v>
       </c>
@@ -4974,7 +5117,7 @@
         <v>24050000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>482</v>
       </c>
@@ -4983,7 +5126,7 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>483</v>
       </c>
@@ -4992,7 +5135,7 @@
         <v>24150000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>484</v>
       </c>
@@ -5001,7 +5144,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>485</v>
       </c>
@@ -5010,7 +5153,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>486</v>
       </c>
@@ -5019,7 +5162,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>487</v>
       </c>
@@ -5028,7 +5171,7 @@
         <v>24350000</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>488</v>
       </c>
@@ -5037,7 +5180,7 @@
         <v>24400000</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>489</v>
       </c>
@@ -5046,7 +5189,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>490</v>
       </c>
@@ -5055,7 +5198,7 @@
         <v>24500000</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>491</v>
       </c>
@@ -5064,7 +5207,7 @@
         <v>24550000</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>492</v>
       </c>
@@ -5073,7 +5216,7 @@
         <v>24600000</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>493</v>
       </c>
@@ -5082,7 +5225,7 @@
         <v>24650000</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>494</v>
       </c>
@@ -5091,7 +5234,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>495</v>
       </c>
@@ -5100,7 +5243,7 @@
         <v>24750000</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>496</v>
       </c>
@@ -5109,7 +5252,7 @@
         <v>24800000</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>497</v>
       </c>
@@ -5118,7 +5261,7 @@
         <v>24850000</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>498</v>
       </c>
@@ -5127,7 +5270,7 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>499</v>
       </c>
@@ -5136,7 +5279,7 @@
         <v>24950000</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>500</v>
       </c>
@@ -5145,7 +5288,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>501</v>
       </c>
@@ -5154,7 +5297,7 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>502</v>
       </c>
@@ -5163,7 +5306,7 @@
         <v>25100000</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>503</v>
       </c>
@@ -5172,7 +5315,7 @@
         <v>25150000</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>504</v>
       </c>
@@ -5181,7 +5324,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>505</v>
       </c>
@@ -5190,7 +5333,7 @@
         <v>25250000</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>506</v>
       </c>
@@ -5199,7 +5342,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>507</v>
       </c>
@@ -5208,7 +5351,7 @@
         <v>25350000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>508</v>
       </c>
@@ -5217,7 +5360,7 @@
         <v>25400000</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>509</v>
       </c>
@@ -5226,7 +5369,7 @@
         <v>25450000</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>510</v>
       </c>
@@ -5235,7 +5378,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>511</v>
       </c>
@@ -5244,7 +5387,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>512</v>
       </c>
@@ -5253,7 +5396,7 @@
         <v>25600000</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>513</v>
       </c>
@@ -5262,7 +5405,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>514</v>
       </c>
@@ -5271,7 +5414,7 @@
         <v>25700000</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>515</v>
       </c>
@@ -5280,7 +5423,7 @@
         <v>25750000</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>516</v>
       </c>
@@ -5289,7 +5432,7 @@
         <v>25800000</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>517</v>
       </c>
@@ -5298,7 +5441,7 @@
         <v>25850000</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>518</v>
       </c>
@@ -5307,7 +5450,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>519</v>
       </c>
@@ -5316,7 +5459,7 @@
         <v>25950000</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>520</v>
       </c>
@@ -5325,7 +5468,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>521</v>
       </c>
@@ -5334,7 +5477,7 @@
         <v>26050000</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>522</v>
       </c>
@@ -5343,7 +5486,7 @@
         <v>26100000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>523</v>
       </c>
@@ -5352,7 +5495,7 @@
         <v>26150000</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>524</v>
       </c>
@@ -5361,7 +5504,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>525</v>
       </c>
@@ -5370,7 +5513,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>526</v>
       </c>
@@ -5379,7 +5522,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>527</v>
       </c>
@@ -5388,7 +5531,7 @@
         <v>26350000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>528</v>
       </c>
@@ -5397,7 +5540,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>529</v>
       </c>
@@ -5406,7 +5549,7 @@
         <v>26450000</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>530</v>
       </c>
@@ -5415,7 +5558,7 @@
         <v>26500000</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>531</v>
       </c>
@@ -5424,7 +5567,7 @@
         <v>26550000</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>532</v>
       </c>
@@ -5433,7 +5576,7 @@
         <v>26600000</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>533</v>
       </c>
@@ -5442,7 +5585,7 @@
         <v>26650000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>534</v>
       </c>
@@ -5451,7 +5594,7 @@
         <v>26700000</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>535</v>
       </c>
@@ -5460,7 +5603,7 @@
         <v>26750000</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>536</v>
       </c>
@@ -5469,7 +5612,7 @@
         <v>26800000</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>537</v>
       </c>
@@ -5478,7 +5621,7 @@
         <v>26850000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>538</v>
       </c>
@@ -5487,7 +5630,7 @@
         <v>26900000</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>539</v>
       </c>
@@ -5496,7 +5639,7 @@
         <v>26950000</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>540</v>
       </c>
@@ -5505,7 +5648,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>541</v>
       </c>
@@ -5514,7 +5657,7 @@
         <v>27050000</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>542</v>
       </c>
@@ -5523,7 +5666,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>543</v>
       </c>
@@ -5532,7 +5675,7 @@
         <v>27150000</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>544</v>
       </c>
@@ -5541,7 +5684,7 @@
         <v>27200000</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>545</v>
       </c>
@@ -5550,7 +5693,7 @@
         <v>27250000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>546</v>
       </c>
@@ -5559,7 +5702,7 @@
         <v>27300000</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>547</v>
       </c>
@@ -5568,7 +5711,7 @@
         <v>27350000</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>548</v>
       </c>
@@ -5577,7 +5720,7 @@
         <v>27400000</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>549</v>
       </c>
@@ -5586,7 +5729,7 @@
         <v>27450000</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>550</v>
       </c>
@@ -5595,7 +5738,7 @@
         <v>27500000</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>551</v>
       </c>
@@ -5604,7 +5747,7 @@
         <v>27550000</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>552</v>
       </c>
@@ -5613,7 +5756,7 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>553</v>
       </c>
@@ -5622,7 +5765,7 @@
         <v>27650000</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>554</v>
       </c>
@@ -5631,7 +5774,7 @@
         <v>27700000</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>555</v>
       </c>
@@ -5640,7 +5783,7 @@
         <v>27750000</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>556</v>
       </c>
@@ -5649,7 +5792,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>557</v>
       </c>
@@ -5658,7 +5801,7 @@
         <v>27850000</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>558</v>
       </c>
@@ -5667,7 +5810,7 @@
         <v>27900000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>559</v>
       </c>
@@ -5676,7 +5819,7 @@
         <v>27950000</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>560</v>
       </c>
@@ -5685,7 +5828,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>561</v>
       </c>
@@ -5694,7 +5837,7 @@
         <v>28050000</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>562</v>
       </c>
@@ -5703,7 +5846,7 @@
         <v>28100000</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>563</v>
       </c>
@@ -5712,7 +5855,7 @@
         <v>28150000</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>564</v>
       </c>
@@ -5721,7 +5864,7 @@
         <v>28200000</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>565</v>
       </c>
@@ -5730,7 +5873,7 @@
         <v>28250000</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>566</v>
       </c>
@@ -5739,7 +5882,7 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>567</v>
       </c>
@@ -5748,7 +5891,7 @@
         <v>28350000</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>568</v>
       </c>
@@ -5757,7 +5900,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>569</v>
       </c>
@@ -5766,7 +5909,7 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>570</v>
       </c>
@@ -5775,7 +5918,7 @@
         <v>28500000</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>571</v>
       </c>
@@ -5784,7 +5927,7 @@
         <v>28550000</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>572</v>
       </c>
@@ -5793,7 +5936,7 @@
         <v>28600000</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>573</v>
       </c>
@@ -5802,7 +5945,7 @@
         <v>28650000</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>574</v>
       </c>
@@ -5811,7 +5954,7 @@
         <v>28700000</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>575</v>
       </c>
@@ -5820,7 +5963,7 @@
         <v>28750000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>576</v>
       </c>
@@ -5829,7 +5972,7 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>577</v>
       </c>
@@ -5838,7 +5981,7 @@
         <v>28850000</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>578</v>
       </c>
@@ -5847,7 +5990,7 @@
         <v>28900000</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>579</v>
       </c>
@@ -5856,7 +5999,7 @@
         <v>28950000</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>580</v>
       </c>
@@ -5865,7 +6008,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>581</v>
       </c>
@@ -5874,7 +6017,7 @@
         <v>29050000</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>582</v>
       </c>
@@ -5883,7 +6026,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>583</v>
       </c>
@@ -5892,7 +6035,7 @@
         <v>29150000</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>584</v>
       </c>
@@ -5901,7 +6044,7 @@
         <v>29200000</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>585</v>
       </c>
@@ -5910,7 +6053,7 @@
         <v>29250000</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>586</v>
       </c>
@@ -5919,7 +6062,7 @@
         <v>29300000</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>587</v>
       </c>
@@ -5928,7 +6071,7 @@
         <v>29350000</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>588</v>
       </c>
@@ -5937,7 +6080,7 @@
         <v>29400000</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>589</v>
       </c>
@@ -5946,7 +6089,7 @@
         <v>29450000</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>590</v>
       </c>
@@ -5955,7 +6098,7 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>591</v>
       </c>
@@ -5964,7 +6107,7 @@
         <v>29550000</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>592</v>
       </c>
@@ -5973,7 +6116,7 @@
         <v>29600000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>593</v>
       </c>
@@ -5982,7 +6125,7 @@
         <v>29650000</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>594</v>
       </c>
@@ -5991,7 +6134,7 @@
         <v>29700000</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>595</v>
       </c>
@@ -6000,7 +6143,7 @@
         <v>29750000</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>596</v>
       </c>
@@ -6009,7 +6152,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>597</v>
       </c>
@@ -6018,7 +6161,7 @@
         <v>29850000</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>598</v>
       </c>
@@ -6027,7 +6170,7 @@
         <v>29900000</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>599</v>
       </c>
@@ -6036,7 +6179,7 @@
         <v>29950000</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>600</v>
       </c>
@@ -6045,7 +6188,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>601</v>
       </c>
@@ -6054,7 +6197,7 @@
         <v>30050000</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>602</v>
       </c>
@@ -6063,7 +6206,7 @@
         <v>30100000</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>603</v>
       </c>
@@ -6072,7 +6215,7 @@
         <v>30150000</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>604</v>
       </c>
@@ -6081,7 +6224,7 @@
         <v>30200000</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>605</v>
       </c>
@@ -6090,7 +6233,7 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>606</v>
       </c>
@@ -6099,7 +6242,7 @@
         <v>30300000</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>607</v>
       </c>
@@ -6108,7 +6251,7 @@
         <v>30350000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>608</v>
       </c>
@@ -6117,7 +6260,7 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>609</v>
       </c>
@@ -6126,7 +6269,7 @@
         <v>30450000</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>610</v>
       </c>
@@ -6135,7 +6278,7 @@
         <v>30500000</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>611</v>
       </c>
@@ -6144,7 +6287,7 @@
         <v>30550000</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>612</v>
       </c>
@@ -6153,7 +6296,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>613</v>
       </c>
@@ -6162,7 +6305,7 @@
         <v>30650000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>614</v>
       </c>
@@ -6171,7 +6314,7 @@
         <v>30700000</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>615</v>
       </c>
@@ -6180,7 +6323,7 @@
         <v>30750000</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>616</v>
       </c>
@@ -6189,7 +6332,7 @@
         <v>30800000</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>617</v>
       </c>
@@ -6198,7 +6341,7 @@
         <v>30850000</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>618</v>
       </c>
@@ -6207,7 +6350,7 @@
         <v>30900000</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>619</v>
       </c>
@@ -6216,7 +6359,7 @@
         <v>30950000</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>620</v>
       </c>
@@ -6225,7 +6368,7 @@
         <v>31000000</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>621</v>
       </c>
@@ -6234,7 +6377,7 @@
         <v>31050000</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>622</v>
       </c>
@@ -6243,7 +6386,7 @@
         <v>31100000</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>623</v>
       </c>
@@ -6252,7 +6395,7 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>624</v>
       </c>
@@ -6261,7 +6404,7 @@
         <v>31200000</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>625</v>
       </c>
@@ -6270,7 +6413,7 @@
         <v>31250000</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>626</v>
       </c>
@@ -6279,7 +6422,7 @@
         <v>31300000</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>627</v>
       </c>
@@ -6288,7 +6431,7 @@
         <v>31350000</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>628</v>
       </c>
@@ -6297,7 +6440,7 @@
         <v>31400000</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>629</v>
       </c>
@@ -6306,7 +6449,7 @@
         <v>31450000</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>630</v>
       </c>
@@ -6315,7 +6458,7 @@
         <v>31500000</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>631</v>
       </c>
@@ -6324,7 +6467,7 @@
         <v>31550000</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>632</v>
       </c>
@@ -6333,7 +6476,7 @@
         <v>31600000</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>633</v>
       </c>
@@ -6342,7 +6485,7 @@
         <v>31650000</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>634</v>
       </c>
@@ -6351,7 +6494,7 @@
         <v>31700000</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>635</v>
       </c>
@@ -6360,7 +6503,7 @@
         <v>31750000</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>636</v>
       </c>
@@ -6369,7 +6512,7 @@
         <v>31800000</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>637</v>
       </c>
@@ -6378,7 +6521,7 @@
         <v>31850000</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>638</v>
       </c>
@@ -6387,7 +6530,7 @@
         <v>31900000</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>639</v>
       </c>
@@ -6396,7 +6539,7 @@
         <v>31950000</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>640</v>
       </c>
@@ -6405,7 +6548,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>641</v>
       </c>
@@ -6414,7 +6557,7 @@
         <v>32050000</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>642</v>
       </c>
@@ -6423,7 +6566,7 @@
         <v>32100000</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>643</v>
       </c>
@@ -6432,7 +6575,7 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>644</v>
       </c>
@@ -6441,7 +6584,7 @@
         <v>32200000</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>645</v>
       </c>
@@ -6450,7 +6593,7 @@
         <v>32250000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>646</v>
       </c>
@@ -6459,7 +6602,7 @@
         <v>32300000</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>647</v>
       </c>
@@ -6468,7 +6611,7 @@
         <v>32350000</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>648</v>
       </c>
@@ -6477,7 +6620,7 @@
         <v>32400000</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>649</v>
       </c>
@@ -6486,7 +6629,7 @@
         <v>32450000</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>650</v>
       </c>
@@ -6495,7 +6638,7 @@
         <v>32500000</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>651</v>
       </c>
@@ -6504,7 +6647,7 @@
         <v>32550000</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>652</v>
       </c>
@@ -6513,7 +6656,7 @@
         <v>32600000</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>653</v>
       </c>
@@ -6522,7 +6665,7 @@
         <v>32650000</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>654</v>
       </c>
@@ -6531,7 +6674,7 @@
         <v>32700000</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>655</v>
       </c>
@@ -6540,7 +6683,7 @@
         <v>32750000</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>656</v>
       </c>
@@ -6549,7 +6692,7 @@
         <v>32800000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>657</v>
       </c>
@@ -6558,7 +6701,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>658</v>
       </c>
@@ -6567,7 +6710,7 @@
         <v>32900000</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>659</v>
       </c>
@@ -6576,7 +6719,7 @@
         <v>32950000</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>660</v>
       </c>
@@ -6585,7 +6728,7 @@
         <v>33000000</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>661</v>
       </c>
@@ -6594,7 +6737,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>662</v>
       </c>
@@ -6603,7 +6746,7 @@
         <v>33100000</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>663</v>
       </c>
@@ -6612,7 +6755,7 @@
         <v>33150000</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>664</v>
       </c>
@@ -6621,7 +6764,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>665</v>
       </c>
@@ -6630,7 +6773,7 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>666</v>
       </c>
@@ -6639,7 +6782,7 @@
         <v>33300000</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>667</v>
       </c>
@@ -6648,7 +6791,7 @@
         <v>33350000</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>668</v>
       </c>
@@ -6657,7 +6800,7 @@
         <v>33400000</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>669</v>
       </c>
@@ -6666,7 +6809,7 @@
         <v>33450000</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>670</v>
       </c>
@@ -6675,7 +6818,7 @@
         <v>33500000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>671</v>
       </c>
@@ -6684,7 +6827,7 @@
         <v>33550000</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>672</v>
       </c>
@@ -6693,7 +6836,7 @@
         <v>33600000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>673</v>
       </c>
@@ -6702,7 +6845,7 @@
         <v>33650000</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>674</v>
       </c>
@@ -6711,7 +6854,7 @@
         <v>33700000</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>675</v>
       </c>
@@ -6720,7 +6863,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>676</v>
       </c>
@@ -6729,7 +6872,7 @@
         <v>33800000</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>677</v>
       </c>
@@ -6738,7 +6881,7 @@
         <v>33850000</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>678</v>
       </c>
@@ -6747,7 +6890,7 @@
         <v>33900000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>679</v>
       </c>
@@ -6756,7 +6899,7 @@
         <v>33950000</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>680</v>
       </c>
@@ -6765,7 +6908,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>681</v>
       </c>
@@ -6774,7 +6917,7 @@
         <v>34050000</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>682</v>
       </c>
@@ -6783,7 +6926,7 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>683</v>
       </c>
@@ -6792,7 +6935,7 @@
         <v>34150000</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>684</v>
       </c>
@@ -6801,7 +6944,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>685</v>
       </c>
@@ -6810,7 +6953,7 @@
         <v>34250000</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>686</v>
       </c>
@@ -6819,7 +6962,7 @@
         <v>34300000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>687</v>
       </c>
@@ -6828,7 +6971,7 @@
         <v>34350000</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>688</v>
       </c>
@@ -6837,7 +6980,7 @@
         <v>34400000</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>689</v>
       </c>
@@ -6846,7 +6989,7 @@
         <v>34450000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>690</v>
       </c>
@@ -6855,7 +6998,7 @@
         <v>34500000</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>691</v>
       </c>
@@ -6864,7 +7007,7 @@
         <v>34550000</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>692</v>
       </c>
@@ -6873,7 +7016,7 @@
         <v>34600000</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>693</v>
       </c>
@@ -6882,7 +7025,7 @@
         <v>34650000</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>694</v>
       </c>
@@ -6891,7 +7034,7 @@
         <v>34700000</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>695</v>
       </c>
@@ -6900,7 +7043,7 @@
         <v>34750000</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>696</v>
       </c>
@@ -6909,7 +7052,7 @@
         <v>34800000</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>697</v>
       </c>
@@ -6918,7 +7061,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>698</v>
       </c>
@@ -6927,7 +7070,7 @@
         <v>34900000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>699</v>
       </c>
@@ -6936,7 +7079,7 @@
         <v>34950000</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>700</v>
       </c>
@@ -6945,7 +7088,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>701</v>
       </c>
@@ -6954,7 +7097,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>702</v>
       </c>
@@ -6963,7 +7106,7 @@
         <v>35100000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>703</v>
       </c>
@@ -6972,7 +7115,7 @@
         <v>35150000</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>704</v>
       </c>
@@ -6981,7 +7124,7 @@
         <v>35200000</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>705</v>
       </c>
@@ -6990,7 +7133,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>706</v>
       </c>
@@ -6999,7 +7142,7 @@
         <v>35300000</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>707</v>
       </c>
@@ -7008,7 +7151,7 @@
         <v>35350000</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>708</v>
       </c>
@@ -7017,7 +7160,7 @@
         <v>35400000</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>709</v>
       </c>
@@ -7026,7 +7169,7 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>710</v>
       </c>
@@ -7035,7 +7178,7 @@
         <v>35500000</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>711</v>
       </c>
@@ -7044,7 +7187,7 @@
         <v>35550000</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>712</v>
       </c>
@@ -7053,7 +7196,7 @@
         <v>35600000</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>713</v>
       </c>
@@ -7062,7 +7205,7 @@
         <v>35650000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>714</v>
       </c>
@@ -7071,7 +7214,7 @@
         <v>35700000</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>715</v>
       </c>
@@ -7080,7 +7223,7 @@
         <v>35750000</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>716</v>
       </c>
@@ -7089,7 +7232,7 @@
         <v>35800000</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>717</v>
       </c>
@@ -7098,7 +7241,7 @@
         <v>35850000</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>718</v>
       </c>
@@ -7107,7 +7250,7 @@
         <v>35900000</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>719</v>
       </c>
@@ -7116,7 +7259,7 @@
         <v>35950000</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>720</v>
       </c>
@@ -7125,7 +7268,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>721</v>
       </c>
@@ -7134,7 +7277,7 @@
         <v>36050000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>722</v>
       </c>
@@ -7143,7 +7286,7 @@
         <v>36100000</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>723</v>
       </c>
@@ -7152,7 +7295,7 @@
         <v>36150000</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>724</v>
       </c>
@@ -7161,7 +7304,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>725</v>
       </c>
@@ -7170,7 +7313,7 @@
         <v>36250000</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>726</v>
       </c>
@@ -7179,7 +7322,7 @@
         <v>36300000</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>727</v>
       </c>
@@ -7188,7 +7331,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>728</v>
       </c>
@@ -7197,7 +7340,7 @@
         <v>36400000</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>729</v>
       </c>
@@ -7206,7 +7349,7 @@
         <v>36450000</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>730</v>
       </c>
@@ -7215,7 +7358,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>731</v>
       </c>
@@ -7224,7 +7367,7 @@
         <v>36550000</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>732</v>
       </c>
@@ -7233,7 +7376,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>733</v>
       </c>
@@ -7242,7 +7385,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>734</v>
       </c>
@@ -7251,7 +7394,7 @@
         <v>36700000</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>735</v>
       </c>
@@ -7260,7 +7403,7 @@
         <v>36750000</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>736</v>
       </c>
@@ -7269,7 +7412,7 @@
         <v>36800000</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>737</v>
       </c>
@@ -7278,7 +7421,7 @@
         <v>36850000</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>738</v>
       </c>
@@ -7287,7 +7430,7 @@
         <v>36900000</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>739</v>
       </c>
@@ -7296,7 +7439,7 @@
         <v>36950000</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>740</v>
       </c>
@@ -7305,7 +7448,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>741</v>
       </c>
@@ -7314,7 +7457,7 @@
         <v>37050000</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>742</v>
       </c>
@@ -7323,7 +7466,7 @@
         <v>37100000</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>743</v>
       </c>
@@ -7332,7 +7475,7 @@
         <v>37150000</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>744</v>
       </c>
@@ -7341,7 +7484,7 @@
         <v>37200000</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>745</v>
       </c>
@@ -7350,7 +7493,7 @@
         <v>37250000</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>746</v>
       </c>
@@ -7359,7 +7502,7 @@
         <v>37300000</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>747</v>
       </c>
@@ -7368,7 +7511,7 @@
         <v>37350000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>748</v>
       </c>
@@ -7377,7 +7520,7 @@
         <v>37400000</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>749</v>
       </c>
@@ -7386,7 +7529,7 @@
         <v>37450000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>750</v>
       </c>
@@ -7395,7 +7538,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>751</v>
       </c>
@@ -7404,7 +7547,7 @@
         <v>37550000</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>752</v>
       </c>
@@ -7413,7 +7556,7 @@
         <v>37600000</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>753</v>
       </c>
@@ -7422,7 +7565,7 @@
         <v>37650000</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>754</v>
       </c>
@@ -7431,7 +7574,7 @@
         <v>37700000</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>755</v>
       </c>
@@ -7440,7 +7583,7 @@
         <v>37750000</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>756</v>
       </c>
@@ -7449,7 +7592,7 @@
         <v>37800000</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>757</v>
       </c>
@@ -7458,7 +7601,7 @@
         <v>37850000</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>758</v>
       </c>
@@ -7467,7 +7610,7 @@
         <v>37900000</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>759</v>
       </c>
@@ -7476,7 +7619,7 @@
         <v>37950000</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>760</v>
       </c>
@@ -7485,7 +7628,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>761</v>
       </c>
@@ -7494,7 +7637,7 @@
         <v>38050000</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>762</v>
       </c>
@@ -7503,7 +7646,7 @@
         <v>38100000</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>763</v>
       </c>
@@ -7512,7 +7655,7 @@
         <v>38150000</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>764</v>
       </c>
@@ -7521,7 +7664,7 @@
         <v>38200000</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>765</v>
       </c>
@@ -7530,7 +7673,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>766</v>
       </c>
@@ -7539,7 +7682,7 @@
         <v>38300000</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>767</v>
       </c>
@@ -7548,7 +7691,7 @@
         <v>38350000</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>768</v>
       </c>
@@ -7557,7 +7700,7 @@
         <v>38400000</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>769</v>
       </c>
@@ -7566,7 +7709,7 @@
         <v>38450000</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>770</v>
       </c>
@@ -7575,7 +7718,7 @@
         <v>38500000</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>771</v>
       </c>
@@ -7584,7 +7727,7 @@
         <v>38550000</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>772</v>
       </c>
@@ -7593,7 +7736,7 @@
         <v>38600000</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>773</v>
       </c>
@@ -7602,7 +7745,7 @@
         <v>38650000</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>774</v>
       </c>
@@ -7611,7 +7754,7 @@
         <v>38700000</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>775</v>
       </c>
@@ -7620,7 +7763,7 @@
         <v>38750000</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>776</v>
       </c>
@@ -7629,7 +7772,7 @@
         <v>38800000</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>777</v>
       </c>
@@ -7638,7 +7781,7 @@
         <v>38850000</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>778</v>
       </c>
@@ -7647,7 +7790,7 @@
         <v>38900000</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>779</v>
       </c>
@@ -7656,7 +7799,7 @@
         <v>38950000</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>780</v>
       </c>
@@ -7665,7 +7808,7 @@
         <v>39000000</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>781</v>
       </c>
@@ -7674,7 +7817,7 @@
         <v>39050000</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>782</v>
       </c>
@@ -7683,7 +7826,7 @@
         <v>39100000</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>783</v>
       </c>
@@ -7692,7 +7835,7 @@
         <v>39150000</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>784</v>
       </c>
@@ -7701,7 +7844,7 @@
         <v>39200000</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>785</v>
       </c>
@@ -7710,7 +7853,7 @@
         <v>39250000</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>786</v>
       </c>
@@ -7719,7 +7862,7 @@
         <v>39300000</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>787</v>
       </c>
@@ -7728,7 +7871,7 @@
         <v>39350000</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>788</v>
       </c>
@@ -7737,7 +7880,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>789</v>
       </c>
@@ -7746,7 +7889,7 @@
         <v>39450000</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>790</v>
       </c>
@@ -7755,7 +7898,7 @@
         <v>39500000</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>791</v>
       </c>
@@ -7764,7 +7907,7 @@
         <v>39550000</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>792</v>
       </c>
@@ -7773,7 +7916,7 @@
         <v>39600000</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>793</v>
       </c>
@@ -7782,7 +7925,7 @@
         <v>39650000</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>794</v>
       </c>
@@ -7791,7 +7934,7 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>795</v>
       </c>
@@ -7800,7 +7943,7 @@
         <v>39750000</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>796</v>
       </c>
@@ -7809,7 +7952,7 @@
         <v>39800000</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>797</v>
       </c>
@@ -7818,7 +7961,7 @@
         <v>39850000</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>798</v>
       </c>
@@ -7827,7 +7970,7 @@
         <v>39900000</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>799</v>
       </c>
@@ -7836,7 +7979,7 @@
         <v>39950000</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>800</v>
       </c>
@@ -7845,7 +7988,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>801</v>
       </c>
@@ -7854,7 +7997,7 @@
         <v>40050000</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>802</v>
       </c>
@@ -7863,7 +8006,7 @@
         <v>40100000</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>803</v>
       </c>
@@ -7872,7 +8015,7 @@
         <v>40150000</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>804</v>
       </c>
@@ -7881,7 +8024,7 @@
         <v>40200000</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>805</v>
       </c>
@@ -7890,7 +8033,7 @@
         <v>40250000</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>806</v>
       </c>
@@ -7899,7 +8042,7 @@
         <v>40300000</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>807</v>
       </c>
@@ -7908,7 +8051,7 @@
         <v>40350000</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>808</v>
       </c>
@@ -7917,7 +8060,7 @@
         <v>40400000</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>809</v>
       </c>
@@ -7926,7 +8069,7 @@
         <v>40450000</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>810</v>
       </c>
@@ -7935,7 +8078,7 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>811</v>
       </c>
@@ -7944,7 +8087,7 @@
         <v>40550000</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>812</v>
       </c>
@@ -7953,7 +8096,7 @@
         <v>40600000</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>813</v>
       </c>
@@ -7962,7 +8105,7 @@
         <v>40650000</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>814</v>
       </c>
@@ -7971,7 +8114,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>815</v>
       </c>
@@ -7980,7 +8123,7 @@
         <v>40750000</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>816</v>
       </c>
@@ -7989,7 +8132,7 @@
         <v>40800000</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>817</v>
       </c>
@@ -7998,7 +8141,7 @@
         <v>40850000</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>818</v>
       </c>
@@ -8007,7 +8150,7 @@
         <v>40900000</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>819</v>
       </c>
@@ -8016,7 +8159,7 @@
         <v>40950000</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>820</v>
       </c>
@@ -8025,7 +8168,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>821</v>
       </c>
@@ -8034,7 +8177,7 @@
         <v>41050000</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>822</v>
       </c>
@@ -8043,7 +8186,7 @@
         <v>41100000</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>823</v>
       </c>
@@ -8052,7 +8195,7 @@
         <v>41150000</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>824</v>
       </c>
@@ -8061,7 +8204,7 @@
         <v>41200000</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>825</v>
       </c>
@@ -8070,7 +8213,7 @@
         <v>41250000</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>826</v>
       </c>
@@ -8079,7 +8222,7 @@
         <v>41300000</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>827</v>
       </c>
@@ -8088,7 +8231,7 @@
         <v>41350000</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>828</v>
       </c>
@@ -8097,7 +8240,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>829</v>
       </c>
@@ -8106,7 +8249,7 @@
         <v>41450000</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>830</v>
       </c>
@@ -8115,7 +8258,7 @@
         <v>41500000</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>831</v>
       </c>
@@ -8124,7 +8267,7 @@
         <v>41550000</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>832</v>
       </c>
@@ -8133,7 +8276,7 @@
         <v>41600000</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>833</v>
       </c>
@@ -8142,7 +8285,7 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>834</v>
       </c>
@@ -8151,7 +8294,7 @@
         <v>41700000</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>835</v>
       </c>
@@ -8160,7 +8303,7 @@
         <v>41750000</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>836</v>
       </c>
@@ -8169,7 +8312,7 @@
         <v>41800000</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>837</v>
       </c>
@@ -8178,7 +8321,7 @@
         <v>41850000</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>838</v>
       </c>
@@ -8187,7 +8330,7 @@
         <v>41900000</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>839</v>
       </c>
@@ -8196,7 +8339,7 @@
         <v>41950000</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>840</v>
       </c>
@@ -8205,7 +8348,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>841</v>
       </c>
@@ -8214,7 +8357,7 @@
         <v>42050000</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>842</v>
       </c>
@@ -8223,7 +8366,7 @@
         <v>42100000</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>843</v>
       </c>
@@ -8232,7 +8375,7 @@
         <v>42150000</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>844</v>
       </c>
@@ -8241,7 +8384,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>845</v>
       </c>
@@ -8250,7 +8393,7 @@
         <v>42250000</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>846</v>
       </c>
@@ -8259,7 +8402,7 @@
         <v>42300000</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>847</v>
       </c>
@@ -8268,7 +8411,7 @@
         <v>42350000</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>848</v>
       </c>
@@ -8277,7 +8420,7 @@
         <v>42400000</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>849</v>
       </c>
@@ -8286,7 +8429,7 @@
         <v>42450000</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>850</v>
       </c>
@@ -8295,7 +8438,7 @@
         <v>42500000</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>851</v>
       </c>
@@ -8304,7 +8447,7 @@
         <v>42550000</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>852</v>
       </c>
@@ -8313,7 +8456,7 @@
         <v>42600000</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>853</v>
       </c>
@@ -8322,7 +8465,7 @@
         <v>42650000</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>854</v>
       </c>
@@ -8331,7 +8474,7 @@
         <v>42700000</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>855</v>
       </c>
@@ -8340,7 +8483,7 @@
         <v>42750000</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>856</v>
       </c>
@@ -8349,7 +8492,7 @@
         <v>42800000</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>857</v>
       </c>
@@ -8358,7 +8501,7 @@
         <v>42850000</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>858</v>
       </c>
@@ -8367,7 +8510,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>859</v>
       </c>
@@ -8376,7 +8519,7 @@
         <v>42950000</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>860</v>
       </c>
@@ -8385,7 +8528,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>861</v>
       </c>
@@ -8394,7 +8537,7 @@
         <v>43050000</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>862</v>
       </c>
@@ -8403,7 +8546,7 @@
         <v>43100000</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>863</v>
       </c>
@@ -8412,7 +8555,7 @@
         <v>43150000</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>864</v>
       </c>
@@ -8421,7 +8564,7 @@
         <v>43200000</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>865</v>
       </c>
@@ -8430,7 +8573,7 @@
         <v>43250000</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>866</v>
       </c>
@@ -8439,7 +8582,7 @@
         <v>43300000</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>867</v>
       </c>
@@ -8448,7 +8591,7 @@
         <v>43350000</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>868</v>
       </c>
@@ -8457,7 +8600,7 @@
         <v>43400000</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>869</v>
       </c>
@@ -8466,7 +8609,7 @@
         <v>43450000</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>870</v>
       </c>
@@ -8475,7 +8618,7 @@
         <v>43500000</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>871</v>
       </c>
@@ -8484,7 +8627,7 @@
         <v>43550000</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>872</v>
       </c>
@@ -8493,7 +8636,7 @@
         <v>43600000</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>873</v>
       </c>
@@ -8502,7 +8645,7 @@
         <v>43650000</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>874</v>
       </c>
@@ -8511,7 +8654,7 @@
         <v>43700000</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>875</v>
       </c>
@@ -8520,7 +8663,7 @@
         <v>43750000</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>876</v>
       </c>
@@ -8529,7 +8672,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>877</v>
       </c>
@@ -8538,7 +8681,7 @@
         <v>43850000</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>878</v>
       </c>
@@ -8547,7 +8690,7 @@
         <v>43900000</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>879</v>
       </c>
@@ -8556,7 +8699,7 @@
         <v>43950000</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>880</v>
       </c>
@@ -8565,7 +8708,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>881</v>
       </c>
@@ -8574,7 +8717,7 @@
         <v>44050000</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>882</v>
       </c>
@@ -8583,7 +8726,7 @@
         <v>44100000</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>883</v>
       </c>
@@ -8592,7 +8735,7 @@
         <v>44150000</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>884</v>
       </c>
@@ -8601,7 +8744,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>885</v>
       </c>
@@ -8610,7 +8753,7 @@
         <v>44250000</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>886</v>
       </c>
@@ -8619,7 +8762,7 @@
         <v>44300000</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>887</v>
       </c>
@@ -8628,7 +8771,7 @@
         <v>44350000</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>888</v>
       </c>
@@ -8637,7 +8780,7 @@
         <v>44400000</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>889</v>
       </c>
@@ -8646,7 +8789,7 @@
         <v>44450000</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>890</v>
       </c>
@@ -8655,7 +8798,7 @@
         <v>44500000</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>891</v>
       </c>
@@ -8664,7 +8807,7 @@
         <v>44550000</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>892</v>
       </c>
@@ -8673,7 +8816,7 @@
         <v>44600000</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>893</v>
       </c>
@@ -8682,7 +8825,7 @@
         <v>44650000</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>894</v>
       </c>
@@ -8691,7 +8834,7 @@
         <v>44700000</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>895</v>
       </c>
@@ -8700,7 +8843,7 @@
         <v>44750000</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>896</v>
       </c>
@@ -8709,7 +8852,7 @@
         <v>44800000</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>897</v>
       </c>
@@ -8718,7 +8861,7 @@
         <v>44850000</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>898</v>
       </c>
@@ -8727,7 +8870,7 @@
         <v>44900000</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>899</v>
       </c>
@@ -8736,7 +8879,7 @@
         <v>44950000</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>900</v>
       </c>
@@ -8745,7 +8888,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>901</v>
       </c>
@@ -8754,7 +8897,7 @@
         <v>45050000</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>902</v>
       </c>
@@ -8763,7 +8906,7 @@
         <v>45100000</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>903</v>
       </c>
@@ -8772,7 +8915,7 @@
         <v>45150000</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>904</v>
       </c>
@@ -8781,7 +8924,7 @@
         <v>45200000</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>905</v>
       </c>
@@ -8790,7 +8933,7 @@
         <v>45250000</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>906</v>
       </c>
@@ -8799,7 +8942,7 @@
         <v>45300000</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>907</v>
       </c>
@@ -8808,7 +8951,7 @@
         <v>45350000</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>908</v>
       </c>
@@ -8817,7 +8960,7 @@
         <v>45400000</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>909</v>
       </c>
@@ -8826,7 +8969,7 @@
         <v>45450000</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>910</v>
       </c>
@@ -8835,7 +8978,7 @@
         <v>45500000</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>911</v>
       </c>
@@ -8844,7 +8987,7 @@
         <v>45550000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>912</v>
       </c>
@@ -8853,7 +8996,7 @@
         <v>45600000</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>913</v>
       </c>
@@ -8862,7 +9005,7 @@
         <v>45650000</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>914</v>
       </c>
@@ -8871,7 +9014,7 @@
         <v>45700000</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>915</v>
       </c>
@@ -8880,7 +9023,7 @@
         <v>45750000</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>916</v>
       </c>
@@ -8889,7 +9032,7 @@
         <v>45800000</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>917</v>
       </c>
@@ -8898,7 +9041,7 @@
         <v>45850000</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>918</v>
       </c>
@@ -8907,7 +9050,7 @@
         <v>45900000</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>919</v>
       </c>
@@ -8916,7 +9059,7 @@
         <v>45950000</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>920</v>
       </c>
@@ -8925,7 +9068,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>921</v>
       </c>
@@ -8934,7 +9077,7 @@
         <v>46050000</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>922</v>
       </c>
@@ -8943,7 +9086,7 @@
         <v>46100000</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>923</v>
       </c>
@@ -8952,7 +9095,7 @@
         <v>46150000</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>924</v>
       </c>
@@ -8961,7 +9104,7 @@
         <v>46200000</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>925</v>
       </c>
@@ -8970,7 +9113,7 @@
         <v>46250000</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>926</v>
       </c>
@@ -8979,7 +9122,7 @@
         <v>46300000</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>927</v>
       </c>
@@ -8988,7 +9131,7 @@
         <v>46350000</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>928</v>
       </c>
@@ -8997,7 +9140,7 @@
         <v>46400000</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>929</v>
       </c>
@@ -9006,7 +9149,7 @@
         <v>46450000</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>930</v>
       </c>
@@ -9015,7 +9158,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>931</v>
       </c>
@@ -9024,7 +9167,7 @@
         <v>46550000</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>932</v>
       </c>
@@ -9033,7 +9176,7 @@
         <v>46600000</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>933</v>
       </c>
@@ -9042,7 +9185,7 @@
         <v>46650000</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>934</v>
       </c>
@@ -9051,7 +9194,7 @@
         <v>46700000</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>935</v>
       </c>
@@ -9060,7 +9203,7 @@
         <v>46750000</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>936</v>
       </c>
@@ -9069,7 +9212,7 @@
         <v>46800000</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>937</v>
       </c>
@@ -9078,7 +9221,7 @@
         <v>46850000</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>938</v>
       </c>
@@ -9087,7 +9230,7 @@
         <v>46900000</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>939</v>
       </c>
@@ -9096,7 +9239,7 @@
         <v>46950000</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>940</v>
       </c>
@@ -9105,7 +9248,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>941</v>
       </c>
@@ -9114,7 +9257,7 @@
         <v>47050000</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>942</v>
       </c>
@@ -9123,7 +9266,7 @@
         <v>47100000</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>943</v>
       </c>
@@ -9132,7 +9275,7 @@
         <v>47150000</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>944</v>
       </c>
@@ -9141,7 +9284,7 @@
         <v>47200000</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>945</v>
       </c>
@@ -9150,7 +9293,7 @@
         <v>47250000</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>946</v>
       </c>
@@ -9159,7 +9302,7 @@
         <v>47300000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>947</v>
       </c>
@@ -9168,7 +9311,7 @@
         <v>47350000</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>948</v>
       </c>
@@ -9177,7 +9320,7 @@
         <v>47400000</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>949</v>
       </c>
@@ -9186,7 +9329,7 @@
         <v>47450000</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>950</v>
       </c>
@@ -9195,7 +9338,7 @@
         <v>47500000</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>951</v>
       </c>
@@ -9204,7 +9347,7 @@
         <v>47550000</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>952</v>
       </c>
@@ -9213,7 +9356,7 @@
         <v>47600000</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>953</v>
       </c>
@@ -9222,7 +9365,7 @@
         <v>47650000</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>954</v>
       </c>
@@ -9231,7 +9374,7 @@
         <v>47700000</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>955</v>
       </c>
@@ -9240,7 +9383,7 @@
         <v>47750000</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>956</v>
       </c>
@@ -9249,7 +9392,7 @@
         <v>47800000</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>957</v>
       </c>
@@ -9258,7 +9401,7 @@
         <v>47850000</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>958</v>
       </c>
@@ -9267,7 +9410,7 @@
         <v>47900000</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>959</v>
       </c>
@@ -9276,7 +9419,7 @@
         <v>47950000</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>960</v>
       </c>
@@ -9285,7 +9428,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>961</v>
       </c>
@@ -9294,7 +9437,7 @@
         <v>48050000</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>962</v>
       </c>
@@ -9303,7 +9446,7 @@
         <v>48100000</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>963</v>
       </c>
@@ -9312,7 +9455,7 @@
         <v>48150000</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>964</v>
       </c>
@@ -9321,7 +9464,7 @@
         <v>48200000</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>965</v>
       </c>
@@ -9330,7 +9473,7 @@
         <v>48250000</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>966</v>
       </c>
@@ -9339,7 +9482,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>967</v>
       </c>
@@ -9348,7 +9491,7 @@
         <v>48350000</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>968</v>
       </c>
@@ -9357,7 +9500,7 @@
         <v>48400000</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>969</v>
       </c>
@@ -9366,7 +9509,7 @@
         <v>48450000</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>970</v>
       </c>
@@ -9375,7 +9518,7 @@
         <v>48500000</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>971</v>
       </c>
@@ -9384,7 +9527,7 @@
         <v>48550000</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>972</v>
       </c>
@@ -9393,7 +9536,7 @@
         <v>48600000</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>973</v>
       </c>
@@ -9402,7 +9545,7 @@
         <v>48650000</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>974</v>
       </c>
@@ -9411,7 +9554,7 @@
         <v>48700000</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>975</v>
       </c>
@@ -9420,7 +9563,7 @@
         <v>48750000</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>976</v>
       </c>
@@ -9429,7 +9572,7 @@
         <v>48800000</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>977</v>
       </c>
@@ -9438,7 +9581,7 @@
         <v>48850000</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>978</v>
       </c>
@@ -9447,7 +9590,7 @@
         <v>48900000</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>979</v>
       </c>
@@ -9456,7 +9599,7 @@
         <v>48950000</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>980</v>
       </c>
@@ -9465,7 +9608,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>981</v>
       </c>
@@ -9474,7 +9617,7 @@
         <v>49050000</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>982</v>
       </c>
@@ -9483,7 +9626,7 @@
         <v>49100000</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>983</v>
       </c>
@@ -9492,7 +9635,7 @@
         <v>49150000</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>984</v>
       </c>
@@ -9501,7 +9644,7 @@
         <v>49200000</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>985</v>
       </c>
@@ -9510,7 +9653,7 @@
         <v>49250000</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>986</v>
       </c>
@@ -9519,7 +9662,7 @@
         <v>49300000</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>987</v>
       </c>
@@ -9528,7 +9671,7 @@
         <v>49350000</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>988</v>
       </c>
@@ -9537,7 +9680,7 @@
         <v>49400000</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>989</v>
       </c>
@@ -9546,7 +9689,7 @@
         <v>49450000</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>990</v>
       </c>
@@ -9555,7 +9698,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>991</v>
       </c>
@@ -9564,7 +9707,7 @@
         <v>49550000</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>992</v>
       </c>
@@ -9573,7 +9716,7 @@
         <v>49600000</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>993</v>
       </c>
@@ -9582,7 +9725,7 @@
         <v>49650000</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>994</v>
       </c>
@@ -9591,7 +9734,7 @@
         <v>49700000</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>995</v>
       </c>
@@ -9600,7 +9743,7 @@
         <v>49750000</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>996</v>
       </c>
@@ -9609,7 +9752,7 @@
         <v>49800000</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>997</v>
       </c>
@@ -9618,7 +9761,7 @@
         <v>49850000</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>998</v>
       </c>
@@ -9627,7 +9770,7 @@
         <v>49900000</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>999</v>
       </c>
@@ -9636,7 +9779,7 @@
         <v>49950000</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>1000</v>
       </c>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A96DCA53-1749-4C18-9C35-E67C8AA6F644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256EFC6E-53F9-40CD-894D-461D7088FFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4125" yWindow="3795" windowWidth="31020" windowHeight="15285" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="9120" yWindow="1896" windowWidth="13020" windowHeight="6996" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -525,22 +525,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
-    <col min="2" max="2" width="11.625" customWidth="1"/>
-    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="12.09765625" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.625" customWidth="1"/>
-    <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="6" max="6" width="32.59765625" customWidth="1"/>
+    <col min="7" max="7" width="25.59765625" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>30000</v>
+        <v>60000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -653,7 +653,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -717,7 +717,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -779,12 +779,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="97.25" customWidth="1"/>
+    <col min="3" max="3" width="97.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>25025000000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>2</v>
       </c>
@@ -806,7 +806,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>3</v>
       </c>
@@ -815,7 +815,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>4</v>
       </c>
@@ -824,7 +824,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>5</v>
       </c>
@@ -833,7 +833,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>6</v>
       </c>
@@ -842,7 +842,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>7</v>
       </c>
@@ -851,7 +851,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>8</v>
       </c>
@@ -860,7 +860,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>9</v>
       </c>
@@ -869,7 +869,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>10</v>
       </c>
@@ -878,7 +878,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>11</v>
       </c>
@@ -887,7 +887,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>12</v>
       </c>
@@ -896,7 +896,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>13</v>
       </c>
@@ -905,7 +905,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>14</v>
       </c>
@@ -914,7 +914,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>15</v>
       </c>
@@ -923,7 +923,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>16</v>
       </c>
@@ -932,7 +932,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>17</v>
       </c>
@@ -941,7 +941,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>18</v>
       </c>
@@ -950,7 +950,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>19</v>
       </c>
@@ -959,7 +959,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>20</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>21</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>22</v>
       </c>
@@ -986,7 +986,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>23</v>
       </c>
@@ -995,7 +995,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>3050000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>73</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>91</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>92</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>93</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>94</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>95</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>96</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>97</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>98</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>4900000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>99</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>100</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>101</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>102</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>103</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>104</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>105</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>106</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>107</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>108</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>109</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>110</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>111</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>5550000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>112</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>113</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>114</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>115</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>116</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>117</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>118</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>5900000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>119</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>120</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>121</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>122</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>123</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>124</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>125</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>126</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>127</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>128</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>129</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>130</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>131</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>132</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>133</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>6650000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>134</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>135</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>136</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>137</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>138</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>139</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>140</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>141</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>142</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>143</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>7150000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>144</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>145</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>146</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>147</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>7350000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>148</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>149</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>7450000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>150</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>151</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>7550000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>152</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>7600000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>153</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>154</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>155</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>156</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>157</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>7850000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>158</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>159</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>7950000</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>160</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>161</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>162</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>163</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>8150000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>164</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>165</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>166</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>8300000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>167</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>168</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>169</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>8450000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>170</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>171</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>172</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>8600000</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>173</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>174</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>175</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>176</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>177</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>8850000</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>178</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>179</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>180</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>181</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>9050000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>182</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>9100000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>183</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>184</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>185</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>186</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>9300000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>187</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>188</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>189</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>190</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>191</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>192</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>193</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>9650000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>194</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>9700000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>195</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>196</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>197</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>9850000</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>198</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>199</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>200</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>201</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>10050000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202">
         <v>202</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203">
         <v>203</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>10150000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204">
         <v>204</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205">
         <v>205</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>10250000</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206">
         <v>206</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207">
         <v>207</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>10350000</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208">
         <v>208</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>10400000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209">
         <v>209</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210">
         <v>210</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211">
         <v>211</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>10550000</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212">
         <v>212</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>10600000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213">
         <v>213</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>10650000</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214">
         <v>214</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>10700000</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215">
         <v>215</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>10750000</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216">
         <v>216</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217">
         <v>217</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>10850000</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218">
         <v>218</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>10900000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219">
         <v>219</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>10950000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220">
         <v>220</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A221">
         <v>221</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>11050000</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A222">
         <v>222</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A223">
         <v>223</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>11150000</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A224">
         <v>224</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A225">
         <v>225</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A226">
         <v>226</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A227">
         <v>227</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>11350000</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A228">
         <v>228</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A229">
         <v>229</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A230">
         <v>230</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A231">
         <v>231</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>11550000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A232">
         <v>232</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>11600000</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A233">
         <v>233</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A234">
         <v>234</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>11700000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A235">
         <v>235</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>11750000</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A236">
         <v>236</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A237">
         <v>237</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A238">
         <v>238</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>11900000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A239">
         <v>239</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>11950000</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A240">
         <v>240</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241">
         <v>241</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>12050000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A242">
         <v>242</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>12100000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A243">
         <v>243</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>12150000</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A244">
         <v>244</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>12200000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A245">
         <v>245</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>12250000</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A246">
         <v>246</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247">
         <v>247</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>12350000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A248">
         <v>248</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>12400000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A249">
         <v>249</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A250">
         <v>250</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>12500000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A251">
         <v>251</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>12550000</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A252">
         <v>252</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>12600000</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A253">
         <v>253</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>12650000</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254">
         <v>254</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A255">
         <v>255</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>12750000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A256">
         <v>256</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A257">
         <v>257</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>12850000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258">
         <v>258</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>12900000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259">
         <v>259</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>12950000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260">
         <v>260</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261">
         <v>261</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262">
         <v>262</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>13100000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263">
         <v>263</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>13150000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264">
         <v>264</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>13200000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265">
         <v>265</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>13250000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266">
         <v>266</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267">
         <v>267</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>13350000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268">
         <v>268</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>13400000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269">
         <v>269</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270">
         <v>270</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A271">
         <v>271</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A272">
         <v>272</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273">
         <v>273</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>13650000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274">
         <v>274</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>13700000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275">
         <v>275</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>13750000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276">
         <v>276</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>13800000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277">
         <v>277</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>13850000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278">
         <v>278</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279">
         <v>279</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280">
         <v>280</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281">
         <v>281</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>14050000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282">
         <v>282</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>14100000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A283">
         <v>283</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>14150000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A284">
         <v>284</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>14200000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A285">
         <v>285</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>14250000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286">
         <v>286</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>14300000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A287">
         <v>287</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>14350000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A288">
         <v>288</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A289">
         <v>289</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>14450000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A290">
         <v>290</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A291">
         <v>291</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A292">
         <v>292</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>14600000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A293">
         <v>293</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A294">
         <v>294</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>14700000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295">
         <v>295</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>14750000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A296">
         <v>296</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>14800000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A297">
         <v>297</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>14850000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298">
         <v>298</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A299">
         <v>299</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A300">
         <v>300</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A301">
         <v>301</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A302">
         <v>302</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>15100000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A303">
         <v>303</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>15150000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A304">
         <v>304</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>15200000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A305">
         <v>305</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>15250000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A306">
         <v>306</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>15300000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A307">
         <v>307</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>15350000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A308">
         <v>308</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>15400000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A309">
         <v>309</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>15450000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A310">
         <v>310</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A311">
         <v>311</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A312">
         <v>312</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>15600000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A313">
         <v>313</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>15650000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A314">
         <v>314</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>15700000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A315">
         <v>315</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A316">
         <v>316</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A317">
         <v>317</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>15850000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A318">
         <v>318</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>15900000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A319">
         <v>319</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A320">
         <v>320</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A321">
         <v>321</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A322">
         <v>322</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A323">
         <v>323</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>16150000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A324">
         <v>324</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>325</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>326</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>16300000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>327</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>16350000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>328</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A329">
         <v>329</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>16450000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A330">
         <v>330</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A331">
         <v>331</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A332">
         <v>332</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>16600000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A333">
         <v>333</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>16650000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A334">
         <v>334</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>16700000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A335">
         <v>335</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>16750000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A336">
         <v>336</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A337">
         <v>337</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>16850000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A338">
         <v>338</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A339">
         <v>339</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A340">
         <v>340</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A341">
         <v>341</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A342">
         <v>342</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A343">
         <v>343</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A344">
         <v>344</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>17200000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A345">
         <v>345</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>17250000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A346">
         <v>346</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A347">
         <v>347</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>17350000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A348">
         <v>348</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A349">
         <v>349</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A350">
         <v>350</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A351">
         <v>351</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A352">
         <v>352</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>17600000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A353">
         <v>353</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A354">
         <v>354</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>17700000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A355">
         <v>355</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A356">
         <v>356</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A357">
         <v>357</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>17850000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A358">
         <v>358</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A359">
         <v>359</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>17950000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A360">
         <v>360</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A361">
         <v>361</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>18050000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A362">
         <v>362</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>18100000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A363">
         <v>363</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>18150000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A364">
         <v>364</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A365">
         <v>365</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A366">
         <v>366</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A367">
         <v>367</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>18350000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A368">
         <v>368</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A369">
         <v>369</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A370">
         <v>370</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A371">
         <v>371</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>18550000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A372">
         <v>372</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A373">
         <v>373</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>18650000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A374">
         <v>374</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A375">
         <v>375</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A376">
         <v>376</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A377">
         <v>377</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>18850000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A378">
         <v>378</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>18900000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A379">
         <v>379</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>18950000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A380">
         <v>380</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A381">
         <v>381</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>19050000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A382">
         <v>382</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A383">
         <v>383</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A384">
         <v>384</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>19200000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A385">
         <v>385</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A386">
         <v>386</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>19300000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A387">
         <v>387</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>19350000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A388">
         <v>388</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A389">
         <v>389</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>19450000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A390">
         <v>390</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A391">
         <v>391</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>19550000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A392">
         <v>392</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A393">
         <v>393</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A394">
         <v>394</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>19700000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A395">
         <v>395</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>19750000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A396">
         <v>396</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A397">
         <v>397</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>19850000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A398">
         <v>398</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>19900000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A399">
         <v>399</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>19950000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A400">
         <v>400</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A401">
         <v>401</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>20050000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A402">
         <v>402</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A403">
         <v>403</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>20150000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A404">
         <v>404</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A405">
         <v>405</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>20250000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A406">
         <v>406</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>20300000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A407">
         <v>407</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>20350000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A408">
         <v>408</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A409">
         <v>409</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>20450000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A410">
         <v>410</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A411">
         <v>411</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>20550000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A412">
         <v>412</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A413">
         <v>413</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A414">
         <v>414</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>20700000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A415">
         <v>415</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>20750000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A416">
         <v>416</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A417">
         <v>417</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>20850000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A418">
         <v>418</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A419">
         <v>419</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>20950000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A420">
         <v>420</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A421">
         <v>421</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>21050000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A422">
         <v>422</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>21100000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A423">
         <v>423</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>21150000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A424">
         <v>424</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>21200000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A425">
         <v>425</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>21250000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A426">
         <v>426</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A427">
         <v>427</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>21350000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A428">
         <v>428</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>21400000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A429">
         <v>429</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A430">
         <v>430</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A431">
         <v>431</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>21550000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A432">
         <v>432</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A433">
         <v>433</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>21650000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A434">
         <v>434</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>21700000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A435">
         <v>435</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A436">
         <v>436</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>21800000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A437">
         <v>437</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>21850000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A438">
         <v>438</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>21900000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A439">
         <v>439</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>21950000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A440">
         <v>440</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A441">
         <v>441</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>22050000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A442">
         <v>442</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A443">
         <v>443</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>22150000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A444">
         <v>444</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>22200000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A445">
         <v>445</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>22250000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A446">
         <v>446</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>22300000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A447">
         <v>447</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A448">
         <v>448</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A449">
         <v>449</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A450">
         <v>450</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A451">
         <v>451</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A452">
         <v>452</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A453">
         <v>453</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>22650000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A454">
         <v>454</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A455">
         <v>455</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>22750000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A456">
         <v>456</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>22800000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A457">
         <v>457</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A458">
         <v>458</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A459">
         <v>459</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>22950000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A460">
         <v>460</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A461">
         <v>461</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A462">
         <v>462</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>23100000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A463">
         <v>463</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A464">
         <v>464</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>23200000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A465">
         <v>465</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>23250000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A466">
         <v>466</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A467">
         <v>467</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>23350000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A468">
         <v>468</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A469">
         <v>469</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A470">
         <v>470</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>23500000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A471">
         <v>471</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>23550000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A472">
         <v>472</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>23600000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A473">
         <v>473</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>23650000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A474">
         <v>474</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>23700000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A475">
         <v>475</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>23750000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A476">
         <v>476</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>23800000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A477">
         <v>477</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>23850000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A478">
         <v>478</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>23900000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A479">
         <v>479</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A480">
         <v>480</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A481">
         <v>481</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>24050000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A482">
         <v>482</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A483">
         <v>483</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>24150000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A484">
         <v>484</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A485">
         <v>485</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A486">
         <v>486</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A487">
         <v>487</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>24350000</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A488">
         <v>488</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>24400000</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A489">
         <v>489</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A490">
         <v>490</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>24500000</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A491">
         <v>491</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>24550000</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A492">
         <v>492</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>24600000</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A493">
         <v>493</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>24650000</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A494">
         <v>494</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A495">
         <v>495</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>24750000</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A496">
         <v>496</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>24800000</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A497">
         <v>497</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>24850000</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A498">
         <v>498</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A499">
         <v>499</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>24950000</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A500">
         <v>500</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A501">
         <v>501</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A502">
         <v>502</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>25100000</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A503">
         <v>503</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>25150000</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A504">
         <v>504</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A505">
         <v>505</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>25250000</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A506">
         <v>506</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A507">
         <v>507</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>25350000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A508">
         <v>508</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>25400000</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A509">
         <v>509</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>25450000</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A510">
         <v>510</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A511">
         <v>511</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A512">
         <v>512</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>25600000</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A513">
         <v>513</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A514">
         <v>514</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>25700000</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A515">
         <v>515</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>25750000</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A516">
         <v>516</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>25800000</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A517">
         <v>517</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>25850000</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A518">
         <v>518</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A519">
         <v>519</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>25950000</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A520">
         <v>520</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A521">
         <v>521</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>26050000</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A522">
         <v>522</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>26100000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A523">
         <v>523</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>26150000</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A524">
         <v>524</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A525">
         <v>525</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A526">
         <v>526</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A527">
         <v>527</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>26350000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A528">
         <v>528</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A529">
         <v>529</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>26450000</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A530">
         <v>530</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>26500000</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A531">
         <v>531</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>26550000</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A532">
         <v>532</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>26600000</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A533">
         <v>533</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>26650000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A534">
         <v>534</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>26700000</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A535">
         <v>535</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>26750000</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A536">
         <v>536</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>26800000</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A537">
         <v>537</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>26850000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A538">
         <v>538</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>26900000</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A539">
         <v>539</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>26950000</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A540">
         <v>540</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A541">
         <v>541</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>27050000</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A542">
         <v>542</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A543">
         <v>543</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>27150000</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A544">
         <v>544</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>27200000</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A545">
         <v>545</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>27250000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A546">
         <v>546</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>27300000</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A547">
         <v>547</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>27350000</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A548">
         <v>548</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>27400000</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A549">
         <v>549</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>27450000</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A550">
         <v>550</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>27500000</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A551">
         <v>551</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>27550000</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A552">
         <v>552</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A553">
         <v>553</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>27650000</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A554">
         <v>554</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>27700000</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A555">
         <v>555</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>27750000</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A556">
         <v>556</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A557">
         <v>557</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>27850000</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A558">
         <v>558</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>27900000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A559">
         <v>559</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>27950000</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A560">
         <v>560</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A561">
         <v>561</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>28050000</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A562">
         <v>562</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>28100000</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A563">
         <v>563</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>28150000</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A564">
         <v>564</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>28200000</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A565">
         <v>565</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>28250000</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A566">
         <v>566</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A567">
         <v>567</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>28350000</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A568">
         <v>568</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A569">
         <v>569</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A570">
         <v>570</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>28500000</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A571">
         <v>571</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>28550000</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A572">
         <v>572</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>28600000</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A573">
         <v>573</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>28650000</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A574">
         <v>574</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>28700000</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A575">
         <v>575</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>28750000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A576">
         <v>576</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A577">
         <v>577</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>28850000</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A578">
         <v>578</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>28900000</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A579">
         <v>579</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>28950000</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A580">
         <v>580</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A581">
         <v>581</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>29050000</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A582">
         <v>582</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A583">
         <v>583</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>29150000</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A584">
         <v>584</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>29200000</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A585">
         <v>585</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>29250000</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A586">
         <v>586</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>29300000</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A587">
         <v>587</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>29350000</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A588">
         <v>588</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>29400000</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A589">
         <v>589</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>29450000</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A590">
         <v>590</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A591">
         <v>591</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>29550000</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A592">
         <v>592</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>29600000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A593">
         <v>593</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>29650000</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A594">
         <v>594</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>29700000</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A595">
         <v>595</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>29750000</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A596">
         <v>596</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A597">
         <v>597</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>29850000</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A598">
         <v>598</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>29900000</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A599">
         <v>599</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>29950000</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A600">
         <v>600</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A601">
         <v>601</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>30050000</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A602">
         <v>602</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>30100000</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A603">
         <v>603</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>30150000</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A604">
         <v>604</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>30200000</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A605">
         <v>605</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A606">
         <v>606</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>30300000</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A607">
         <v>607</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>30350000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A608">
         <v>608</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A609">
         <v>609</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>30450000</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A610">
         <v>610</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>30500000</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A611">
         <v>611</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>30550000</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A612">
         <v>612</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A613">
         <v>613</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>30650000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A614">
         <v>614</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>30700000</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A615">
         <v>615</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>30750000</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A616">
         <v>616</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>30800000</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A617">
         <v>617</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>30850000</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A618">
         <v>618</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>30900000</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A619">
         <v>619</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>30950000</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A620">
         <v>620</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>31000000</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A621">
         <v>621</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>31050000</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A622">
         <v>622</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>31100000</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A623">
         <v>623</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A624">
         <v>624</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>31200000</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A625">
         <v>625</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>31250000</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A626">
         <v>626</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>31300000</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A627">
         <v>627</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>31350000</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A628">
         <v>628</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>31400000</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A629">
         <v>629</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>31450000</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A630">
         <v>630</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>31500000</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A631">
         <v>631</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>31550000</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A632">
         <v>632</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>31600000</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A633">
         <v>633</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>31650000</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A634">
         <v>634</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>31700000</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A635">
         <v>635</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>31750000</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A636">
         <v>636</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>31800000</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A637">
         <v>637</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>31850000</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A638">
         <v>638</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>31900000</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A639">
         <v>639</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>31950000</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A640">
         <v>640</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A641">
         <v>641</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>32050000</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A642">
         <v>642</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>32100000</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A643">
         <v>643</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A644">
         <v>644</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>32200000</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A645">
         <v>645</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>32250000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A646">
         <v>646</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>32300000</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A647">
         <v>647</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>32350000</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A648">
         <v>648</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>32400000</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A649">
         <v>649</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>32450000</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A650">
         <v>650</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>32500000</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A651">
         <v>651</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>32550000</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A652">
         <v>652</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>32600000</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A653">
         <v>653</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>32650000</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A654">
         <v>654</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>32700000</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A655">
         <v>655</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>32750000</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A656">
         <v>656</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>32800000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A657">
         <v>657</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A658">
         <v>658</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>32900000</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A659">
         <v>659</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>32950000</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A660">
         <v>660</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>33000000</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A661">
         <v>661</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A662">
         <v>662</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>33100000</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A663">
         <v>663</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>33150000</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A664">
         <v>664</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A665">
         <v>665</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A666">
         <v>666</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>33300000</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A667">
         <v>667</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>33350000</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A668">
         <v>668</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>33400000</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A669">
         <v>669</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>33450000</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A670">
         <v>670</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>33500000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A671">
         <v>671</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>33550000</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A672">
         <v>672</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>33600000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A673">
         <v>673</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>33650000</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A674">
         <v>674</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>33700000</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A675">
         <v>675</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A676">
         <v>676</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>33800000</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A677">
         <v>677</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>33850000</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A678">
         <v>678</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>33900000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A679">
         <v>679</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>33950000</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A680">
         <v>680</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A681">
         <v>681</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>34050000</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A682">
         <v>682</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A683">
         <v>683</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>34150000</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A684">
         <v>684</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A685">
         <v>685</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>34250000</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A686">
         <v>686</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>34300000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A687">
         <v>687</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>34350000</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A688">
         <v>688</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>34400000</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A689">
         <v>689</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>34450000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A690">
         <v>690</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>34500000</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A691">
         <v>691</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>34550000</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A692">
         <v>692</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>34600000</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A693">
         <v>693</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>34650000</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A694">
         <v>694</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>34700000</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A695">
         <v>695</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>34750000</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A696">
         <v>696</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>34800000</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A697">
         <v>697</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A698">
         <v>698</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>34900000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A699">
         <v>699</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>34950000</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A700">
         <v>700</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A701">
         <v>701</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A702">
         <v>702</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>35100000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A703">
         <v>703</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>35150000</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A704">
         <v>704</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>35200000</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A705">
         <v>705</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A706">
         <v>706</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>35300000</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A707">
         <v>707</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>35350000</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A708">
         <v>708</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>35400000</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A709">
         <v>709</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A710">
         <v>710</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>35500000</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A711">
         <v>711</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>35550000</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A712">
         <v>712</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>35600000</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A713">
         <v>713</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>35650000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A714">
         <v>714</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>35700000</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A715">
         <v>715</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>35750000</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A716">
         <v>716</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>35800000</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A717">
         <v>717</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>35850000</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A718">
         <v>718</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>35900000</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A719">
         <v>719</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>35950000</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A720">
         <v>720</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A721">
         <v>721</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>36050000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A722">
         <v>722</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>36100000</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A723">
         <v>723</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>36150000</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A724">
         <v>724</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A725">
         <v>725</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>36250000</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A726">
         <v>726</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>36300000</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A727">
         <v>727</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A728">
         <v>728</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>36400000</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A729">
         <v>729</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>36450000</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A730">
         <v>730</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A731">
         <v>731</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>36550000</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A732">
         <v>732</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A733">
         <v>733</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A734">
         <v>734</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>36700000</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A735">
         <v>735</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>36750000</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A736">
         <v>736</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>36800000</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A737">
         <v>737</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>36850000</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A738">
         <v>738</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>36900000</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A739">
         <v>739</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>36950000</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A740">
         <v>740</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A741">
         <v>741</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>37050000</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A742">
         <v>742</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>37100000</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A743">
         <v>743</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>37150000</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A744">
         <v>744</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>37200000</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A745">
         <v>745</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>37250000</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A746">
         <v>746</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>37300000</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A747">
         <v>747</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>37350000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A748">
         <v>748</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>37400000</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A749">
         <v>749</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>37450000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A750">
         <v>750</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A751">
         <v>751</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>37550000</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A752">
         <v>752</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>37600000</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A753">
         <v>753</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>37650000</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A754">
         <v>754</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>37700000</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A755">
         <v>755</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>37750000</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A756">
         <v>756</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>37800000</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A757">
         <v>757</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>37850000</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A758">
         <v>758</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>37900000</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A759">
         <v>759</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>37950000</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A760">
         <v>760</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A761">
         <v>761</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>38050000</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A762">
         <v>762</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>38100000</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A763">
         <v>763</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>38150000</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A764">
         <v>764</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>38200000</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A765">
         <v>765</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A766">
         <v>766</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>38300000</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A767">
         <v>767</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>38350000</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A768">
         <v>768</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>38400000</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A769">
         <v>769</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>38450000</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A770">
         <v>770</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>38500000</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A771">
         <v>771</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>38550000</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A772">
         <v>772</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>38600000</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A773">
         <v>773</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>38650000</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A774">
         <v>774</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>38700000</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A775">
         <v>775</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>38750000</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A776">
         <v>776</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>38800000</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A777">
         <v>777</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>38850000</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A778">
         <v>778</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>38900000</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A779">
         <v>779</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>38950000</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A780">
         <v>780</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>39000000</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A781">
         <v>781</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>39050000</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A782">
         <v>782</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>39100000</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A783">
         <v>783</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>39150000</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A784">
         <v>784</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>39200000</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A785">
         <v>785</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>39250000</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A786">
         <v>786</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>39300000</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A787">
         <v>787</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>39350000</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A788">
         <v>788</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A789">
         <v>789</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>39450000</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A790">
         <v>790</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>39500000</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A791">
         <v>791</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>39550000</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A792">
         <v>792</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>39600000</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A793">
         <v>793</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>39650000</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A794">
         <v>794</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A795">
         <v>795</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>39750000</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A796">
         <v>796</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>39800000</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A797">
         <v>797</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>39850000</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A798">
         <v>798</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>39900000</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A799">
         <v>799</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>39950000</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A800">
         <v>800</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A801">
         <v>801</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>40050000</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A802">
         <v>802</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>40100000</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A803">
         <v>803</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>40150000</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A804">
         <v>804</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>40200000</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A805">
         <v>805</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>40250000</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A806">
         <v>806</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>40300000</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A807">
         <v>807</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>40350000</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A808">
         <v>808</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>40400000</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A809">
         <v>809</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>40450000</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A810">
         <v>810</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A811">
         <v>811</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>40550000</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A812">
         <v>812</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>40600000</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A813">
         <v>813</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>40650000</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A814">
         <v>814</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A815">
         <v>815</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>40750000</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A816">
         <v>816</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>40800000</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A817">
         <v>817</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>40850000</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A818">
         <v>818</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>40900000</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A819">
         <v>819</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>40950000</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A820">
         <v>820</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A821">
         <v>821</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>41050000</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A822">
         <v>822</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>41100000</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A823">
         <v>823</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>41150000</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A824">
         <v>824</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>41200000</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A825">
         <v>825</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>41250000</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A826">
         <v>826</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>41300000</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A827">
         <v>827</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>41350000</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A828">
         <v>828</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A829">
         <v>829</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>41450000</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A830">
         <v>830</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>41500000</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A831">
         <v>831</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>41550000</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A832">
         <v>832</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>41600000</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A833">
         <v>833</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A834">
         <v>834</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>41700000</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A835">
         <v>835</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>41750000</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A836">
         <v>836</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>41800000</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A837">
         <v>837</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>41850000</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A838">
         <v>838</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>41900000</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A839">
         <v>839</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>41950000</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A840">
         <v>840</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A841">
         <v>841</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>42050000</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A842">
         <v>842</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>42100000</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A843">
         <v>843</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>42150000</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A844">
         <v>844</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A845">
         <v>845</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>42250000</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A846">
         <v>846</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>42300000</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A847">
         <v>847</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>42350000</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A848">
         <v>848</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>42400000</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A849">
         <v>849</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>42450000</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A850">
         <v>850</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>42500000</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A851">
         <v>851</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>42550000</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A852">
         <v>852</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>42600000</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A853">
         <v>853</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>42650000</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A854">
         <v>854</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>42700000</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A855">
         <v>855</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>42750000</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A856">
         <v>856</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>42800000</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A857">
         <v>857</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>42850000</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A858">
         <v>858</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A859">
         <v>859</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>42950000</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A860">
         <v>860</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A861">
         <v>861</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>43050000</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A862">
         <v>862</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>43100000</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A863">
         <v>863</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>43150000</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A864">
         <v>864</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>43200000</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A865">
         <v>865</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>43250000</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A866">
         <v>866</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>43300000</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A867">
         <v>867</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>43350000</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A868">
         <v>868</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>43400000</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A869">
         <v>869</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>43450000</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A870">
         <v>870</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>43500000</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A871">
         <v>871</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>43550000</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A872">
         <v>872</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>43600000</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A873">
         <v>873</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>43650000</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A874">
         <v>874</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>43700000</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A875">
         <v>875</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>43750000</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A876">
         <v>876</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A877">
         <v>877</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>43850000</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A878">
         <v>878</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>43900000</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A879">
         <v>879</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>43950000</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A880">
         <v>880</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A881">
         <v>881</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>44050000</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A882">
         <v>882</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>44100000</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A883">
         <v>883</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>44150000</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A884">
         <v>884</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A885">
         <v>885</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>44250000</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A886">
         <v>886</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>44300000</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A887">
         <v>887</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>44350000</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A888">
         <v>888</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>44400000</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A889">
         <v>889</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>44450000</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A890">
         <v>890</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>44500000</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A891">
         <v>891</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>44550000</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A892">
         <v>892</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>44600000</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A893">
         <v>893</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>44650000</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A894">
         <v>894</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>44700000</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A895">
         <v>895</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>44750000</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A896">
         <v>896</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>44800000</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A897">
         <v>897</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>44850000</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A898">
         <v>898</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>44900000</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A899">
         <v>899</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>44950000</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A900">
         <v>900</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A901">
         <v>901</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>45050000</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A902">
         <v>902</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>45100000</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A903">
         <v>903</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>45150000</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A904">
         <v>904</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>45200000</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A905">
         <v>905</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>45250000</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A906">
         <v>906</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>45300000</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A907">
         <v>907</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>45350000</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A908">
         <v>908</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>45400000</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A909">
         <v>909</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>45450000</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A910">
         <v>910</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>45500000</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A911">
         <v>911</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>45550000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A912">
         <v>912</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>45600000</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A913">
         <v>913</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>45650000</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A914">
         <v>914</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>45700000</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A915">
         <v>915</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>45750000</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A916">
         <v>916</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>45800000</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A917">
         <v>917</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>45850000</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A918">
         <v>918</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>45900000</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A919">
         <v>919</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>45950000</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A920">
         <v>920</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A921">
         <v>921</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>46050000</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A922">
         <v>922</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>46100000</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A923">
         <v>923</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>46150000</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A924">
         <v>924</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>46200000</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A925">
         <v>925</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>46250000</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A926">
         <v>926</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>46300000</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A927">
         <v>927</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>46350000</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A928">
         <v>928</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>46400000</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A929">
         <v>929</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>46450000</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A930">
         <v>930</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A931">
         <v>931</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>46550000</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A932">
         <v>932</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>46600000</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A933">
         <v>933</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>46650000</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A934">
         <v>934</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>46700000</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A935">
         <v>935</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>46750000</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A936">
         <v>936</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>46800000</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A937">
         <v>937</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>46850000</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A938">
         <v>938</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>46900000</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A939">
         <v>939</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>46950000</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A940">
         <v>940</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A941">
         <v>941</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>47050000</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A942">
         <v>942</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>47100000</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A943">
         <v>943</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>47150000</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A944">
         <v>944</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>47200000</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A945">
         <v>945</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>47250000</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A946">
         <v>946</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>47300000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A947">
         <v>947</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>47350000</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A948">
         <v>948</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>47400000</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A949">
         <v>949</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>47450000</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A950">
         <v>950</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>47500000</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A951">
         <v>951</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>47550000</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A952">
         <v>952</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>47600000</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A953">
         <v>953</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>47650000</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A954">
         <v>954</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>47700000</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A955">
         <v>955</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>47750000</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A956">
         <v>956</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>47800000</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A957">
         <v>957</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>47850000</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A958">
         <v>958</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>47900000</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A959">
         <v>959</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>47950000</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A960">
         <v>960</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A961">
         <v>961</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>48050000</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A962">
         <v>962</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>48100000</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A963">
         <v>963</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>48150000</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A964">
         <v>964</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>48200000</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A965">
         <v>965</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>48250000</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A966">
         <v>966</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A967">
         <v>967</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>48350000</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A968">
         <v>968</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>48400000</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A969">
         <v>969</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>48450000</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A970">
         <v>970</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>48500000</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A971">
         <v>971</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>48550000</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A972">
         <v>972</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>48600000</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A973">
         <v>973</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>48650000</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A974">
         <v>974</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>48700000</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A975">
         <v>975</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>48750000</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A976">
         <v>976</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>48800000</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A977">
         <v>977</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>48850000</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A978">
         <v>978</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>48900000</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A979">
         <v>979</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>48950000</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A980">
         <v>980</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A981">
         <v>981</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>49050000</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A982">
         <v>982</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>49100000</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A983">
         <v>983</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>49150000</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A984">
         <v>984</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>49200000</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A985">
         <v>985</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>49250000</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A986">
         <v>986</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>49300000</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A987">
         <v>987</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>49350000</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A988">
         <v>988</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>49400000</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A989">
         <v>989</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>49450000</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A990">
         <v>990</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A991">
         <v>991</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>49550000</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A992">
         <v>992</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>49600000</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A993">
         <v>993</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>49650000</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A994">
         <v>994</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>49700000</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A995">
         <v>995</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>49750000</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A996">
         <v>996</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>49800000</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A997">
         <v>997</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>49850000</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A998">
         <v>998</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>49900000</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A999">
         <v>999</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>49950000</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1000">
         <v>1000</v>
       </c>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{256EFC6E-53F9-40CD-894D-461D7088FFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB683691-B531-418B-812D-1064612EB1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="1896" windowWidth="13020" windowHeight="6996" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>60000</v>
+        <v>70000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -653,7 +653,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>50000</v>
+        <v>70000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB683691-B531-418B-812D-1064612EB1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88370EB0-00A3-42D3-8FBB-B3EE2F1C2359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -621,7 +621,7 @@
         <v>7.5</v>
       </c>
       <c r="F3" s="2">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" s="2">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88370EB0-00A3-42D3-8FBB-B3EE2F1C2359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABBC219-6D27-45CA-A28F-BC79C1FF0C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -621,7 +621,7 @@
         <v>7.5</v>
       </c>
       <c r="F3" s="2">
-        <v>40000</v>
+        <v>50000</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -685,7 +685,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" s="2">
-        <v>30000</v>
+        <v>40000</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABBC219-6D27-45CA-A28F-BC79C1FF0C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB6834-295E-44A8-9BF7-C7DE1F07A6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -526,21 +526,21 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" customWidth="1"/>
-    <col min="2" max="2" width="11.59765625" customWidth="1"/>
-    <col min="3" max="3" width="12.09765625" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="32.59765625" customWidth="1"/>
-    <col min="7" max="7" width="25.59765625" customWidth="1"/>
+    <col min="6" max="6" width="32.625" customWidth="1"/>
+    <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -572,7 +572,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>70000</v>
+        <v>100000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -621,7 +621,7 @@
         <v>7.5</v>
       </c>
       <c r="F3" s="2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -653,7 +653,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>70000</v>
+        <v>80000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -668,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -685,7 +685,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" s="2">
-        <v>40000</v>
+        <v>80000</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -717,7 +717,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -732,7 +732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -779,12 +779,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="97.19921875" customWidth="1"/>
+    <col min="3" max="3" width="97.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -797,7 +797,7 @@
         <v>25025000000</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -806,7 +806,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
@@ -815,7 +815,7 @@
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>4</v>
       </c>
@@ -824,7 +824,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>5</v>
       </c>
@@ -833,7 +833,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>6</v>
       </c>
@@ -842,7 +842,7 @@
         <v>300000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>7</v>
       </c>
@@ -851,7 +851,7 @@
         <v>350000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>8</v>
       </c>
@@ -860,7 +860,7 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>9</v>
       </c>
@@ -869,7 +869,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>10</v>
       </c>
@@ -878,7 +878,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>11</v>
       </c>
@@ -887,7 +887,7 @@
         <v>550000</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>12</v>
       </c>
@@ -896,7 +896,7 @@
         <v>600000</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>13</v>
       </c>
@@ -905,7 +905,7 @@
         <v>650000</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>14</v>
       </c>
@@ -914,7 +914,7 @@
         <v>700000</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>15</v>
       </c>
@@ -923,7 +923,7 @@
         <v>750000</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>16</v>
       </c>
@@ -932,7 +932,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>17</v>
       </c>
@@ -941,7 +941,7 @@
         <v>850000</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>18</v>
       </c>
@@ -950,7 +950,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>19</v>
       </c>
@@ -959,7 +959,7 @@
         <v>950000</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>20</v>
       </c>
@@ -968,7 +968,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>21</v>
       </c>
@@ -977,7 +977,7 @@
         <v>1050000</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>22</v>
       </c>
@@ -986,7 +986,7 @@
         <v>1100000</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>23</v>
       </c>
@@ -995,7 +995,7 @@
         <v>1150000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>24</v>
       </c>
@@ -1004,7 +1004,7 @@
         <v>1200000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>25</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>1250000</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>26</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1300000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>27</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>1350000</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28</v>
       </c>
@@ -1040,7 +1040,7 @@
         <v>1400000</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>29</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>1450000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>30</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>31</v>
       </c>
@@ -1067,7 +1067,7 @@
         <v>1550000</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>32</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>1600000</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>33</v>
       </c>
@@ -1085,7 +1085,7 @@
         <v>1650000</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>34</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>1700000</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>35</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>1750000</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>36</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>1800000</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>37</v>
       </c>
@@ -1121,7 +1121,7 @@
         <v>1850000</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>38</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>1900000</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>39</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>1950000</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>40</v>
       </c>
@@ -1148,7 +1148,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>41</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>2050000</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>42</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>2100000</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>43</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>2150000</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>44</v>
       </c>
@@ -1184,7 +1184,7 @@
         <v>2200000</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>45</v>
       </c>
@@ -1193,7 +1193,7 @@
         <v>2250000</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>46</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>2300000</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>47</v>
       </c>
@@ -1211,7 +1211,7 @@
         <v>2350000</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>48</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>2400000</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>49</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>2450000</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>50</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>2500000</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>51</v>
       </c>
@@ -1247,7 +1247,7 @@
         <v>2550000</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>52</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>2600000</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>53</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>2650000</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>54</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>2700000</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>55</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>2750000</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>56</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>2800000</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>57</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>2850000</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>58</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>2900000</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>59</v>
       </c>
@@ -1319,7 +1319,7 @@
         <v>2950000</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>60</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>3000000</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>61</v>
       </c>
@@ -1337,7 +1337,7 @@
         <v>3050000</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>62</v>
       </c>
@@ -1346,7 +1346,7 @@
         <v>3100000</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>63</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>3150000</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>64</v>
       </c>
@@ -1364,7 +1364,7 @@
         <v>3200000</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>65</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>3250000</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>66</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>3300000</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>67</v>
       </c>
@@ -1391,7 +1391,7 @@
         <v>3350000</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>68</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>3400000</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>69</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>3450000</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>70</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>3500000</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>71</v>
       </c>
@@ -1427,7 +1427,7 @@
         <v>3550000</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>72</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>73</v>
       </c>
@@ -1445,7 +1445,7 @@
         <v>3650000</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>74</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>3700000</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>75</v>
       </c>
@@ -1463,7 +1463,7 @@
         <v>3750000</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>76</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>3800000</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>77</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>3850000</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>78</v>
       </c>
@@ -1490,7 +1490,7 @@
         <v>3900000</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>79</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>3950000</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>80</v>
       </c>
@@ -1508,7 +1508,7 @@
         <v>4000000</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>81</v>
       </c>
@@ -1517,7 +1517,7 @@
         <v>4050000</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>82</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>4100000</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>83</v>
       </c>
@@ -1535,7 +1535,7 @@
         <v>4150000</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>84</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>4200000</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>85</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>4250000</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>86</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>4300000</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>87</v>
       </c>
@@ -1571,7 +1571,7 @@
         <v>4350000</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>88</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>4400000</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>89</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>4450000</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>90</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>4500000</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>91</v>
       </c>
@@ -1607,7 +1607,7 @@
         <v>4550000</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>92</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>4600000</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>93</v>
       </c>
@@ -1625,7 +1625,7 @@
         <v>4650000</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>94</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>4700000</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>95</v>
       </c>
@@ -1643,7 +1643,7 @@
         <v>4750000</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>96</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>4800000</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>97</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>4850000</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>98</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>4900000</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>99</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>4950000</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>100</v>
       </c>
@@ -1688,7 +1688,7 @@
         <v>5000000</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>101</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>5050000</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>102</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>5100000</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>103</v>
       </c>
@@ -1715,7 +1715,7 @@
         <v>5150000</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>104</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>105</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>5250000</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>106</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>5300000</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>107</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>5350000</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>108</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>5400000</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>109</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>5450000</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>110</v>
       </c>
@@ -1778,7 +1778,7 @@
         <v>5500000</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>111</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>5550000</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>112</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>113</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>5650000</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>114</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>5700000</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>115</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>5750000</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>116</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>5800000</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>117</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>5850000</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>118</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>5900000</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>119</v>
       </c>
@@ -1859,7 +1859,7 @@
         <v>5950000</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>120</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>6000000</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>121</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>6050000</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>122</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>6100000</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>123</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>6150000</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>124</v>
       </c>
@@ -1904,7 +1904,7 @@
         <v>6200000</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>125</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>6250000</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>126</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>6300000</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>127</v>
       </c>
@@ -1931,7 +1931,7 @@
         <v>6350000</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>128</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>6400000</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>129</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>6450000</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>130</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>6500000</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>131</v>
       </c>
@@ -1967,7 +1967,7 @@
         <v>6550000</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>132</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>6600000</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>133</v>
       </c>
@@ -1985,7 +1985,7 @@
         <v>6650000</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>134</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>6700000</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>135</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>6750000</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>136</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>6800000</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>137</v>
       </c>
@@ -2021,7 +2021,7 @@
         <v>6850000</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>138</v>
       </c>
@@ -2030,7 +2030,7 @@
         <v>6900000</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>139</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>6950000</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>140</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>7000000</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>141</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>7050000</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>142</v>
       </c>
@@ -2066,7 +2066,7 @@
         <v>7100000</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>143</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>7150000</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>144</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>7200000</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>145</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>7250000</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>146</v>
       </c>
@@ -2102,7 +2102,7 @@
         <v>7300000</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>147</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>7350000</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>148</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>7400000</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>149</v>
       </c>
@@ -2129,7 +2129,7 @@
         <v>7450000</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>150</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>7500000</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>151</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>7550000</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>152</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>7600000</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>153</v>
       </c>
@@ -2165,7 +2165,7 @@
         <v>7650000</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>154</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>7700000</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>155</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>7750000</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>156</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>7800000</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>157</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>7850000</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>158</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>7900000</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>159</v>
       </c>
@@ -2219,7 +2219,7 @@
         <v>7950000</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>160</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>8000000</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>161</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>8050000</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>162</v>
       </c>
@@ -2246,7 +2246,7 @@
         <v>8100000</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>163</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>8150000</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>164</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>8200000</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>165</v>
       </c>
@@ -2273,7 +2273,7 @@
         <v>8250000</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>166</v>
       </c>
@@ -2282,7 +2282,7 @@
         <v>8300000</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>167</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>8350000</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>168</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>8400000</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>169</v>
       </c>
@@ -2309,7 +2309,7 @@
         <v>8450000</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>170</v>
       </c>
@@ -2318,7 +2318,7 @@
         <v>8500000</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>171</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>8550000</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>172</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>8600000</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>173</v>
       </c>
@@ -2345,7 +2345,7 @@
         <v>8650000</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>174</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>8700000</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>175</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>8750000</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>176</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>8800000</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>177</v>
       </c>
@@ -2381,7 +2381,7 @@
         <v>8850000</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>178</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>8900000</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>179</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>8950000</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>180</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>9000000</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>181</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>9050000</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>182</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>9100000</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>183</v>
       </c>
@@ -2435,7 +2435,7 @@
         <v>9150000</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>184</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>9200000</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>185</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>9250000</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>186</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>9300000</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>187</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>9350000</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>188</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>9400000</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>189</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>9450000</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>190</v>
       </c>
@@ -2498,7 +2498,7 @@
         <v>9500000</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>191</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>9550000</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>192</v>
       </c>
@@ -2516,7 +2516,7 @@
         <v>9600000</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>193</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>9650000</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>194</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>9700000</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>195</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>9750000</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>196</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>9800000</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>197</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>9850000</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>198</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>9900000</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>199</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>9950000</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>200</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>201</v>
       </c>
@@ -2597,7 +2597,7 @@
         <v>10050000</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>202</v>
       </c>
@@ -2606,7 +2606,7 @@
         <v>10100000</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>203</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>10150000</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>204</v>
       </c>
@@ -2624,7 +2624,7 @@
         <v>10200000</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>205</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>10250000</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>206</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>10300000</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>207</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>10350000</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>208</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>10400000</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>209</v>
       </c>
@@ -2669,7 +2669,7 @@
         <v>10450000</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>210</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>10500000</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>211</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>10550000</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>212</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>10600000</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>213</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>10650000</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>214</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>10700000</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>215</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>10750000</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>216</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>10800000</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>217</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>10850000</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>218</v>
       </c>
@@ -2750,7 +2750,7 @@
         <v>10900000</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>219</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>10950000</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>220</v>
       </c>
@@ -2768,7 +2768,7 @@
         <v>11000000</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>221</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>11050000</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>222</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>11100000</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>223</v>
       </c>
@@ -2795,7 +2795,7 @@
         <v>11150000</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>224</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>11200000</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>225</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>11250000</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>226</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>11300000</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>227</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>11350000</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>228</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>11400000</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>229</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>11450000</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>230</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>11500000</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>231</v>
       </c>
@@ -2867,7 +2867,7 @@
         <v>11550000</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>232</v>
       </c>
@@ -2876,7 +2876,7 @@
         <v>11600000</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>233</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>11650000</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>234</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>11700000</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>235</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>11750000</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>236</v>
       </c>
@@ -2912,7 +2912,7 @@
         <v>11800000</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>237</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>11850000</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>238</v>
       </c>
@@ -2930,7 +2930,7 @@
         <v>11900000</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>239</v>
       </c>
@@ -2939,7 +2939,7 @@
         <v>11950000</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>240</v>
       </c>
@@ -2948,7 +2948,7 @@
         <v>12000000</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>241</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>12050000</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>242</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>12100000</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>243</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>12150000</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>244</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>12200000</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>245</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>12250000</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>246</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>12300000</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>247</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>12350000</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>248</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>12400000</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>249</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>12450000</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>250</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>12500000</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>251</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>12550000</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>252</v>
       </c>
@@ -3056,7 +3056,7 @@
         <v>12600000</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>253</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>12650000</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>254</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>12700000</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>255</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>12750000</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>256</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>12800000</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>257</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>12850000</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>258</v>
       </c>
@@ -3110,7 +3110,7 @@
         <v>12900000</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>259</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>12950000</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>260</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>13000000</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>261</v>
       </c>
@@ -3137,7 +3137,7 @@
         <v>13050000</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>262</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>13100000</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>263</v>
       </c>
@@ -3155,7 +3155,7 @@
         <v>13150000</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>264</v>
       </c>
@@ -3164,7 +3164,7 @@
         <v>13200000</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>265</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>13250000</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>266</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>13300000</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>267</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>13350000</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>268</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>13400000</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>269</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>13450000</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>270</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>13500000</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>271</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>13550000</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>272</v>
       </c>
@@ -3236,7 +3236,7 @@
         <v>13600000</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>273</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>13650000</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>274</v>
       </c>
@@ -3254,7 +3254,7 @@
         <v>13700000</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>275</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>13750000</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>276</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>13800000</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>277</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>13850000</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>278</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>13900000</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>279</v>
       </c>
@@ -3299,7 +3299,7 @@
         <v>13950000</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>280</v>
       </c>
@@ -3308,7 +3308,7 @@
         <v>14000000</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>281</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>14050000</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>282</v>
       </c>
@@ -3326,7 +3326,7 @@
         <v>14100000</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>283</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>14150000</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>284</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>14200000</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>285</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>14250000</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>286</v>
       </c>
@@ -3362,7 +3362,7 @@
         <v>14300000</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>287</v>
       </c>
@@ -3371,7 +3371,7 @@
         <v>14350000</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>288</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>14400000</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>289</v>
       </c>
@@ -3389,7 +3389,7 @@
         <v>14450000</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>290</v>
       </c>
@@ -3398,7 +3398,7 @@
         <v>14500000</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>291</v>
       </c>
@@ -3407,7 +3407,7 @@
         <v>14550000</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>292</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>14600000</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>293</v>
       </c>
@@ -3425,7 +3425,7 @@
         <v>14650000</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>294</v>
       </c>
@@ -3434,7 +3434,7 @@
         <v>14700000</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>295</v>
       </c>
@@ -3443,7 +3443,7 @@
         <v>14750000</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>296</v>
       </c>
@@ -3452,7 +3452,7 @@
         <v>14800000</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>297</v>
       </c>
@@ -3461,7 +3461,7 @@
         <v>14850000</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>298</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>14900000</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>299</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>14950000</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>300</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>15000000</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>301</v>
       </c>
@@ -3497,7 +3497,7 @@
         <v>15050000</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>302</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>15100000</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>303</v>
       </c>
@@ -3515,7 +3515,7 @@
         <v>15150000</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>304</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>15200000</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>305</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>15250000</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>306</v>
       </c>
@@ -3542,7 +3542,7 @@
         <v>15300000</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>307</v>
       </c>
@@ -3551,7 +3551,7 @@
         <v>15350000</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>308</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>15400000</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>309</v>
       </c>
@@ -3569,7 +3569,7 @@
         <v>15450000</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>310</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>15500000</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>311</v>
       </c>
@@ -3587,7 +3587,7 @@
         <v>15550000</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>312</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>15600000</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>313</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>15650000</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>314</v>
       </c>
@@ -3614,7 +3614,7 @@
         <v>15700000</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>315</v>
       </c>
@@ -3623,7 +3623,7 @@
         <v>15750000</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>316</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>15800000</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>317</v>
       </c>
@@ -3641,7 +3641,7 @@
         <v>15850000</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>318</v>
       </c>
@@ -3650,7 +3650,7 @@
         <v>15900000</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>319</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>15950000</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>320</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>16000000</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>321</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>16050000</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>322</v>
       </c>
@@ -3686,7 +3686,7 @@
         <v>16100000</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>323</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>16150000</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>324</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>16200000</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>325</v>
       </c>
@@ -3713,7 +3713,7 @@
         <v>16250000</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>326</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>16300000</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>327</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>16350000</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>328</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>16400000</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>329</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>16450000</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>330</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>16500000</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>331</v>
       </c>
@@ -3767,7 +3767,7 @@
         <v>16550000</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>332</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>16600000</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>333</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>16650000</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>334</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>16700000</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>335</v>
       </c>
@@ -3803,7 +3803,7 @@
         <v>16750000</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>336</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>16800000</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>337</v>
       </c>
@@ -3821,7 +3821,7 @@
         <v>16850000</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>338</v>
       </c>
@@ -3830,7 +3830,7 @@
         <v>16900000</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>339</v>
       </c>
@@ -3839,7 +3839,7 @@
         <v>16950000</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>340</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>17000000</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>341</v>
       </c>
@@ -3857,7 +3857,7 @@
         <v>17050000</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>342</v>
       </c>
@@ -3866,7 +3866,7 @@
         <v>17100000</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>343</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>17150000</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>344</v>
       </c>
@@ -3884,7 +3884,7 @@
         <v>17200000</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>345</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>17250000</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>346</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>17300000</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>347</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>17350000</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>348</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>17400000</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>349</v>
       </c>
@@ -3929,7 +3929,7 @@
         <v>17450000</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>350</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>17500000</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>351</v>
       </c>
@@ -3947,7 +3947,7 @@
         <v>17550000</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>352</v>
       </c>
@@ -3956,7 +3956,7 @@
         <v>17600000</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>353</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>17650000</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>354</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>17700000</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>355</v>
       </c>
@@ -3983,7 +3983,7 @@
         <v>17750000</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>356</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>17800000</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>357</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>17850000</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>358</v>
       </c>
@@ -4010,7 +4010,7 @@
         <v>17900000</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>359</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>17950000</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>360</v>
       </c>
@@ -4028,7 +4028,7 @@
         <v>18000000</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>361</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>18050000</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>362</v>
       </c>
@@ -4046,7 +4046,7 @@
         <v>18100000</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>363</v>
       </c>
@@ -4055,7 +4055,7 @@
         <v>18150000</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>364</v>
       </c>
@@ -4064,7 +4064,7 @@
         <v>18200000</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>365</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>18250000</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>366</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>18300000</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>367</v>
       </c>
@@ -4091,7 +4091,7 @@
         <v>18350000</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>368</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>18400000</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>369</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>18450000</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>370</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>18500000</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>371</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>18550000</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>372</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>18600000</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>373</v>
       </c>
@@ -4145,7 +4145,7 @@
         <v>18650000</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>374</v>
       </c>
@@ -4154,7 +4154,7 @@
         <v>18700000</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>375</v>
       </c>
@@ -4163,7 +4163,7 @@
         <v>18750000</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>376</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>18800000</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>377</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>18850000</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>378</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>18900000</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>379</v>
       </c>
@@ -4199,7 +4199,7 @@
         <v>18950000</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>380</v>
       </c>
@@ -4208,7 +4208,7 @@
         <v>19000000</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>381</v>
       </c>
@@ -4217,7 +4217,7 @@
         <v>19050000</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>382</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>19100000</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>383</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>19150000</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>384</v>
       </c>
@@ -4244,7 +4244,7 @@
         <v>19200000</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>385</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>19250000</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>386</v>
       </c>
@@ -4262,7 +4262,7 @@
         <v>19300000</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>387</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>19350000</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>388</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>19400000</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>389</v>
       </c>
@@ -4289,7 +4289,7 @@
         <v>19450000</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>390</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>19500000</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>391</v>
       </c>
@@ -4307,7 +4307,7 @@
         <v>19550000</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>392</v>
       </c>
@@ -4316,7 +4316,7 @@
         <v>19600000</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>393</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>19650000</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>394</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>19700000</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>395</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>19750000</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>396</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>19800000</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>397</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>19850000</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>398</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>19900000</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>399</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>19950000</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>400</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>401</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>20050000</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>402</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>20100000</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>403</v>
       </c>
@@ -4415,7 +4415,7 @@
         <v>20150000</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>404</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>20200000</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>405</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>20250000</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>406</v>
       </c>
@@ -4442,7 +4442,7 @@
         <v>20300000</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>407</v>
       </c>
@@ -4451,7 +4451,7 @@
         <v>20350000</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>408</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>20400000</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>409</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>20450000</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>410</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>20500000</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>411</v>
       </c>
@@ -4487,7 +4487,7 @@
         <v>20550000</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>412</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>20600000</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>413</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>20650000</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>414</v>
       </c>
@@ -4514,7 +4514,7 @@
         <v>20700000</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>415</v>
       </c>
@@ -4523,7 +4523,7 @@
         <v>20750000</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>416</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>20800000</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>417</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>20850000</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>418</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>20900000</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>419</v>
       </c>
@@ -4559,7 +4559,7 @@
         <v>20950000</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>420</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>21000000</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>421</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>21050000</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>422</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>21100000</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>423</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>21150000</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>424</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>21200000</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>425</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>21250000</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>426</v>
       </c>
@@ -4622,7 +4622,7 @@
         <v>21300000</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>427</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>21350000</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>428</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>21400000</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>429</v>
       </c>
@@ -4649,7 +4649,7 @@
         <v>21450000</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>430</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>21500000</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>431</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>21550000</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>432</v>
       </c>
@@ -4676,7 +4676,7 @@
         <v>21600000</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>433</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>21650000</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>434</v>
       </c>
@@ -4694,7 +4694,7 @@
         <v>21700000</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>435</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>21750000</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>436</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>21800000</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>437</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>21850000</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>438</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>21900000</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>439</v>
       </c>
@@ -4739,7 +4739,7 @@
         <v>21950000</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>440</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>22000000</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>441</v>
       </c>
@@ -4757,7 +4757,7 @@
         <v>22050000</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>442</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>22100000</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>443</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>22150000</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>444</v>
       </c>
@@ -4784,7 +4784,7 @@
         <v>22200000</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>445</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>22250000</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>446</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>22300000</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>447</v>
       </c>
@@ -4811,7 +4811,7 @@
         <v>22350000</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>448</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>22400000</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>449</v>
       </c>
@@ -4829,7 +4829,7 @@
         <v>22450000</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>450</v>
       </c>
@@ -4838,7 +4838,7 @@
         <v>22500000</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>451</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>22550000</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>452</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>22600000</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>453</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>22650000</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>454</v>
       </c>
@@ -4874,7 +4874,7 @@
         <v>22700000</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>455</v>
       </c>
@@ -4883,7 +4883,7 @@
         <v>22750000</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>456</v>
       </c>
@@ -4892,7 +4892,7 @@
         <v>22800000</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>457</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>22850000</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>458</v>
       </c>
@@ -4910,7 +4910,7 @@
         <v>22900000</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>459</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>22950000</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>460</v>
       </c>
@@ -4928,7 +4928,7 @@
         <v>23000000</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>461</v>
       </c>
@@ -4937,7 +4937,7 @@
         <v>23050000</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>462</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>23100000</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>463</v>
       </c>
@@ -4955,7 +4955,7 @@
         <v>23150000</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>464</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>23200000</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>465</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>23250000</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>466</v>
       </c>
@@ -4982,7 +4982,7 @@
         <v>23300000</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>467</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>23350000</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>468</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>23400000</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>469</v>
       </c>
@@ -5009,7 +5009,7 @@
         <v>23450000</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>470</v>
       </c>
@@ -5018,7 +5018,7 @@
         <v>23500000</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>471</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>23550000</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>472</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>23600000</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>473</v>
       </c>
@@ -5045,7 +5045,7 @@
         <v>23650000</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>474</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>23700000</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>475</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>23750000</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>476</v>
       </c>
@@ -5072,7 +5072,7 @@
         <v>23800000</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>477</v>
       </c>
@@ -5081,7 +5081,7 @@
         <v>23850000</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>478</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>23900000</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>479</v>
       </c>
@@ -5099,7 +5099,7 @@
         <v>23950000</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>480</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>24000000</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>481</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>24050000</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>482</v>
       </c>
@@ -5126,7 +5126,7 @@
         <v>24100000</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>483</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>24150000</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>484</v>
       </c>
@@ -5144,7 +5144,7 @@
         <v>24200000</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>485</v>
       </c>
@@ -5153,7 +5153,7 @@
         <v>24250000</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>486</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>24300000</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>487</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>24350000</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>488</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>24400000</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>489</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>24450000</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>490</v>
       </c>
@@ -5198,7 +5198,7 @@
         <v>24500000</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>491</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>24550000</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>492</v>
       </c>
@@ -5216,7 +5216,7 @@
         <v>24600000</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>493</v>
       </c>
@@ -5225,7 +5225,7 @@
         <v>24650000</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>494</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>24700000</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>495</v>
       </c>
@@ -5243,7 +5243,7 @@
         <v>24750000</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>496</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>24800000</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>497</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>24850000</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>498</v>
       </c>
@@ -5270,7 +5270,7 @@
         <v>24900000</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>499</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>24950000</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>500</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>25000000</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>501</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>25050000</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>502</v>
       </c>
@@ -5306,7 +5306,7 @@
         <v>25100000</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>503</v>
       </c>
@@ -5315,7 +5315,7 @@
         <v>25150000</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>504</v>
       </c>
@@ -5324,7 +5324,7 @@
         <v>25200000</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>505</v>
       </c>
@@ -5333,7 +5333,7 @@
         <v>25250000</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>506</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>25300000</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>507</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>25350000</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>508</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>25400000</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>509</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>25450000</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>510</v>
       </c>
@@ -5378,7 +5378,7 @@
         <v>25500000</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>511</v>
       </c>
@@ -5387,7 +5387,7 @@
         <v>25550000</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>512</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>25600000</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>513</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>25650000</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>514</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>25700000</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>515</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>25750000</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>516</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>25800000</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>517</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>25850000</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>518</v>
       </c>
@@ -5450,7 +5450,7 @@
         <v>25900000</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>519</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>25950000</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>520</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>26000000</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>521</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>26050000</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>522</v>
       </c>
@@ -5486,7 +5486,7 @@
         <v>26100000</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>523</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>26150000</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>524</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>26200000</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>525</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>26250000</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>526</v>
       </c>
@@ -5522,7 +5522,7 @@
         <v>26300000</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>527</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>26350000</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>528</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>26400000</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>529</v>
       </c>
@@ -5549,7 +5549,7 @@
         <v>26450000</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>530</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>26500000</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>531</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>26550000</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>532</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>26600000</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>533</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>26650000</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>534</v>
       </c>
@@ -5594,7 +5594,7 @@
         <v>26700000</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>535</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>26750000</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>536</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>26800000</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>537</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>26850000</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>538</v>
       </c>
@@ -5630,7 +5630,7 @@
         <v>26900000</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>539</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>26950000</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>540</v>
       </c>
@@ -5648,7 +5648,7 @@
         <v>27000000</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>541</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>27050000</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>542</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>27100000</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>543</v>
       </c>
@@ -5675,7 +5675,7 @@
         <v>27150000</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>544</v>
       </c>
@@ -5684,7 +5684,7 @@
         <v>27200000</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>545</v>
       </c>
@@ -5693,7 +5693,7 @@
         <v>27250000</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>546</v>
       </c>
@@ -5702,7 +5702,7 @@
         <v>27300000</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>547</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>27350000</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>548</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>27400000</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>549</v>
       </c>
@@ -5729,7 +5729,7 @@
         <v>27450000</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>550</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>27500000</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>551</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>27550000</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>552</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>27600000</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>553</v>
       </c>
@@ -5765,7 +5765,7 @@
         <v>27650000</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>554</v>
       </c>
@@ -5774,7 +5774,7 @@
         <v>27700000</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>555</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>27750000</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>556</v>
       </c>
@@ -5792,7 +5792,7 @@
         <v>27800000</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>557</v>
       </c>
@@ -5801,7 +5801,7 @@
         <v>27850000</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>558</v>
       </c>
@@ -5810,7 +5810,7 @@
         <v>27900000</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>559</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>27950000</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>560</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>28000000</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>561</v>
       </c>
@@ -5837,7 +5837,7 @@
         <v>28050000</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>562</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>28100000</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>563</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>28150000</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>564</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>28200000</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>565</v>
       </c>
@@ -5873,7 +5873,7 @@
         <v>28250000</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>566</v>
       </c>
@@ -5882,7 +5882,7 @@
         <v>28300000</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>567</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>28350000</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>568</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>28400000</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>569</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>28450000</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>570</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>28500000</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>571</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>28550000</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>572</v>
       </c>
@@ -5936,7 +5936,7 @@
         <v>28600000</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>573</v>
       </c>
@@ -5945,7 +5945,7 @@
         <v>28650000</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>574</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>28700000</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>575</v>
       </c>
@@ -5963,7 +5963,7 @@
         <v>28750000</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>576</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>28800000</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>577</v>
       </c>
@@ -5981,7 +5981,7 @@
         <v>28850000</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>578</v>
       </c>
@@ -5990,7 +5990,7 @@
         <v>28900000</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>579</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>28950000</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>580</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>29000000</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>581</v>
       </c>
@@ -6017,7 +6017,7 @@
         <v>29050000</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>582</v>
       </c>
@@ -6026,7 +6026,7 @@
         <v>29100000</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>583</v>
       </c>
@@ -6035,7 +6035,7 @@
         <v>29150000</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>584</v>
       </c>
@@ -6044,7 +6044,7 @@
         <v>29200000</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>585</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>29250000</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>586</v>
       </c>
@@ -6062,7 +6062,7 @@
         <v>29300000</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>587</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>29350000</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>588</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>29400000</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>589</v>
       </c>
@@ -6089,7 +6089,7 @@
         <v>29450000</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>590</v>
       </c>
@@ -6098,7 +6098,7 @@
         <v>29500000</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>591</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>29550000</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>592</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>29600000</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>593</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>29650000</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>594</v>
       </c>
@@ -6134,7 +6134,7 @@
         <v>29700000</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>595</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>29750000</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>596</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>29800000</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>597</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>29850000</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>598</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>29900000</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>599</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>29950000</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>600</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>601</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>30050000</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>602</v>
       </c>
@@ -6206,7 +6206,7 @@
         <v>30100000</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>603</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>30150000</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>604</v>
       </c>
@@ -6224,7 +6224,7 @@
         <v>30200000</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>605</v>
       </c>
@@ -6233,7 +6233,7 @@
         <v>30250000</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>606</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>30300000</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>607</v>
       </c>
@@ -6251,7 +6251,7 @@
         <v>30350000</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>608</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>30400000</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>609</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>30450000</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>610</v>
       </c>
@@ -6278,7 +6278,7 @@
         <v>30500000</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>611</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>30550000</v>
       </c>
     </row>
-    <row r="612" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>612</v>
       </c>
@@ -6296,7 +6296,7 @@
         <v>30600000</v>
       </c>
     </row>
-    <row r="613" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>613</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>30650000</v>
       </c>
     </row>
-    <row r="614" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>614</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>30700000</v>
       </c>
     </row>
-    <row r="615" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>615</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>30750000</v>
       </c>
     </row>
-    <row r="616" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>616</v>
       </c>
@@ -6332,7 +6332,7 @@
         <v>30800000</v>
       </c>
     </row>
-    <row r="617" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>617</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>30850000</v>
       </c>
     </row>
-    <row r="618" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>618</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>30900000</v>
       </c>
     </row>
-    <row r="619" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>619</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>30950000</v>
       </c>
     </row>
-    <row r="620" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>620</v>
       </c>
@@ -6368,7 +6368,7 @@
         <v>31000000</v>
       </c>
     </row>
-    <row r="621" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>621</v>
       </c>
@@ -6377,7 +6377,7 @@
         <v>31050000</v>
       </c>
     </row>
-    <row r="622" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>622</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>31100000</v>
       </c>
     </row>
-    <row r="623" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>623</v>
       </c>
@@ -6395,7 +6395,7 @@
         <v>31150000</v>
       </c>
     </row>
-    <row r="624" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>624</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>31200000</v>
       </c>
     </row>
-    <row r="625" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>625</v>
       </c>
@@ -6413,7 +6413,7 @@
         <v>31250000</v>
       </c>
     </row>
-    <row r="626" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>626</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>31300000</v>
       </c>
     </row>
-    <row r="627" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>627</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>31350000</v>
       </c>
     </row>
-    <row r="628" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>628</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>31400000</v>
       </c>
     </row>
-    <row r="629" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>629</v>
       </c>
@@ -6449,7 +6449,7 @@
         <v>31450000</v>
       </c>
     </row>
-    <row r="630" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>630</v>
       </c>
@@ -6458,7 +6458,7 @@
         <v>31500000</v>
       </c>
     </row>
-    <row r="631" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>631</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>31550000</v>
       </c>
     </row>
-    <row r="632" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>632</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>31600000</v>
       </c>
     </row>
-    <row r="633" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>633</v>
       </c>
@@ -6485,7 +6485,7 @@
         <v>31650000</v>
       </c>
     </row>
-    <row r="634" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>634</v>
       </c>
@@ -6494,7 +6494,7 @@
         <v>31700000</v>
       </c>
     </row>
-    <row r="635" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>635</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>31750000</v>
       </c>
     </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>636</v>
       </c>
@@ -6512,7 +6512,7 @@
         <v>31800000</v>
       </c>
     </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>637</v>
       </c>
@@ -6521,7 +6521,7 @@
         <v>31850000</v>
       </c>
     </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>638</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>31900000</v>
       </c>
     </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>639</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>31950000</v>
       </c>
     </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>640</v>
       </c>
@@ -6548,7 +6548,7 @@
         <v>32000000</v>
       </c>
     </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>641</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>32050000</v>
       </c>
     </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>642</v>
       </c>
@@ -6566,7 +6566,7 @@
         <v>32100000</v>
       </c>
     </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>643</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>32150000</v>
       </c>
     </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>644</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>32200000</v>
       </c>
     </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>645</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>32250000</v>
       </c>
     </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>646</v>
       </c>
@@ -6602,7 +6602,7 @@
         <v>32300000</v>
       </c>
     </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>647</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>32350000</v>
       </c>
     </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>648</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>32400000</v>
       </c>
     </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>649</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>32450000</v>
       </c>
     </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>650</v>
       </c>
@@ -6638,7 +6638,7 @@
         <v>32500000</v>
       </c>
     </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>651</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>32550000</v>
       </c>
     </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>652</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>32600000</v>
       </c>
     </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>653</v>
       </c>
@@ -6665,7 +6665,7 @@
         <v>32650000</v>
       </c>
     </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>654</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>32700000</v>
       </c>
     </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>655</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>32750000</v>
       </c>
     </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>656</v>
       </c>
@@ -6692,7 +6692,7 @@
         <v>32800000</v>
       </c>
     </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>657</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>32850000</v>
       </c>
     </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>658</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>32900000</v>
       </c>
     </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>659</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>32950000</v>
       </c>
     </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>660</v>
       </c>
@@ -6728,7 +6728,7 @@
         <v>33000000</v>
       </c>
     </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>661</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>33050000</v>
       </c>
     </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>662</v>
       </c>
@@ -6746,7 +6746,7 @@
         <v>33100000</v>
       </c>
     </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>663</v>
       </c>
@@ -6755,7 +6755,7 @@
         <v>33150000</v>
       </c>
     </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>664</v>
       </c>
@@ -6764,7 +6764,7 @@
         <v>33200000</v>
       </c>
     </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>665</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>33250000</v>
       </c>
     </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>666</v>
       </c>
@@ -6782,7 +6782,7 @@
         <v>33300000</v>
       </c>
     </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>667</v>
       </c>
@@ -6791,7 +6791,7 @@
         <v>33350000</v>
       </c>
     </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>668</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>33400000</v>
       </c>
     </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>669</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>33450000</v>
       </c>
     </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>670</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>33500000</v>
       </c>
     </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>671</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>33550000</v>
       </c>
     </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>672</v>
       </c>
@@ -6836,7 +6836,7 @@
         <v>33600000</v>
       </c>
     </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>673</v>
       </c>
@@ -6845,7 +6845,7 @@
         <v>33650000</v>
       </c>
     </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>674</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>33700000</v>
       </c>
     </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>675</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>33750000</v>
       </c>
     </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>676</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>33800000</v>
       </c>
     </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>677</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>33850000</v>
       </c>
     </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>678</v>
       </c>
@@ -6890,7 +6890,7 @@
         <v>33900000</v>
       </c>
     </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>679</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>33950000</v>
       </c>
     </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>680</v>
       </c>
@@ -6908,7 +6908,7 @@
         <v>34000000</v>
       </c>
     </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>681</v>
       </c>
@@ -6917,7 +6917,7 @@
         <v>34050000</v>
       </c>
     </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>682</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>34100000</v>
       </c>
     </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>683</v>
       </c>
@@ -6935,7 +6935,7 @@
         <v>34150000</v>
       </c>
     </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>684</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>34200000</v>
       </c>
     </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>685</v>
       </c>
@@ -6953,7 +6953,7 @@
         <v>34250000</v>
       </c>
     </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>686</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>34300000</v>
       </c>
     </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>687</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>34350000</v>
       </c>
     </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>688</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>34400000</v>
       </c>
     </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>689</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>34450000</v>
       </c>
     </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>690</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>34500000</v>
       </c>
     </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>691</v>
       </c>
@@ -7007,7 +7007,7 @@
         <v>34550000</v>
       </c>
     </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>692</v>
       </c>
@@ -7016,7 +7016,7 @@
         <v>34600000</v>
       </c>
     </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>693</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>34650000</v>
       </c>
     </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>694</v>
       </c>
@@ -7034,7 +7034,7 @@
         <v>34700000</v>
       </c>
     </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>695</v>
       </c>
@@ -7043,7 +7043,7 @@
         <v>34750000</v>
       </c>
     </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>696</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>34800000</v>
       </c>
     </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>697</v>
       </c>
@@ -7061,7 +7061,7 @@
         <v>34850000</v>
       </c>
     </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>698</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>34900000</v>
       </c>
     </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>699</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>34950000</v>
       </c>
     </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>700</v>
       </c>
@@ -7088,7 +7088,7 @@
         <v>35000000</v>
       </c>
     </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>701</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>35050000</v>
       </c>
     </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>702</v>
       </c>
@@ -7106,7 +7106,7 @@
         <v>35100000</v>
       </c>
     </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>703</v>
       </c>
@@ -7115,7 +7115,7 @@
         <v>35150000</v>
       </c>
     </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>704</v>
       </c>
@@ -7124,7 +7124,7 @@
         <v>35200000</v>
       </c>
     </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>705</v>
       </c>
@@ -7133,7 +7133,7 @@
         <v>35250000</v>
       </c>
     </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>706</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>35300000</v>
       </c>
     </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>707</v>
       </c>
@@ -7151,7 +7151,7 @@
         <v>35350000</v>
       </c>
     </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>708</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>35400000</v>
       </c>
     </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>709</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>35450000</v>
       </c>
     </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>710</v>
       </c>
@@ -7178,7 +7178,7 @@
         <v>35500000</v>
       </c>
     </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>711</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>35550000</v>
       </c>
     </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>712</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>35600000</v>
       </c>
     </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>713</v>
       </c>
@@ -7205,7 +7205,7 @@
         <v>35650000</v>
       </c>
     </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>714</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>35700000</v>
       </c>
     </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>715</v>
       </c>
@@ -7223,7 +7223,7 @@
         <v>35750000</v>
       </c>
     </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>716</v>
       </c>
@@ -7232,7 +7232,7 @@
         <v>35800000</v>
       </c>
     </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>717</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>35850000</v>
       </c>
     </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>718</v>
       </c>
@@ -7250,7 +7250,7 @@
         <v>35900000</v>
       </c>
     </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>719</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>35950000</v>
       </c>
     </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>720</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>36000000</v>
       </c>
     </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>721</v>
       </c>
@@ -7277,7 +7277,7 @@
         <v>36050000</v>
       </c>
     </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>722</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>36100000</v>
       </c>
     </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>723</v>
       </c>
@@ -7295,7 +7295,7 @@
         <v>36150000</v>
       </c>
     </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>724</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>36200000</v>
       </c>
     </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>725</v>
       </c>
@@ -7313,7 +7313,7 @@
         <v>36250000</v>
       </c>
     </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>726</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>36300000</v>
       </c>
     </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>727</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>36350000</v>
       </c>
     </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>728</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>36400000</v>
       </c>
     </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>729</v>
       </c>
@@ -7349,7 +7349,7 @@
         <v>36450000</v>
       </c>
     </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>730</v>
       </c>
@@ -7358,7 +7358,7 @@
         <v>36500000</v>
       </c>
     </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>731</v>
       </c>
@@ -7367,7 +7367,7 @@
         <v>36550000</v>
       </c>
     </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>732</v>
       </c>
@@ -7376,7 +7376,7 @@
         <v>36600000</v>
       </c>
     </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>733</v>
       </c>
@@ -7385,7 +7385,7 @@
         <v>36650000</v>
       </c>
     </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>734</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>36700000</v>
       </c>
     </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>735</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>36750000</v>
       </c>
     </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>736</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>36800000</v>
       </c>
     </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>737</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>36850000</v>
       </c>
     </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>738</v>
       </c>
@@ -7430,7 +7430,7 @@
         <v>36900000</v>
       </c>
     </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>739</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>36950000</v>
       </c>
     </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>740</v>
       </c>
@@ -7448,7 +7448,7 @@
         <v>37000000</v>
       </c>
     </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>741</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>37050000</v>
       </c>
     </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>742</v>
       </c>
@@ -7466,7 +7466,7 @@
         <v>37100000</v>
       </c>
     </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>743</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>37150000</v>
       </c>
     </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>744</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>37200000</v>
       </c>
     </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>745</v>
       </c>
@@ -7493,7 +7493,7 @@
         <v>37250000</v>
       </c>
     </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>746</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>37300000</v>
       </c>
     </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>747</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>37350000</v>
       </c>
     </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>748</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>37400000</v>
       </c>
     </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>749</v>
       </c>
@@ -7529,7 +7529,7 @@
         <v>37450000</v>
       </c>
     </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>750</v>
       </c>
@@ -7538,7 +7538,7 @@
         <v>37500000</v>
       </c>
     </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>751</v>
       </c>
@@ -7547,7 +7547,7 @@
         <v>37550000</v>
       </c>
     </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>752</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>37600000</v>
       </c>
     </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>753</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>37650000</v>
       </c>
     </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>754</v>
       </c>
@@ -7574,7 +7574,7 @@
         <v>37700000</v>
       </c>
     </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>755</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>37750000</v>
       </c>
     </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>756</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>37800000</v>
       </c>
     </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>757</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>37850000</v>
       </c>
     </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>758</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>37900000</v>
       </c>
     </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>759</v>
       </c>
@@ -7619,7 +7619,7 @@
         <v>37950000</v>
       </c>
     </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>760</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>38000000</v>
       </c>
     </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>761</v>
       </c>
@@ -7637,7 +7637,7 @@
         <v>38050000</v>
       </c>
     </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>762</v>
       </c>
@@ -7646,7 +7646,7 @@
         <v>38100000</v>
       </c>
     </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>763</v>
       </c>
@@ -7655,7 +7655,7 @@
         <v>38150000</v>
       </c>
     </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>764</v>
       </c>
@@ -7664,7 +7664,7 @@
         <v>38200000</v>
       </c>
     </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>765</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>38250000</v>
       </c>
     </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>766</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>38300000</v>
       </c>
     </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>767</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>38350000</v>
       </c>
     </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>768</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>38400000</v>
       </c>
     </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>769</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>38450000</v>
       </c>
     </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>770</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>38500000</v>
       </c>
     </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>771</v>
       </c>
@@ -7727,7 +7727,7 @@
         <v>38550000</v>
       </c>
     </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>772</v>
       </c>
@@ -7736,7 +7736,7 @@
         <v>38600000</v>
       </c>
     </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>773</v>
       </c>
@@ -7745,7 +7745,7 @@
         <v>38650000</v>
       </c>
     </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>774</v>
       </c>
@@ -7754,7 +7754,7 @@
         <v>38700000</v>
       </c>
     </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>775</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>38750000</v>
       </c>
     </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>776</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>38800000</v>
       </c>
     </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>777</v>
       </c>
@@ -7781,7 +7781,7 @@
         <v>38850000</v>
       </c>
     </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>778</v>
       </c>
@@ -7790,7 +7790,7 @@
         <v>38900000</v>
       </c>
     </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>779</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>38950000</v>
       </c>
     </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>780</v>
       </c>
@@ -7808,7 +7808,7 @@
         <v>39000000</v>
       </c>
     </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>781</v>
       </c>
@@ -7817,7 +7817,7 @@
         <v>39050000</v>
       </c>
     </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>782</v>
       </c>
@@ -7826,7 +7826,7 @@
         <v>39100000</v>
       </c>
     </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>783</v>
       </c>
@@ -7835,7 +7835,7 @@
         <v>39150000</v>
       </c>
     </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>784</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>39200000</v>
       </c>
     </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>785</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>39250000</v>
       </c>
     </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>786</v>
       </c>
@@ -7862,7 +7862,7 @@
         <v>39300000</v>
       </c>
     </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>787</v>
       </c>
@@ -7871,7 +7871,7 @@
         <v>39350000</v>
       </c>
     </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>788</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>39400000</v>
       </c>
     </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>789</v>
       </c>
@@ -7889,7 +7889,7 @@
         <v>39450000</v>
       </c>
     </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>790</v>
       </c>
@@ -7898,7 +7898,7 @@
         <v>39500000</v>
       </c>
     </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>791</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>39550000</v>
       </c>
     </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>792</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>39600000</v>
       </c>
     </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>793</v>
       </c>
@@ -7925,7 +7925,7 @@
         <v>39650000</v>
       </c>
     </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>794</v>
       </c>
@@ -7934,7 +7934,7 @@
         <v>39700000</v>
       </c>
     </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>795</v>
       </c>
@@ -7943,7 +7943,7 @@
         <v>39750000</v>
       </c>
     </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>796</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>39800000</v>
       </c>
     </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>797</v>
       </c>
@@ -7961,7 +7961,7 @@
         <v>39850000</v>
       </c>
     </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>798</v>
       </c>
@@ -7970,7 +7970,7 @@
         <v>39900000</v>
       </c>
     </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>799</v>
       </c>
@@ -7979,7 +7979,7 @@
         <v>39950000</v>
       </c>
     </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>800</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>40000000</v>
       </c>
     </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>801</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>40050000</v>
       </c>
     </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>802</v>
       </c>
@@ -8006,7 +8006,7 @@
         <v>40100000</v>
       </c>
     </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>803</v>
       </c>
@@ -8015,7 +8015,7 @@
         <v>40150000</v>
       </c>
     </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>804</v>
       </c>
@@ -8024,7 +8024,7 @@
         <v>40200000</v>
       </c>
     </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>805</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>40250000</v>
       </c>
     </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>806</v>
       </c>
@@ -8042,7 +8042,7 @@
         <v>40300000</v>
       </c>
     </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>807</v>
       </c>
@@ -8051,7 +8051,7 @@
         <v>40350000</v>
       </c>
     </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>808</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>40400000</v>
       </c>
     </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>809</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>40450000</v>
       </c>
     </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>810</v>
       </c>
@@ -8078,7 +8078,7 @@
         <v>40500000</v>
       </c>
     </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>811</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>40550000</v>
       </c>
     </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>812</v>
       </c>
@@ -8096,7 +8096,7 @@
         <v>40600000</v>
       </c>
     </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>813</v>
       </c>
@@ -8105,7 +8105,7 @@
         <v>40650000</v>
       </c>
     </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>814</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>40700000</v>
       </c>
     </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>815</v>
       </c>
@@ -8123,7 +8123,7 @@
         <v>40750000</v>
       </c>
     </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>816</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>40800000</v>
       </c>
     </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>817</v>
       </c>
@@ -8141,7 +8141,7 @@
         <v>40850000</v>
       </c>
     </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>818</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>40900000</v>
       </c>
     </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>819</v>
       </c>
@@ -8159,7 +8159,7 @@
         <v>40950000</v>
       </c>
     </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>820</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>41000000</v>
       </c>
     </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>821</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>41050000</v>
       </c>
     </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>822</v>
       </c>
@@ -8186,7 +8186,7 @@
         <v>41100000</v>
       </c>
     </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>823</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>41150000</v>
       </c>
     </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>824</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>41200000</v>
       </c>
     </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>825</v>
       </c>
@@ -8213,7 +8213,7 @@
         <v>41250000</v>
       </c>
     </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>826</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>41300000</v>
       </c>
     </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>827</v>
       </c>
@@ -8231,7 +8231,7 @@
         <v>41350000</v>
       </c>
     </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>828</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>41400000</v>
       </c>
     </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>829</v>
       </c>
@@ -8249,7 +8249,7 @@
         <v>41450000</v>
       </c>
     </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>830</v>
       </c>
@@ -8258,7 +8258,7 @@
         <v>41500000</v>
       </c>
     </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>831</v>
       </c>
@@ -8267,7 +8267,7 @@
         <v>41550000</v>
       </c>
     </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>832</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>41600000</v>
       </c>
     </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>833</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>41650000</v>
       </c>
     </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>834</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>41700000</v>
       </c>
     </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>835</v>
       </c>
@@ -8303,7 +8303,7 @@
         <v>41750000</v>
       </c>
     </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>836</v>
       </c>
@@ -8312,7 +8312,7 @@
         <v>41800000</v>
       </c>
     </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>837</v>
       </c>
@@ -8321,7 +8321,7 @@
         <v>41850000</v>
       </c>
     </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>838</v>
       </c>
@@ -8330,7 +8330,7 @@
         <v>41900000</v>
       </c>
     </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>839</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>41950000</v>
       </c>
     </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>840</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>42000000</v>
       </c>
     </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>841</v>
       </c>
@@ -8357,7 +8357,7 @@
         <v>42050000</v>
       </c>
     </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>842</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>42100000</v>
       </c>
     </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>843</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>42150000</v>
       </c>
     </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>844</v>
       </c>
@@ -8384,7 +8384,7 @@
         <v>42200000</v>
       </c>
     </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>845</v>
       </c>
@@ -8393,7 +8393,7 @@
         <v>42250000</v>
       </c>
     </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>846</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>42300000</v>
       </c>
     </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>847</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>42350000</v>
       </c>
     </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>848</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>42400000</v>
       </c>
     </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>849</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>42450000</v>
       </c>
     </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>850</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>42500000</v>
       </c>
     </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>851</v>
       </c>
@@ -8447,7 +8447,7 @@
         <v>42550000</v>
       </c>
     </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>852</v>
       </c>
@@ -8456,7 +8456,7 @@
         <v>42600000</v>
       </c>
     </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>853</v>
       </c>
@@ -8465,7 +8465,7 @@
         <v>42650000</v>
       </c>
     </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>854</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>42700000</v>
       </c>
     </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>855</v>
       </c>
@@ -8483,7 +8483,7 @@
         <v>42750000</v>
       </c>
     </row>
-    <row r="856" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="856" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>856</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>42800000</v>
       </c>
     </row>
-    <row r="857" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="857" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>857</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>42850000</v>
       </c>
     </row>
-    <row r="858" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="858" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>858</v>
       </c>
@@ -8510,7 +8510,7 @@
         <v>42900000</v>
       </c>
     </row>
-    <row r="859" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="859" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>859</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>42950000</v>
       </c>
     </row>
-    <row r="860" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="860" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>860</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>43000000</v>
       </c>
     </row>
-    <row r="861" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="861" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>861</v>
       </c>
@@ -8537,7 +8537,7 @@
         <v>43050000</v>
       </c>
     </row>
-    <row r="862" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="862" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>862</v>
       </c>
@@ -8546,7 +8546,7 @@
         <v>43100000</v>
       </c>
     </row>
-    <row r="863" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="863" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>863</v>
       </c>
@@ -8555,7 +8555,7 @@
         <v>43150000</v>
       </c>
     </row>
-    <row r="864" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="864" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>864</v>
       </c>
@@ -8564,7 +8564,7 @@
         <v>43200000</v>
       </c>
     </row>
-    <row r="865" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>865</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>43250000</v>
       </c>
     </row>
-    <row r="866" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>866</v>
       </c>
@@ -8582,7 +8582,7 @@
         <v>43300000</v>
       </c>
     </row>
-    <row r="867" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="867" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>867</v>
       </c>
@@ -8591,7 +8591,7 @@
         <v>43350000</v>
       </c>
     </row>
-    <row r="868" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="868" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>868</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>43400000</v>
       </c>
     </row>
-    <row r="869" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="869" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>869</v>
       </c>
@@ -8609,7 +8609,7 @@
         <v>43450000</v>
       </c>
     </row>
-    <row r="870" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="870" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>870</v>
       </c>
@@ -8618,7 +8618,7 @@
         <v>43500000</v>
       </c>
     </row>
-    <row r="871" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="871" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>871</v>
       </c>
@@ -8627,7 +8627,7 @@
         <v>43550000</v>
       </c>
     </row>
-    <row r="872" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="872" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>872</v>
       </c>
@@ -8636,7 +8636,7 @@
         <v>43600000</v>
       </c>
     </row>
-    <row r="873" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="873" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>873</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>43650000</v>
       </c>
     </row>
-    <row r="874" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="874" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>874</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>43700000</v>
       </c>
     </row>
-    <row r="875" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="875" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>875</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>43750000</v>
       </c>
     </row>
-    <row r="876" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="876" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>876</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>43800000</v>
       </c>
     </row>
-    <row r="877" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>877</v>
       </c>
@@ -8681,7 +8681,7 @@
         <v>43850000</v>
       </c>
     </row>
-    <row r="878" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>878</v>
       </c>
@@ -8690,7 +8690,7 @@
         <v>43900000</v>
       </c>
     </row>
-    <row r="879" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>879</v>
       </c>
@@ -8699,7 +8699,7 @@
         <v>43950000</v>
       </c>
     </row>
-    <row r="880" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>880</v>
       </c>
@@ -8708,7 +8708,7 @@
         <v>44000000</v>
       </c>
     </row>
-    <row r="881" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="881" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>881</v>
       </c>
@@ -8717,7 +8717,7 @@
         <v>44050000</v>
       </c>
     </row>
-    <row r="882" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="882" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>882</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>44100000</v>
       </c>
     </row>
-    <row r="883" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="883" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>883</v>
       </c>
@@ -8735,7 +8735,7 @@
         <v>44150000</v>
       </c>
     </row>
-    <row r="884" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="884" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>884</v>
       </c>
@@ -8744,7 +8744,7 @@
         <v>44200000</v>
       </c>
     </row>
-    <row r="885" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="885" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>885</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>44250000</v>
       </c>
     </row>
-    <row r="886" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="886" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>886</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>44300000</v>
       </c>
     </row>
-    <row r="887" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="887" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>887</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>44350000</v>
       </c>
     </row>
-    <row r="888" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="888" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>888</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>44400000</v>
       </c>
     </row>
-    <row r="889" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="889" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>889</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>44450000</v>
       </c>
     </row>
-    <row r="890" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="890" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>890</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>44500000</v>
       </c>
     </row>
-    <row r="891" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="891" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>891</v>
       </c>
@@ -8807,7 +8807,7 @@
         <v>44550000</v>
       </c>
     </row>
-    <row r="892" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="892" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>892</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>44600000</v>
       </c>
     </row>
-    <row r="893" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="893" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>893</v>
       </c>
@@ -8825,7 +8825,7 @@
         <v>44650000</v>
       </c>
     </row>
-    <row r="894" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="894" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>894</v>
       </c>
@@ -8834,7 +8834,7 @@
         <v>44700000</v>
       </c>
     </row>
-    <row r="895" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="895" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>895</v>
       </c>
@@ -8843,7 +8843,7 @@
         <v>44750000</v>
       </c>
     </row>
-    <row r="896" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="896" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>896</v>
       </c>
@@ -8852,7 +8852,7 @@
         <v>44800000</v>
       </c>
     </row>
-    <row r="897" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="897" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>897</v>
       </c>
@@ -8861,7 +8861,7 @@
         <v>44850000</v>
       </c>
     </row>
-    <row r="898" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="898" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>898</v>
       </c>
@@ -8870,7 +8870,7 @@
         <v>44900000</v>
       </c>
     </row>
-    <row r="899" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="899" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>899</v>
       </c>
@@ -8879,7 +8879,7 @@
         <v>44950000</v>
       </c>
     </row>
-    <row r="900" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="900" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>900</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>45000000</v>
       </c>
     </row>
-    <row r="901" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="901" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>901</v>
       </c>
@@ -8897,7 +8897,7 @@
         <v>45050000</v>
       </c>
     </row>
-    <row r="902" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="902" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>902</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>45100000</v>
       </c>
     </row>
-    <row r="903" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="903" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>903</v>
       </c>
@@ -8915,7 +8915,7 @@
         <v>45150000</v>
       </c>
     </row>
-    <row r="904" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="904" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>904</v>
       </c>
@@ -8924,7 +8924,7 @@
         <v>45200000</v>
       </c>
     </row>
-    <row r="905" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="905" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>905</v>
       </c>
@@ -8933,7 +8933,7 @@
         <v>45250000</v>
       </c>
     </row>
-    <row r="906" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="906" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>906</v>
       </c>
@@ -8942,7 +8942,7 @@
         <v>45300000</v>
       </c>
     </row>
-    <row r="907" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="907" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>907</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>45350000</v>
       </c>
     </row>
-    <row r="908" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="908" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>908</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>45400000</v>
       </c>
     </row>
-    <row r="909" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="909" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>909</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>45450000</v>
       </c>
     </row>
-    <row r="910" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="910" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>910</v>
       </c>
@@ -8978,7 +8978,7 @@
         <v>45500000</v>
       </c>
     </row>
-    <row r="911" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="911" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>911</v>
       </c>
@@ -8987,7 +8987,7 @@
         <v>45550000</v>
       </c>
     </row>
-    <row r="912" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="912" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>912</v>
       </c>
@@ -8996,7 +8996,7 @@
         <v>45600000</v>
       </c>
     </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>913</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>45650000</v>
       </c>
     </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>914</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>45700000</v>
       </c>
     </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>915</v>
       </c>
@@ -9023,7 +9023,7 @@
         <v>45750000</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>916</v>
       </c>
@@ -9032,7 +9032,7 @@
         <v>45800000</v>
       </c>
     </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>917</v>
       </c>
@@ -9041,7 +9041,7 @@
         <v>45850000</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>918</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>45900000</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>919</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>45950000</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>920</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>46000000</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>921</v>
       </c>
@@ -9077,7 +9077,7 @@
         <v>46050000</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>922</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>46100000</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>923</v>
       </c>
@@ -9095,7 +9095,7 @@
         <v>46150000</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>924</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>46200000</v>
       </c>
     </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>925</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>46250000</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>926</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>46300000</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>927</v>
       </c>
@@ -9131,7 +9131,7 @@
         <v>46350000</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>928</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>46400000</v>
       </c>
     </row>
-    <row r="929" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="929" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>929</v>
       </c>
@@ -9149,7 +9149,7 @@
         <v>46450000</v>
       </c>
     </row>
-    <row r="930" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="930" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>930</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>46500000</v>
       </c>
     </row>
-    <row r="931" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="931" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>931</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>46550000</v>
       </c>
     </row>
-    <row r="932" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="932" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>932</v>
       </c>
@@ -9176,7 +9176,7 @@
         <v>46600000</v>
       </c>
     </row>
-    <row r="933" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="933" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>933</v>
       </c>
@@ -9185,7 +9185,7 @@
         <v>46650000</v>
       </c>
     </row>
-    <row r="934" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="934" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>934</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>46700000</v>
       </c>
     </row>
-    <row r="935" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="935" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>935</v>
       </c>
@@ -9203,7 +9203,7 @@
         <v>46750000</v>
       </c>
     </row>
-    <row r="936" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="936" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>936</v>
       </c>
@@ -9212,7 +9212,7 @@
         <v>46800000</v>
       </c>
     </row>
-    <row r="937" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="937" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>937</v>
       </c>
@@ -9221,7 +9221,7 @@
         <v>46850000</v>
       </c>
     </row>
-    <row r="938" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="938" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>938</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>46900000</v>
       </c>
     </row>
-    <row r="939" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="939" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>939</v>
       </c>
@@ -9239,7 +9239,7 @@
         <v>46950000</v>
       </c>
     </row>
-    <row r="940" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="940" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>940</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>47000000</v>
       </c>
     </row>
-    <row r="941" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="941" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>941</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>47050000</v>
       </c>
     </row>
-    <row r="942" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="942" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>942</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>47100000</v>
       </c>
     </row>
-    <row r="943" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="943" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>943</v>
       </c>
@@ -9275,7 +9275,7 @@
         <v>47150000</v>
       </c>
     </row>
-    <row r="944" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="944" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>944</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>47200000</v>
       </c>
     </row>
-    <row r="945" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="945" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>945</v>
       </c>
@@ -9293,7 +9293,7 @@
         <v>47250000</v>
       </c>
     </row>
-    <row r="946" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="946" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>946</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>47300000</v>
       </c>
     </row>
-    <row r="947" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="947" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>947</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>47350000</v>
       </c>
     </row>
-    <row r="948" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="948" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>948</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>47400000</v>
       </c>
     </row>
-    <row r="949" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="949" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>949</v>
       </c>
@@ -9329,7 +9329,7 @@
         <v>47450000</v>
       </c>
     </row>
-    <row r="950" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="950" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>950</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>47500000</v>
       </c>
     </row>
-    <row r="951" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="951" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>951</v>
       </c>
@@ -9347,7 +9347,7 @@
         <v>47550000</v>
       </c>
     </row>
-    <row r="952" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="952" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>952</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>47600000</v>
       </c>
     </row>
-    <row r="953" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="953" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>953</v>
       </c>
@@ -9365,7 +9365,7 @@
         <v>47650000</v>
       </c>
     </row>
-    <row r="954" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="954" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>954</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>47700000</v>
       </c>
     </row>
-    <row r="955" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="955" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>955</v>
       </c>
@@ -9383,7 +9383,7 @@
         <v>47750000</v>
       </c>
     </row>
-    <row r="956" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="956" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>956</v>
       </c>
@@ -9392,7 +9392,7 @@
         <v>47800000</v>
       </c>
     </row>
-    <row r="957" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="957" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>957</v>
       </c>
@@ -9401,7 +9401,7 @@
         <v>47850000</v>
       </c>
     </row>
-    <row r="958" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="958" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>958</v>
       </c>
@@ -9410,7 +9410,7 @@
         <v>47900000</v>
       </c>
     </row>
-    <row r="959" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="959" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>959</v>
       </c>
@@ -9419,7 +9419,7 @@
         <v>47950000</v>
       </c>
     </row>
-    <row r="960" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="960" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>960</v>
       </c>
@@ -9428,7 +9428,7 @@
         <v>48000000</v>
       </c>
     </row>
-    <row r="961" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="961" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>961</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>48050000</v>
       </c>
     </row>
-    <row r="962" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="962" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>962</v>
       </c>
@@ -9446,7 +9446,7 @@
         <v>48100000</v>
       </c>
     </row>
-    <row r="963" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="963" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>963</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>48150000</v>
       </c>
     </row>
-    <row r="964" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="964" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>964</v>
       </c>
@@ -9464,7 +9464,7 @@
         <v>48200000</v>
       </c>
     </row>
-    <row r="965" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="965" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>965</v>
       </c>
@@ -9473,7 +9473,7 @@
         <v>48250000</v>
       </c>
     </row>
-    <row r="966" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="966" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>966</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>48300000</v>
       </c>
     </row>
-    <row r="967" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="967" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>967</v>
       </c>
@@ -9491,7 +9491,7 @@
         <v>48350000</v>
       </c>
     </row>
-    <row r="968" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="968" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>968</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>48400000</v>
       </c>
     </row>
-    <row r="969" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="969" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>969</v>
       </c>
@@ -9509,7 +9509,7 @@
         <v>48450000</v>
       </c>
     </row>
-    <row r="970" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="970" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>970</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>48500000</v>
       </c>
     </row>
-    <row r="971" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="971" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>971</v>
       </c>
@@ -9527,7 +9527,7 @@
         <v>48550000</v>
       </c>
     </row>
-    <row r="972" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="972" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>972</v>
       </c>
@@ -9536,7 +9536,7 @@
         <v>48600000</v>
       </c>
     </row>
-    <row r="973" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="973" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>973</v>
       </c>
@@ -9545,7 +9545,7 @@
         <v>48650000</v>
       </c>
     </row>
-    <row r="974" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="974" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>974</v>
       </c>
@@ -9554,7 +9554,7 @@
         <v>48700000</v>
       </c>
     </row>
-    <row r="975" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="975" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>975</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>48750000</v>
       </c>
     </row>
-    <row r="976" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="976" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>976</v>
       </c>
@@ -9572,7 +9572,7 @@
         <v>48800000</v>
       </c>
     </row>
-    <row r="977" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="977" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>977</v>
       </c>
@@ -9581,7 +9581,7 @@
         <v>48850000</v>
       </c>
     </row>
-    <row r="978" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="978" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>978</v>
       </c>
@@ -9590,7 +9590,7 @@
         <v>48900000</v>
       </c>
     </row>
-    <row r="979" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="979" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>979</v>
       </c>
@@ -9599,7 +9599,7 @@
         <v>48950000</v>
       </c>
     </row>
-    <row r="980" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="980" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>980</v>
       </c>
@@ -9608,7 +9608,7 @@
         <v>49000000</v>
       </c>
     </row>
-    <row r="981" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="981" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>981</v>
       </c>
@@ -9617,7 +9617,7 @@
         <v>49050000</v>
       </c>
     </row>
-    <row r="982" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="982" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>982</v>
       </c>
@@ -9626,7 +9626,7 @@
         <v>49100000</v>
       </c>
     </row>
-    <row r="983" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="983" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>983</v>
       </c>
@@ -9635,7 +9635,7 @@
         <v>49150000</v>
       </c>
     </row>
-    <row r="984" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="984" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>984</v>
       </c>
@@ -9644,7 +9644,7 @@
         <v>49200000</v>
       </c>
     </row>
-    <row r="985" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="985" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>985</v>
       </c>
@@ -9653,7 +9653,7 @@
         <v>49250000</v>
       </c>
     </row>
-    <row r="986" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="986" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>986</v>
       </c>
@@ -9662,7 +9662,7 @@
         <v>49300000</v>
       </c>
     </row>
-    <row r="987" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="987" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>987</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>49350000</v>
       </c>
     </row>
-    <row r="988" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="988" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>988</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>49400000</v>
       </c>
     </row>
-    <row r="989" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="989" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>989</v>
       </c>
@@ -9689,7 +9689,7 @@
         <v>49450000</v>
       </c>
     </row>
-    <row r="990" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="990" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>990</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>49500000</v>
       </c>
     </row>
-    <row r="991" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="991" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>991</v>
       </c>
@@ -9707,7 +9707,7 @@
         <v>49550000</v>
       </c>
     </row>
-    <row r="992" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="992" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>992</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>49600000</v>
       </c>
     </row>
-    <row r="993" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="993" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>993</v>
       </c>
@@ -9725,7 +9725,7 @@
         <v>49650000</v>
       </c>
     </row>
-    <row r="994" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="994" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>994</v>
       </c>
@@ -9734,7 +9734,7 @@
         <v>49700000</v>
       </c>
     </row>
-    <row r="995" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="995" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>995</v>
       </c>
@@ -9743,7 +9743,7 @@
         <v>49750000</v>
       </c>
     </row>
-    <row r="996" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="996" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>996</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>49800000</v>
       </c>
     </row>
-    <row r="997" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="997" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>997</v>
       </c>
@@ -9761,7 +9761,7 @@
         <v>49850000</v>
       </c>
     </row>
-    <row r="998" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="998" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>998</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>49900000</v>
       </c>
     </row>
-    <row r="999" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="999" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>999</v>
       </c>
@@ -9779,7 +9779,7 @@
         <v>49950000</v>
       </c>
     </row>
-    <row r="1000" spans="1:2" x14ac:dyDescent="0.4">
+    <row r="1000" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>1000</v>
       </c>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DB6834-295E-44A8-9BF7-C7DE1F07A6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB4E0AD-13F9-402E-83F5-C5B9B11B7BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -526,7 +526,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -621,7 +621,7 @@
         <v>7.5</v>
       </c>
       <c r="F3" s="2">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB4E0AD-13F9-402E-83F5-C5B9B11B7BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20CE4A-D7B7-4D2F-9D2C-1F05E399E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>120000</v>
+        <v>360000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -621,7 +621,7 @@
         <v>7.5</v>
       </c>
       <c r="F3" s="2">
-        <v>120000</v>
+        <v>360000</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -653,7 +653,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" s="2">
-        <v>80000</v>
+        <v>120000</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A20CE4A-D7B7-4D2F-9D2C-1F05E399E505}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F797A8-0A35-4197-A693-B673DF3B9041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성한 힘의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -659,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>17</v>
@@ -691,7 +699,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>18</v>
@@ -723,7 +731,7 @@
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <v>30000</v>
+        <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>19</v>
@@ -755,13 +763,45 @@
         <v>3</v>
       </c>
       <c r="H7" s="2">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>360000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F797A8-0A35-4197-A693-B673DF3B9041}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8FC2AF-BE0C-4244-86AF-4BD6FF943ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3270" yWindow="3120" windowWidth="31725" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,14 +119,6 @@
   </si>
   <si>
     <t>grade</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>relic6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각성한 힘의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -770,38 +762,6 @@
       </c>
       <c r="J7" s="2">
         <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
-      <c r="D8" s="1">
-        <v>25</v>
-      </c>
-      <c r="E8" s="1">
-        <v>5.0000000000000004E-6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>360000</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="1">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA8FC2AF-BE0C-4244-86AF-4BD6FF943ADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE29AA-2AAF-4127-B52D-5EE74952DAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="3120" windowWidth="31725" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -621,7 +621,7 @@
         <v>7.5</v>
       </c>
       <c r="F3" s="2">
-        <v>360000</v>
+        <v>400000</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -653,7 +653,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" s="2">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -717,7 +717,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DE29AA-2AAF-4127-B52D-5EE74952DAF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB32A880-6429-4B75-889D-710CD9F8094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6255" yWindow="4710" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -589,7 +589,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -621,7 +621,7 @@
         <v>7.5</v>
       </c>
       <c r="F3" s="2">
-        <v>400000</v>
+        <v>450000</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -653,7 +653,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>100000</v>
+        <v>120000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB32A880-6429-4B75-889D-710CD9F8094B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F5CE4-940D-456E-819D-4D81807AB843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6255" yWindow="4710" windowWidth="29865" windowHeight="16290" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,14 @@
   </si>
   <si>
     <t>grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각성한 힘의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -523,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -537,6 +545,7 @@
     <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.625" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
+    <col min="8" max="8" width="16.625" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -717,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>120000</v>
+        <v>200000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -762,6 +771,38 @@
       </c>
       <c r="J7" s="2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>25</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>300000</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4</v>
+      </c>
+      <c r="H8" s="1">
+        <v>200000</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714F5CE4-940D-456E-819D-4D81807AB843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3C6879-14D8-4926-B532-2152D7110950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -630,7 +630,7 @@
         <v>7.5</v>
       </c>
       <c r="F3" s="2">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -662,7 +662,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,13 +790,13 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>23</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3C6879-14D8-4926-B532-2152D7110950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B0023-2CA5-48E9-8E54-395739D944AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-60" yWindow="3660" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>500000</v>
+        <v>700000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -662,7 +662,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>300000</v>
+        <v>500000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>400000</v>
+        <v>600000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C53B0023-2CA5-48E9-8E54-395739D944AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C530C246-38DC-442D-908E-9183476D4A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="3660" windowWidth="35730" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>700000</v>
+        <v>1000000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -630,7 +630,7 @@
         <v>7.5</v>
       </c>
       <c r="F3" s="2">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="G3" s="2">
         <v>-1</v>
@@ -662,7 +662,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>500000</v>
+        <v>800000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -694,7 +694,7 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="F5" s="2">
-        <v>150000</v>
+        <v>300000</v>
       </c>
       <c r="G5" s="2">
         <v>1</v>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>500000</v>
+        <v>800000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>600000</v>
+        <v>1000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C530C246-38DC-442D-908E-9183476D4A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD990D2-BDD6-4AA3-877E-FB2C28C214DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="6390" yWindow="1605" windowWidth="23010" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,7 +790,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD990D2-BDD6-4AA3-877E-FB2C28C214DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E4C43-EC74-4868-9E39-348932D647B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1605" windowWidth="23010" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="8145" yWindow="5475" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -662,7 +662,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>800000</v>
+        <v>2000000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>800000</v>
+        <v>2000000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F12E4C43-EC74-4868-9E39-348932D647B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6E66C-589A-4B6B-8AE0-6BB386398B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8145" yWindow="5475" windowWidth="26955" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="1">
-        <v>2000000</v>
+        <v>3000000</v>
       </c>
       <c r="G2" s="1">
         <v>-1</v>
@@ -662,7 +662,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>2000000</v>
+        <v>2500000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>3000000</v>
+        <v>3500000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D6E66C-589A-4B6B-8AE0-6BB386398B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C7B3BA-24D1-4A39-B589-530C39FD020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,7 +790,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>3500000</v>
+        <v>4500000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4C7B3BA-24D1-4A39-B589-530C39FD020E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91313F69-754C-42F0-8CD6-050B3654F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="G4" s="1">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>2500000</v>
+        <v>3000000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>4500000</v>
+        <v>6000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91313F69-754C-42F0-8CD6-050B3654F6C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E2C9B-F18B-4F72-9C4E-3FBE91C90C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>3000000</v>
+        <v>6000000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -787,10 +787,10 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>1.0000000000000001E-5</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>6000000</v>
+        <v>12000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E99E2C9B-F18B-4F72-9C4E-3FBE91C90C45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46A48A8-0406-4508-AB33-5BA7508349D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -787,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>2.5000000000000001E-5</v>
+        <v>5.0000000000000002E-5</v>
       </c>
       <c r="F8" s="1">
         <v>12000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46A48A8-0406-4508-AB33-5BA7508349D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C95163A-EC6F-482F-8B87-C091C4C312A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>6000000</v>
+        <v>7000000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>12000000</v>
+        <v>20000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C95163A-EC6F-482F-8B87-C091C4C312A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81E39B6-C232-4294-ACA0-72813B6F4E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -790,7 +790,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>20000000</v>
+        <v>40000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F81E39B6-C232-4294-ACA0-72813B6F4E7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D13DE45-E9C5-42CA-B00A-63149A9E3F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="28800" windowHeight="15435" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>40000000</v>
+        <v>80000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D13DE45-E9C5-42CA-B00A-63149A9E3F50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83BA18A-9C53-4E62-B487-0F1EB7F813BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>80000000</v>
+        <v>90000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83BA18A-9C53-4E62-B487-0F1EB7F813BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84712CA6-7503-440F-8957-CBE5FB53A294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -726,7 +726,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -790,7 +790,7 @@
         <v>5.0000000000000002E-5</v>
       </c>
       <c r="F8" s="1">
-        <v>90000000</v>
+        <v>100000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84712CA6-7503-440F-8957-CBE5FB53A294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F182BF-D790-4B06-85A6-C812F05248CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -787,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>5.0000000000000002E-5</v>
+        <v>6.9999999999999994E-5</v>
       </c>
       <c r="F8" s="1">
         <v>100000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F182BF-D790-4B06-85A6-C812F05248CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021709A6-AE8A-4FCC-83F0-559A39AE8B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3255" yWindow="4515" windowWidth="31605" windowHeight="11490" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -787,7 +787,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>6.9999999999999994E-5</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="F8" s="1">
         <v>100000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021709A6-AE8A-4FCC-83F0-559A39AE8B0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E86BFE-484E-4BD3-AB23-C47CB3C50250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3255" yWindow="4515" windowWidth="31605" windowHeight="11490" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -127,6 +127,14 @@
   </si>
   <si>
     <t>각성한 힘의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장산범의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -803,6 +811,38 @@
       </c>
       <c r="J8" s="1">
         <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>25</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9.0000000000000006E-5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4</v>
+      </c>
+      <c r="H9" s="1">
+        <v>300000</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E86BFE-484E-4BD3-AB23-C47CB3C50250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD35751-66D3-418E-B2EC-0B5704FE3EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -550,7 +550,7 @@
     <col min="1" max="1" width="9.375" customWidth="1"/>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="32.625" customWidth="1"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="16.625" customWidth="1"/>
@@ -824,19 +824,19 @@
         <v>1</v>
       </c>
       <c r="D9" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>9.0000000000000006E-5</v>
+        <v>3.9999999999999998E-7</v>
       </c>
       <c r="F9" s="1">
-        <v>100000000</v>
+        <v>30000000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
       </c>
       <c r="H9" s="1">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>25</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD35751-66D3-418E-B2EC-0B5704FE3EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366DEF0-A738-413D-B46D-CE39F54770F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -795,10 +795,10 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>9.0000000000000006E-5</v>
+        <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>100000000</v>
+        <v>150000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
@@ -827,7 +827,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>3.9999999999999998E-7</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="F9" s="1">
         <v>30000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9366DEF0-A738-413D-B46D-CE39F54770F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE04312-756E-4658-A270-B7A83DAB2DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -827,7 +827,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>4.9999999999999998E-7</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="F9" s="1">
         <v>30000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE04312-756E-4658-A270-B7A83DAB2DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2230C0D-8B90-4775-A9DB-D21F2AEB4B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="F6" s="1">
-        <v>12000000</v>
+        <v>15000000</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
@@ -798,7 +798,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>150000000</v>
+        <v>200000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
@@ -830,7 +830,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F9" s="1">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2230C0D-8B90-4775-A9DB-D21F2AEB4B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C05943-164B-4E37-9CA3-B3E331C34BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,7 +827,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>9.9999999999999995E-7</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="F9" s="1">
         <v>40000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95C05943-164B-4E37-9CA3-B3E331C34BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379CD6AD-1EC8-4D16-93D9-A0AF270C67C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5070" yWindow="5070" windowWidth="32445" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,7 +798,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>200000000</v>
+        <v>250000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379CD6AD-1EC8-4D16-93D9-A0AF270C67C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E89261-7185-4948-AD52-A47F0363675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="5070" windowWidth="32445" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -798,7 +798,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>250000000</v>
+        <v>300000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E89261-7185-4948-AD52-A47F0363675A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9C6A4A-C02A-462D-B51A-16AE606ABFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28800" yWindow="2565" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -798,7 +798,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>300000000</v>
+        <v>400000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B9C6A4A-C02A-462D-B51A-16AE606ABFE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940454BF-0E8C-4E1C-9275-70BF822CD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="2565" windowWidth="28800" windowHeight="11400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -798,7 +798,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>400000000</v>
+        <v>800000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940454BF-0E8C-4E1C-9275-70BF822CD1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83433C0C-8343-4122-81BC-249F296B6989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,10 +827,10 @@
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>1.9999999999999999E-6</v>
+        <v>1E-4</v>
       </c>
       <c r="F9" s="1">
-        <v>40000000</v>
+        <v>50000000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83433C0C-8343-4122-81BC-249F296B6989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14C15F8-0E3F-4D8A-BF5D-774A0E29D97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="34695" windowHeight="12750" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,7 +798,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>800000000</v>
+        <v>1500000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>
@@ -830,7 +830,7 @@
         <v>1E-4</v>
       </c>
       <c r="F9" s="1">
-        <v>50000000</v>
+        <v>60000000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C14C15F8-0E3F-4D8A-BF5D-774A0E29D97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59512045-6E6F-4B4D-9632-8FEC8A8BC4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="34695" windowHeight="12750" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -827,7 +827,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="F9" s="1">
         <v>60000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\Unity\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59512045-6E6F-4B4D-9632-8FEC8A8BC4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA87A7-0A95-4E85-AECB-EA525C75EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,7 +798,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>1500000000</v>
+        <v>2000000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCA87A7-0A95-4E85-AECB-EA525C75EB65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45125D-5871-419E-89F1-023613B2C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="5985" yWindow="2610" windowWidth="25080" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -798,7 +798,7 @@
         <v>1.4999999999999999E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>2000000000</v>
+        <v>4000000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F45125D-5871-419E-89F1-023613B2C2FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B053D4-C44B-4497-A7AA-6D0F42E3AD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="2610" windowWidth="25080" windowHeight="12450" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="3510" yWindow="1800" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -542,7 +542,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -795,7 +795,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>1.4999999999999999E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F8" s="1">
         <v>4000000000</v>
@@ -827,7 +827,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>2.0000000000000001E-4</v>
+        <v>4.0000000000000002E-4</v>
       </c>
       <c r="F9" s="1">
         <v>60000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47B053D4-C44B-4497-A7AA-6D0F42E3AD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF5B291-6A38-4B2A-9CF4-4653880628A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="1800" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="40080" yWindow="9135" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -795,7 +795,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>2.9999999999999997E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
         <v>4000000000</v>
@@ -827,7 +827,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="1">
-        <v>4.0000000000000002E-4</v>
+        <v>2.9999999999999997E-4</v>
       </c>
       <c r="F9" s="1">
         <v>60000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF5B291-6A38-4B2A-9CF4-4653880628A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6467600C-C02E-4642-AC3E-6159CB47B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40080" yWindow="9135" windowWidth="25080" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,6 +135,13 @@
   </si>
   <si>
     <t>장산범의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic8</t>
+  </si>
+  <si>
+    <t>차사의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -843,6 +850,38 @@
       </c>
       <c r="J9" s="1">
         <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.5E-4</v>
+      </c>
+      <c r="F10" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6467600C-C02E-4642-AC3E-6159CB47B5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92F9177-E4BB-4149-9AB4-8FFCC45BA4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4485" yWindow="960" windowWidth="27660" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -866,10 +866,10 @@
         <v>35</v>
       </c>
       <c r="E10" s="1">
-        <v>3.5E-4</v>
+        <v>3.4999999999999998E-7</v>
       </c>
       <c r="F10" s="1">
-        <v>60000000</v>
+        <v>50000000</v>
       </c>
       <c r="G10" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\UnityProjects\YoKI\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI (2)\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A92F9177-E4BB-4149-9AB4-8FFCC45BA4AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338EE0CF-2CE0-456B-9A72-1EB42F7361C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="960" windowWidth="27660" windowHeight="14400" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -549,7 +549,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,7 +805,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>4000000000</v>
+        <v>10000000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\New\YoKI (2)\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338EE0CF-2CE0-456B-9A72-1EB42F7361C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C894E6-98B8-4D17-A016-C8813049248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,13 @@
   </si>
   <si>
     <t>차사의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic9</t>
+  </si>
+  <si>
+    <t>천계의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -882,6 +889,38 @@
       </c>
       <c r="J10" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4C894E6-98B8-4D17-A016-C8813049248B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272492B-73D6-4646-BD09-CE188DD7DF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -905,7 +905,7 @@
         <v>36</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>3.4999999999999998E-7</v>
       </c>
       <c r="F11" s="1">
         <v>50000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Desktop\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\SVNB\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8272492B-73D6-4646-BD09-CE188DD7DF6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C41981-E1B5-491B-96AA-45503B3FB8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -873,7 +873,7 @@
         <v>35</v>
       </c>
       <c r="E10" s="1">
-        <v>3.4999999999999998E-7</v>
+        <v>4.9999999999999998E-7</v>
       </c>
       <c r="F10" s="1">
         <v>50000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wer37\Documents\SVNB\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C41981-E1B5-491B-96AA-45503B3FB8A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E89442-FD8A-45BE-BD41-7D5D2D46E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -876,7 +876,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="F10" s="1">
-        <v>50000000</v>
+        <v>60000000</v>
       </c>
       <c r="G10" s="1">
         <v>-1</v>
@@ -908,7 +908,7 @@
         <v>3.4999999999999998E-7</v>
       </c>
       <c r="F11" s="1">
-        <v>50000000</v>
+        <v>60000000</v>
       </c>
       <c r="G11" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7E89442-FD8A-45BE-BD41-7D5D2D46E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644621A5-3BCA-4085-9B4E-2A13B3D97CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="4590" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,7 +844,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F9" s="1">
-        <v>60000000</v>
+        <v>70000000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -876,7 +876,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="F10" s="1">
-        <v>60000000</v>
+        <v>70000000</v>
       </c>
       <c r="G10" s="1">
         <v>-1</v>
@@ -908,7 +908,7 @@
         <v>3.4999999999999998E-7</v>
       </c>
       <c r="F11" s="1">
-        <v>60000000</v>
+        <v>70000000</v>
       </c>
       <c r="G11" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644621A5-3BCA-4085-9B4E-2A13B3D97CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F99B0-A664-427C-87DB-C146895F6CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="1200" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -556,7 +556,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -844,7 +844,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F9" s="1">
-        <v>70000000</v>
+        <v>80000000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -876,7 +876,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="F10" s="1">
-        <v>70000000</v>
+        <v>80000000</v>
       </c>
       <c r="G10" s="1">
         <v>-1</v>
@@ -908,7 +908,7 @@
         <v>3.4999999999999998E-7</v>
       </c>
       <c r="F11" s="1">
-        <v>70000000</v>
+        <v>80000000</v>
       </c>
       <c r="G11" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9F99B0-A664-427C-87DB-C146895F6CB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A7A990-78B3-43DD-A9FB-6CF159C3C70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="1890" windowWidth="33075" windowHeight="13710" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,13 @@
   </si>
   <si>
     <t>천계의 영혼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relic10</t>
+  </si>
+  <si>
+    <t>도깨비의 영혼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -921,6 +928,38 @@
       </c>
       <c r="J11" s="1">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="1">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6A7A990-78B3-43DD-A9FB-6CF159C3C70B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A78C03-5B8C-4C61-99FD-9FB0DF589F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,7 +563,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -851,7 +851,7 @@
         <v>2.9999999999999997E-4</v>
       </c>
       <c r="F9" s="1">
-        <v>80000000</v>
+        <v>100000000</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -883,7 +883,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
       <c r="F10" s="1">
-        <v>80000000</v>
+        <v>100000000</v>
       </c>
       <c r="G10" s="1">
         <v>-1</v>
@@ -915,7 +915,7 @@
         <v>3.4999999999999998E-7</v>
       </c>
       <c r="F11" s="1">
-        <v>80000000</v>
+        <v>100000000</v>
       </c>
       <c r="G11" s="1">
         <v>-1</v>
@@ -947,7 +947,7 @@
         <v>1.9999999999999999E-7</v>
       </c>
       <c r="F12" s="1">
-        <v>80000000</v>
+        <v>100000000</v>
       </c>
       <c r="G12" s="1">
         <v>-1</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A78C03-5B8C-4C61-99FD-9FB0DF589F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA6D22-A675-436A-A5DF-6E074B97837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -563,7 +563,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -819,7 +819,7 @@
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
-        <v>10000000000</v>
+        <v>50000000000</v>
       </c>
       <c r="G8" s="1">
         <v>4</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BA6D22-A675-436A-A5DF-6E074B97837A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299AFD02-5B2F-4BEC-906C-921105923522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{299AFD02-5B2F-4BEC-906C-921105923522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E200FE2-5BDA-4F5B-9DC2-30A67FAAE783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -563,7 +563,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>2.5000000000000001E-4</v>
+        <v>3.5E-4</v>
       </c>
       <c r="F8" s="1">
         <v>50000000000</v>

--- a/Assets/06.Table/RelicTable.xlsx
+++ b/Assets/06.Table/RelicTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Build\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E200FE2-5BDA-4F5B-9DC2-30A67FAAE783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79CE2AF8-85D2-4199-8C1E-DAD0B9EB60E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="RelicTable" sheetId="1" r:id="rId1"/>
@@ -563,7 +563,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -816,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="1">
-        <v>3.5E-4</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="F8" s="1">
         <v>50000000000</v>
